--- a/atuais.xlsx
+++ b/atuais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael Abrantes\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FC9373-D095-41E6-B7EC-37114A6A39E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6650F3A6-66DB-40ED-A142-1F6BE2517377}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="79">
   <si>
     <t>10ª GRE</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>Expectativa Taxa Aprovação</t>
-  </si>
-  <si>
-    <t>2 Expectativa Taxa Aprovação</t>
   </si>
   <si>
     <t>% Estudantes &gt; Média em Português</t>
@@ -657,7 +654,7 @@
   <dimension ref="A1:AO32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC30" sqref="AC30"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,7 +718,7 @@
         <v>26</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>27</v>
@@ -736,100 +733,100 @@
         <v>30</v>
       </c>
       <c r="J1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC1" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AC1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AL1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="AO1" s="6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
@@ -843,10 +840,10 @@
         <v>25017438</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F2" s="9">
         <v>0.95730000000000004</v>
@@ -858,22 +855,22 @@
         <v>3</v>
       </c>
       <c r="I2" s="9">
-        <v>0.68379999999999996</v>
+        <v>0.93159999999999998</v>
       </c>
       <c r="J2" s="9">
-        <v>0.89739999999999998</v>
+        <v>0.93159999999999998</v>
       </c>
       <c r="K2" s="14">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L2" s="9">
-        <v>0.89739999999999998</v>
+        <v>0.91449999999999998</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N2" s="9">
-        <v>0.8034</v>
+        <v>0.78210000000000002</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -915,7 +912,7 @@
         <v>3</v>
       </c>
       <c r="AB2" s="9">
-        <v>0.1923</v>
+        <v>0.188</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -962,31 +959,31 @@
         <v>25019597</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F3" s="9">
         <v>0.98140000000000005</v>
       </c>
       <c r="G3" s="9">
-        <v>0.88819999999999999</v>
+        <v>0.89439999999999997</v>
       </c>
       <c r="H3">
         <v>3</v>
       </c>
       <c r="I3" s="9">
-        <v>0.62729999999999997</v>
+        <v>0.95650000000000002</v>
       </c>
       <c r="J3" s="9">
-        <v>0.91930000000000001</v>
+        <v>0.95650000000000002</v>
       </c>
       <c r="K3" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L3" s="9">
-        <v>0.91930000000000001</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="M3">
         <v>1.5</v>
@@ -998,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="9">
-        <v>0.98760000000000003</v>
+        <v>0.99380000000000002</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1083,10 +1080,10 @@
         <v>25014951</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" s="2">
-        <v>34.5</v>
+        <v>37.5</v>
       </c>
       <c r="F4" s="9">
         <v>1</v>
@@ -1098,13 +1095,13 @@
         <v>3</v>
       </c>
       <c r="I4" s="9">
-        <v>0.70779999999999998</v>
+        <v>0.94520000000000004</v>
       </c>
       <c r="J4" s="9">
-        <v>0.93149999999999999</v>
+        <v>0.94520000000000004</v>
       </c>
       <c r="K4" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L4" s="9">
         <v>0.92689999999999995</v>
@@ -1202,7 +1199,7 @@
         <v>25019740</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5" s="13">
         <v>46.5</v>
@@ -1217,7 +1214,7 @@
         <v>3</v>
       </c>
       <c r="I5" s="11">
-        <v>0.96909999999999996</v>
+        <v>1</v>
       </c>
       <c r="J5" s="11">
         <v>1</v>
@@ -1321,28 +1318,28 @@
         <v>25014412</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" s="4">
-        <v>34.5</v>
+        <v>37.5</v>
       </c>
       <c r="F6" s="13">
         <v>1</v>
       </c>
       <c r="G6" s="11">
-        <v>0.94579999999999997</v>
+        <v>0.95179999999999998</v>
       </c>
       <c r="H6">
         <v>3</v>
       </c>
       <c r="I6" s="11">
-        <v>0.56020000000000003</v>
+        <v>0.97589999999999999</v>
       </c>
       <c r="J6" s="11">
-        <v>0.92169999999999996</v>
+        <v>0.97589999999999999</v>
       </c>
       <c r="K6" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L6" s="11">
         <v>0.80720000000000003</v>
@@ -1357,13 +1354,13 @@
         <v>0</v>
       </c>
       <c r="P6" s="11">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6" s="11">
         <v>0.9819</v>
-      </c>
-      <c r="Q6">
-        <v>3</v>
-      </c>
-      <c r="R6" s="11">
-        <v>0.95779999999999998</v>
       </c>
       <c r="S6">
         <v>3</v>
@@ -1393,7 +1390,7 @@
         <v>3</v>
       </c>
       <c r="AB6" s="11">
-        <v>0.21079999999999999</v>
+        <v>0.20480000000000001</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1440,10 +1437,10 @@
         <v>25018094</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" s="2">
-        <v>30</v>
+        <v>31.5</v>
       </c>
       <c r="F7" s="9">
         <v>0.95830000000000004</v>
@@ -1455,13 +1452,13 @@
         <v>3</v>
       </c>
       <c r="I7" s="9">
-        <v>0.66290000000000004</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="J7" s="9">
-        <v>0.87119999999999997</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="K7" s="14">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L7" s="9">
         <v>0.90910000000000002</v>
@@ -1470,13 +1467,13 @@
         <v>1.5</v>
       </c>
       <c r="N7" s="9">
-        <v>0.89770000000000005</v>
+        <v>0.89019999999999999</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" s="9">
-        <v>0.91669999999999996</v>
+        <v>0.92049999999999998</v>
       </c>
       <c r="Q7">
         <v>1.5</v>
@@ -1488,7 +1485,7 @@
         <v>1.5</v>
       </c>
       <c r="T7" s="9">
-        <v>0.90149999999999997</v>
+        <v>0.90529999999999999</v>
       </c>
       <c r="U7">
         <v>1.5</v>
@@ -1512,7 +1509,7 @@
         <v>3</v>
       </c>
       <c r="AB7" s="9">
-        <v>0.15529999999999999</v>
+        <v>0.1439</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -1534,7 +1531,7 @@
         <v>1.5</v>
       </c>
       <c r="AJ7" s="9">
-        <v>1.89E-2</v>
+        <v>2.2700000000000001E-2</v>
       </c>
       <c r="AK7">
         <v>3</v>
@@ -1566,7 +1563,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="4">
-        <v>42</v>
+        <v>43.5</v>
       </c>
       <c r="F8" s="11">
         <v>1</v>
@@ -1578,13 +1575,13 @@
         <v>3</v>
       </c>
       <c r="I8" s="11">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="J8" s="11">
         <v>1</v>
       </c>
       <c r="K8" s="15">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L8" s="11">
         <v>1</v>
@@ -1699,7 +1696,7 @@
         <v>3</v>
       </c>
       <c r="I9" s="11">
-        <v>0.98970000000000002</v>
+        <v>1</v>
       </c>
       <c r="J9" s="11">
         <v>1</v>
@@ -1803,37 +1800,37 @@
         <v>25018280</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" s="4">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F10" s="11">
         <v>0.99780000000000002</v>
       </c>
       <c r="G10" s="11">
-        <v>0.91720000000000002</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="H10">
         <v>3</v>
       </c>
       <c r="I10" s="11">
-        <v>0.72770000000000001</v>
+        <v>0.96940000000000004</v>
       </c>
       <c r="J10" s="11">
-        <v>0.93679999999999997</v>
+        <v>0.96940000000000004</v>
       </c>
       <c r="K10" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L10" s="11">
-        <v>0.92810000000000004</v>
+        <v>0.93010000000000004</v>
       </c>
       <c r="M10">
         <v>1.5</v>
       </c>
       <c r="N10" s="11">
-        <v>0.93030000000000002</v>
+        <v>0.92579999999999996</v>
       </c>
       <c r="O10">
         <v>1.5</v>
@@ -1845,13 +1842,13 @@
         <v>3</v>
       </c>
       <c r="R10" s="11">
-        <v>0.97389999999999999</v>
+        <v>0.9738</v>
       </c>
       <c r="S10">
         <v>3</v>
       </c>
       <c r="T10" s="11">
-        <v>0.95420000000000005</v>
+        <v>0.95409999999999995</v>
       </c>
       <c r="U10">
         <v>3</v>
@@ -1875,13 +1872,13 @@
         <v>3</v>
       </c>
       <c r="AB10" s="11">
-        <v>8.0600000000000005E-2</v>
+        <v>7.8600000000000003E-2</v>
       </c>
       <c r="AC10">
         <v>0</v>
       </c>
       <c r="AD10" s="11">
-        <v>0.64270000000000005</v>
+        <v>0.64410000000000001</v>
       </c>
       <c r="AE10">
         <v>0</v>
@@ -1924,10 +1921,10 @@
         <v>25017080</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11" s="2">
-        <v>34.5</v>
+        <v>39</v>
       </c>
       <c r="F11" s="9">
         <v>0.98209999999999997</v>
@@ -1939,19 +1936,19 @@
         <v>3</v>
       </c>
       <c r="I11" s="9">
-        <v>0.75</v>
+        <v>0.9405</v>
       </c>
       <c r="J11" s="9">
-        <v>0.91669999999999996</v>
+        <v>0.9405</v>
       </c>
       <c r="K11" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L11" s="9">
-        <v>0.89290000000000003</v>
+        <v>0.90480000000000005</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N11" s="9">
         <v>1</v>
@@ -1972,7 +1969,7 @@
         <v>3</v>
       </c>
       <c r="T11" s="9">
-        <v>0.94640000000000002</v>
+        <v>0.98809999999999998</v>
       </c>
       <c r="U11">
         <v>3</v>
@@ -1996,7 +1993,7 @@
         <v>3</v>
       </c>
       <c r="AB11" s="9">
-        <v>0.13100000000000001</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -2048,7 +2045,7 @@
         <v>22</v>
       </c>
       <c r="E12" s="4">
-        <v>43.5</v>
+        <v>45</v>
       </c>
       <c r="F12" s="11">
         <v>0.98799999999999999</v>
@@ -2060,13 +2057,13 @@
         <v>3</v>
       </c>
       <c r="I12" s="11">
-        <v>0.93979999999999997</v>
+        <v>1</v>
       </c>
       <c r="J12" s="11">
         <v>1</v>
       </c>
       <c r="K12" s="15">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L12" s="11">
         <v>0.98799999999999999</v>
@@ -2165,25 +2162,25 @@
         <v>12</v>
       </c>
       <c r="E13" s="4">
-        <v>21</v>
+        <v>22.5</v>
       </c>
       <c r="F13" s="11">
         <v>0.96889999999999998</v>
       </c>
       <c r="G13" s="11">
-        <v>0.85489999999999999</v>
+        <v>0.85229999999999995</v>
       </c>
       <c r="H13">
         <v>3</v>
       </c>
       <c r="I13" s="11">
-        <v>0.57509999999999994</v>
+        <v>0.93779999999999997</v>
       </c>
       <c r="J13" s="11">
-        <v>0.87309999999999999</v>
+        <v>0.93779999999999997</v>
       </c>
       <c r="K13" s="14">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L13" s="11">
         <v>0.84460000000000002</v>
@@ -2198,19 +2195,19 @@
         <v>0</v>
       </c>
       <c r="P13" s="11">
-        <v>0.78239999999999998</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13" s="11">
-        <v>0.93779999999999997</v>
+        <v>0.93259999999999998</v>
       </c>
       <c r="S13">
         <v>1.5</v>
       </c>
       <c r="T13" s="11">
-        <v>0.80569999999999997</v>
+        <v>0.79020000000000001</v>
       </c>
       <c r="U13">
         <v>0</v>
@@ -2284,7 +2281,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="2">
-        <v>39</v>
+        <v>40.5</v>
       </c>
       <c r="F14" s="9">
         <v>0.98929999999999996</v>
@@ -2296,10 +2293,10 @@
         <v>3</v>
       </c>
       <c r="I14" s="9">
-        <v>0.95709999999999995</v>
+        <v>1</v>
       </c>
       <c r="J14" s="9">
-        <v>0.99729999999999996</v>
+        <v>1</v>
       </c>
       <c r="K14" s="15">
         <v>3</v>
@@ -2329,10 +2326,10 @@
         <v>3</v>
       </c>
       <c r="T14" s="9">
-        <v>0.8579</v>
+        <v>0.91149999999999998</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="V14" s="9">
         <v>0.9103</v>
@@ -2353,7 +2350,7 @@
         <v>3</v>
       </c>
       <c r="AB14" s="9">
-        <v>8.0000000000000002E-3</v>
+        <v>1.34E-2</v>
       </c>
       <c r="AC14">
         <v>3</v>
@@ -2371,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="9">
-        <v>8.0000000000000002E-3</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="AK14">
         <v>3</v>
@@ -2403,25 +2400,25 @@
         <v>14</v>
       </c>
       <c r="E15" s="4">
-        <v>28.5</v>
+        <v>31.5</v>
       </c>
       <c r="F15" s="11">
         <v>0.95730000000000004</v>
       </c>
       <c r="G15" s="11">
-        <v>0.77600000000000002</v>
+        <v>0.78129999999999999</v>
       </c>
       <c r="H15">
         <v>3</v>
       </c>
       <c r="I15" s="11">
-        <v>0.52800000000000002</v>
+        <v>0.97070000000000001</v>
       </c>
       <c r="J15" s="11">
-        <v>0.93330000000000002</v>
+        <v>0.97070000000000001</v>
       </c>
       <c r="K15" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L15" s="11">
         <v>0.81330000000000002</v>
@@ -2430,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="11">
-        <v>0.73599999999999999</v>
+        <v>0.70669999999999999</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -2442,7 +2439,7 @@
         <v>1.5</v>
       </c>
       <c r="R15" s="11">
-        <v>0.96799999999999997</v>
+        <v>0.96530000000000005</v>
       </c>
       <c r="S15">
         <v>3</v>
@@ -2472,7 +2469,7 @@
         <v>3</v>
       </c>
       <c r="AB15" s="11">
-        <v>0.25600000000000001</v>
+        <v>0.26129999999999998</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -2519,28 +2516,28 @@
         <v>25018264</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E16" s="2">
-        <v>31.5</v>
+        <v>33</v>
       </c>
       <c r="F16" s="9">
         <v>0.95450000000000002</v>
       </c>
       <c r="G16" s="9">
-        <v>0.89090000000000003</v>
+        <v>0.9</v>
       </c>
       <c r="H16">
         <v>3</v>
       </c>
       <c r="I16" s="9">
-        <v>0.91820000000000002</v>
+        <v>1</v>
       </c>
       <c r="J16" s="9">
         <v>1</v>
       </c>
       <c r="K16" s="15">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L16" s="9">
         <v>0.97270000000000001</v>
@@ -2641,7 +2638,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="4">
-        <v>28.5</v>
+        <v>31.5</v>
       </c>
       <c r="F17" s="11">
         <v>0.98309999999999997</v>
@@ -2653,13 +2650,13 @@
         <v>3</v>
       </c>
       <c r="I17" s="11">
-        <v>0.82199999999999995</v>
+        <v>0.98309999999999997</v>
       </c>
       <c r="J17" s="11">
-        <v>0.96609999999999996</v>
+        <v>0.98309999999999997</v>
       </c>
       <c r="K17" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L17" s="11">
         <v>0.95760000000000001</v>
@@ -2755,10 +2752,10 @@
         <v>25017071</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" s="2">
-        <v>34.5</v>
+        <v>37.5</v>
       </c>
       <c r="F18" s="9">
         <v>0.98160000000000003</v>
@@ -2770,13 +2767,13 @@
         <v>3</v>
       </c>
       <c r="I18" s="9">
-        <v>0.82210000000000005</v>
+        <v>1</v>
       </c>
       <c r="J18" s="9">
-        <v>0.98770000000000002</v>
+        <v>1</v>
       </c>
       <c r="K18" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L18" s="9">
         <v>0.98160000000000003</v>
@@ -2797,7 +2794,7 @@
         <v>3</v>
       </c>
       <c r="R18" s="9">
-        <v>0.98770000000000002</v>
+        <v>0.99390000000000001</v>
       </c>
       <c r="S18">
         <v>3</v>
@@ -2827,7 +2824,7 @@
         <v>3</v>
       </c>
       <c r="AB18" s="9">
-        <v>7.3599999999999999E-2</v>
+        <v>5.5199999999999999E-2</v>
       </c>
       <c r="AC18">
         <v>0</v>
@@ -2983,10 +2980,10 @@
         <v>25018078</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E20" s="4">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F20" s="11">
         <v>0.9667</v>
@@ -2998,13 +2995,13 @@
         <v>3</v>
       </c>
       <c r="I20" s="11">
-        <v>0.5111</v>
+        <v>0.9667</v>
       </c>
       <c r="J20" s="11">
-        <v>0.91110000000000002</v>
+        <v>0.9667</v>
       </c>
       <c r="K20" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L20" s="11">
         <v>0.82779999999999998</v>
@@ -3105,52 +3102,52 @@
         <v>16</v>
       </c>
       <c r="E21" s="2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F21" s="9">
-        <v>0.93379999999999996</v>
+        <v>0.93410000000000004</v>
       </c>
       <c r="G21" s="9">
-        <v>0.73529999999999995</v>
+        <v>0.73629999999999995</v>
       </c>
       <c r="H21">
         <v>3</v>
       </c>
       <c r="I21" s="9">
-        <v>0.69120000000000004</v>
+        <v>0.98170000000000002</v>
       </c>
       <c r="J21" s="9">
-        <v>0.96689999999999998</v>
+        <v>0.98170000000000002</v>
       </c>
       <c r="K21" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L21" s="9">
-        <v>0.94489999999999996</v>
+        <v>0.94140000000000001</v>
       </c>
       <c r="M21">
         <v>3</v>
       </c>
       <c r="N21" s="9">
-        <v>0.91539999999999999</v>
+        <v>0.91210000000000002</v>
       </c>
       <c r="O21">
         <v>1.5</v>
       </c>
       <c r="P21" s="9">
-        <v>0.95960000000000001</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="Q21">
         <v>3</v>
       </c>
       <c r="R21" s="9">
-        <v>0.97060000000000002</v>
+        <v>0.97070000000000001</v>
       </c>
       <c r="S21">
         <v>3</v>
       </c>
       <c r="T21" s="9">
-        <v>0.96689999999999998</v>
+        <v>0.96340000000000003</v>
       </c>
       <c r="U21">
         <v>3</v>
@@ -3174,7 +3171,7 @@
         <v>3</v>
       </c>
       <c r="AB21" s="9">
-        <v>0.19850000000000001</v>
+        <v>0.19409999999999999</v>
       </c>
       <c r="AC21">
         <v>0</v>
@@ -3194,7 +3191,7 @@
         <v>1.5</v>
       </c>
       <c r="AJ21" s="9">
-        <v>1.84E-2</v>
+        <v>1.83E-2</v>
       </c>
       <c r="AK21">
         <v>3</v>
@@ -3226,55 +3223,55 @@
         <v>17</v>
       </c>
       <c r="E22" s="4">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="F22" s="11">
-        <v>0.85329999999999995</v>
+        <v>0.85</v>
       </c>
       <c r="G22" s="11">
-        <v>0.61</v>
+        <v>0.61919999999999997</v>
       </c>
       <c r="H22">
         <v>1.5</v>
       </c>
       <c r="I22" s="11">
-        <v>0.50580000000000003</v>
+        <v>0.96919999999999995</v>
       </c>
       <c r="J22" s="11">
-        <v>0.91890000000000005</v>
+        <v>0.96919999999999995</v>
       </c>
       <c r="K22" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L22" s="11">
-        <v>0.87260000000000004</v>
+        <v>0.87309999999999999</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22" s="11">
-        <v>0.73360000000000003</v>
+        <v>0.71540000000000004</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22" s="11">
-        <v>0.81850000000000001</v>
+        <v>0.81920000000000004</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
       <c r="R22" s="11">
-        <v>0.93049999999999999</v>
+        <v>0.9385</v>
       </c>
       <c r="S22">
         <v>1.5</v>
       </c>
       <c r="T22" s="11">
-        <v>0.89959999999999996</v>
+        <v>0.9</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="V22" s="11">
         <v>0.75639999999999996</v>
@@ -3295,7 +3292,7 @@
         <v>1.5</v>
       </c>
       <c r="AB22" s="11">
-        <v>0.26250000000000001</v>
+        <v>0.26919999999999999</v>
       </c>
       <c r="AC22">
         <v>0</v>
@@ -3315,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="AJ22" s="11">
-        <v>1.1599999999999999E-2</v>
+        <v>1.15E-2</v>
       </c>
       <c r="AK22">
         <v>3</v>
@@ -3344,10 +3341,10 @@
         <v>25018221</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" s="4">
-        <v>37.5</v>
+        <v>42</v>
       </c>
       <c r="F23" s="11">
         <v>0.98780000000000001</v>
@@ -3359,13 +3356,13 @@
         <v>3</v>
       </c>
       <c r="I23" s="11">
-        <v>0.8841</v>
+        <v>0.99390000000000001</v>
       </c>
       <c r="J23" s="11">
-        <v>0.98170000000000002</v>
+        <v>0.99390000000000001</v>
       </c>
       <c r="K23" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L23" s="11">
         <v>0.97560000000000002</v>
@@ -3374,7 +3371,7 @@
         <v>3</v>
       </c>
       <c r="N23" s="11">
-        <v>0.98780000000000001</v>
+        <v>0.97560000000000002</v>
       </c>
       <c r="O23">
         <v>3</v>
@@ -3416,10 +3413,10 @@
         <v>3</v>
       </c>
       <c r="AB23" s="11">
-        <v>4.2700000000000002E-2</v>
+        <v>3.0499999999999999E-2</v>
       </c>
       <c r="AC23">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AD23" s="11"/>
       <c r="AE23">
@@ -3463,10 +3460,10 @@
         <v>25018639</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E24" s="2">
-        <v>25.5</v>
+        <v>28.5</v>
       </c>
       <c r="F24" s="9">
         <v>0.90780000000000005</v>
@@ -3478,13 +3475,13 @@
         <v>1.5</v>
       </c>
       <c r="I24" s="9">
-        <v>0.56659999999999999</v>
+        <v>0.9829</v>
       </c>
       <c r="J24" s="9">
-        <v>0.94199999999999995</v>
+        <v>0.9829</v>
       </c>
       <c r="K24" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L24" s="9">
         <v>0.91810000000000003</v>
@@ -3555,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="AJ24" s="9">
-        <v>0.18090000000000001</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="AK24">
         <v>0</v>
@@ -3587,10 +3584,10 @@
         <v>18</v>
       </c>
       <c r="E25" s="2">
-        <v>25.5</v>
+        <v>30</v>
       </c>
       <c r="F25" s="9">
-        <v>0.98470000000000002</v>
+        <v>0.97709999999999997</v>
       </c>
       <c r="G25" s="9">
         <v>0.92369999999999997</v>
@@ -3599,19 +3596,19 @@
         <v>3</v>
       </c>
       <c r="I25" s="9">
-        <v>0.68700000000000006</v>
+        <v>0.97709999999999997</v>
       </c>
       <c r="J25" s="9">
-        <v>0.9466</v>
+        <v>0.97709999999999997</v>
       </c>
       <c r="K25" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L25" s="9">
-        <v>0.88549999999999995</v>
+        <v>0.90839999999999999</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N25" s="9">
         <v>0.87790000000000001</v>
@@ -3632,7 +3629,7 @@
         <v>3</v>
       </c>
       <c r="T25" s="9">
-        <v>0.82440000000000002</v>
+        <v>0.83209999999999995</v>
       </c>
       <c r="U25">
         <v>0</v>
@@ -3675,7 +3672,9 @@
       <c r="AI25">
         <v>3</v>
       </c>
-      <c r="AJ25" s="2"/>
+      <c r="AJ25" s="9">
+        <v>7.6E-3</v>
+      </c>
       <c r="AK25">
         <v>3</v>
       </c>
@@ -3706,7 +3705,7 @@
         <v>19</v>
       </c>
       <c r="E26" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F26" s="9">
         <v>0.96430000000000005</v>
@@ -3718,13 +3717,13 @@
         <v>3</v>
       </c>
       <c r="I26" s="9">
-        <v>0.78569999999999995</v>
+        <v>0.99109999999999998</v>
       </c>
       <c r="J26" s="9">
-        <v>0.98209999999999997</v>
+        <v>0.99109999999999998</v>
       </c>
       <c r="K26" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L26" s="9">
         <v>0.97319999999999995</v>
@@ -3825,25 +3824,25 @@
         <v>20</v>
       </c>
       <c r="E27" s="2">
-        <v>31.5</v>
+        <v>37.5</v>
       </c>
       <c r="F27" s="9">
-        <v>0.96220000000000006</v>
+        <v>0.96760000000000002</v>
       </c>
       <c r="G27" s="9">
-        <v>0.89190000000000003</v>
+        <v>0.89729999999999999</v>
       </c>
       <c r="H27">
         <v>3</v>
       </c>
       <c r="I27" s="9">
-        <v>0.70269999999999999</v>
+        <v>0.98380000000000001</v>
       </c>
       <c r="J27" s="9">
-        <v>0.96760000000000002</v>
+        <v>0.98380000000000001</v>
       </c>
       <c r="K27" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L27" s="9">
         <v>0.91349999999999998</v>
@@ -3858,7 +3857,7 @@
         <v>1.5</v>
       </c>
       <c r="P27" s="9">
-        <v>0.92430000000000001</v>
+        <v>0.92969999999999997</v>
       </c>
       <c r="Q27">
         <v>1.5</v>
@@ -3894,7 +3893,7 @@
         <v>3</v>
       </c>
       <c r="AB27" s="9">
-        <v>0.15679999999999999</v>
+        <v>0.1459</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -3903,11 +3902,9 @@
       <c r="AE27">
         <v>0</v>
       </c>
-      <c r="AF27" s="9">
-        <v>5.4000000000000003E-3</v>
-      </c>
+      <c r="AF27" s="9"/>
       <c r="AG27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH27" s="9">
         <v>0.875</v>
@@ -3916,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="AJ27" s="9">
-        <v>2.1600000000000001E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="AK27">
         <v>3</v>
@@ -3945,31 +3942,31 @@
         <v>25018272</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E28" s="4">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F28" s="11">
         <v>0.96850000000000003</v>
       </c>
       <c r="G28" s="11">
-        <v>0.91890000000000005</v>
+        <v>0.9234</v>
       </c>
       <c r="H28">
         <v>3</v>
       </c>
       <c r="I28" s="11">
-        <v>0.52249999999999996</v>
+        <v>0.92789999999999995</v>
       </c>
       <c r="J28" s="11">
-        <v>0.84230000000000005</v>
+        <v>0.92789999999999995</v>
       </c>
       <c r="K28" s="14">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L28" s="11">
-        <v>0.7883</v>
+        <v>0.79279999999999995</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -3981,10 +3978,10 @@
         <v>0</v>
       </c>
       <c r="P28" s="11">
-        <v>0.88290000000000002</v>
+        <v>0.90090000000000003</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R28" s="11">
         <v>0.97750000000000004</v>
@@ -3993,7 +3990,7 @@
         <v>3</v>
       </c>
       <c r="T28" s="11">
-        <v>0.81530000000000002</v>
+        <v>0.86040000000000005</v>
       </c>
       <c r="U28">
         <v>0</v>
@@ -4037,7 +4034,7 @@
         <v>3</v>
       </c>
       <c r="AJ28" s="11">
-        <v>1.35E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="AK28">
         <v>3</v>
@@ -4066,28 +4063,28 @@
         <v>25018582</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E29" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F29" s="9">
-        <v>0.92620000000000002</v>
+        <v>0.92759999999999998</v>
       </c>
       <c r="G29" s="9">
-        <v>0.6421</v>
+        <v>0.64480000000000004</v>
       </c>
       <c r="H29">
         <v>3</v>
       </c>
       <c r="I29" s="9">
-        <v>0.59289999999999998</v>
+        <v>0.97270000000000001</v>
       </c>
       <c r="J29" s="9">
-        <v>0.91259999999999997</v>
+        <v>0.97270000000000001</v>
       </c>
       <c r="K29" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L29" s="9">
         <v>0.91259999999999997</v>
@@ -4096,19 +4093,19 @@
         <v>1.5</v>
       </c>
       <c r="N29" s="9">
-        <v>0.83879999999999999</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="O29">
         <v>0</v>
       </c>
       <c r="P29" s="9">
-        <v>0.9617</v>
+        <v>0.97540000000000004</v>
       </c>
       <c r="Q29">
         <v>3</v>
       </c>
       <c r="R29" s="9">
-        <v>0.99319999999999997</v>
+        <v>0.99729999999999996</v>
       </c>
       <c r="S29">
         <v>3</v>
@@ -4138,7 +4135,7 @@
         <v>3</v>
       </c>
       <c r="AB29" s="9">
-        <v>0.1694</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="AC29">
         <v>0</v>
@@ -4176,13 +4173,13 @@
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="G31" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="G32" s="8">
         <f>AVERAGE(E2:E29)</f>
-        <v>33.107142857142854</v>
+        <v>35.785714285714285</v>
       </c>
     </row>
   </sheetData>

--- a/atuais.xlsx
+++ b/atuais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael Abrantes\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6650F3A6-66DB-40ED-A142-1F6BE2517377}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A69E3AA-604B-46F3-9F71-EC219AAA2877}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -268,10 +268,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,16 +276,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,24 +286,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor theme="9" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -322,55 +299,20 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,7 +596,7 @@
   <dimension ref="A1:AO32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,243 +647,240 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" t="s">
         <v>38</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" t="s">
         <v>39</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" t="s">
         <v>41</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" t="s">
         <v>42</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" t="s">
         <v>43</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" t="s">
         <v>44</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" t="s">
         <v>46</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" t="s">
         <v>47</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" t="s">
         <v>78</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AD1" t="s">
         <v>48</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE1" t="s">
         <v>49</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" t="s">
         <v>50</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG1" t="s">
         <v>51</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AH1" t="s">
         <v>52</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AI1" t="s">
         <v>53</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AJ1" t="s">
         <v>54</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AK1" t="s">
         <v>55</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AL1" t="s">
         <v>56</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AM1" t="s">
         <v>57</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AN1" t="s">
         <v>58</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AO1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>25017438</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>36</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="3">
         <v>0.95730000000000004</v>
       </c>
-      <c r="G2" s="9">
-        <v>0.85899999999999999</v>
+      <c r="G2" s="3">
+        <v>0.86319999999999997</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
-      <c r="I2" s="9">
-        <v>0.93159999999999998</v>
-      </c>
-      <c r="J2" s="9">
-        <v>0.93159999999999998</v>
-      </c>
-      <c r="K2" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="L2" s="9">
-        <v>0.91449999999999998</v>
+      <c r="I2" s="3">
+        <v>0.93589999999999995</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.93589999999999995</v>
+      </c>
+      <c r="K2">
+        <v>1.5</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.90600000000000003</v>
       </c>
       <c r="M2">
         <v>1.5</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="3">
         <v>0.78210000000000002</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-      <c r="P2" s="9">
+      <c r="P2" s="3">
         <v>0.94020000000000004</v>
       </c>
       <c r="Q2">
         <v>3</v>
       </c>
-      <c r="R2" s="9">
-        <v>0.95299999999999996</v>
+      <c r="R2" s="3">
+        <v>0.96579999999999999</v>
       </c>
       <c r="S2">
         <v>3</v>
       </c>
-      <c r="T2" s="9">
+      <c r="T2" s="3">
         <v>0.85470000000000002</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
-      <c r="V2" s="9">
+      <c r="V2" s="3">
         <v>1</v>
       </c>
       <c r="W2">
         <v>3</v>
       </c>
-      <c r="X2" s="9">
+      <c r="X2" s="3">
         <v>0.93879999999999997</v>
       </c>
       <c r="Y2">
         <v>3</v>
       </c>
-      <c r="Z2" s="9">
+      <c r="Z2" s="3">
         <v>0.97619999999999996</v>
       </c>
       <c r="AA2">
         <v>3</v>
       </c>
-      <c r="AB2" s="9">
-        <v>0.188</v>
+      <c r="AB2" s="3">
+        <v>0.1923</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
-      <c r="AD2" s="9"/>
       <c r="AE2">
         <v>0</v>
       </c>
-      <c r="AF2" s="2"/>
       <c r="AG2">
         <v>3</v>
       </c>
-      <c r="AH2" s="9">
+      <c r="AH2" s="3">
         <v>0.94</v>
       </c>
       <c r="AI2">
         <v>3</v>
       </c>
-      <c r="AJ2" s="2"/>
       <c r="AK2">
         <v>3</v>
       </c>
-      <c r="AL2" s="9">
-        <v>0.94</v>
+      <c r="AL2" s="3">
+        <v>1</v>
       </c>
       <c r="AM2">
         <v>3</v>
       </c>
-      <c r="AN2" s="10">
+      <c r="AN2" s="4">
         <v>1</v>
       </c>
       <c r="AO2">
@@ -949,120 +888,118 @@
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>25019597</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="2">
-        <v>36</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="E3">
+        <v>39</v>
+      </c>
+      <c r="F3" s="3">
         <v>0.98140000000000005</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="3">
         <v>0.89439999999999997</v>
       </c>
       <c r="H3">
         <v>3</v>
       </c>
-      <c r="I3" s="9">
-        <v>0.95650000000000002</v>
-      </c>
-      <c r="J3" s="9">
-        <v>0.95650000000000002</v>
-      </c>
-      <c r="K3" s="14">
-        <v>3</v>
-      </c>
-      <c r="L3" s="9">
+      <c r="I3" s="3">
+        <v>0.9627</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.9627</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3" s="3">
         <v>0.91300000000000003</v>
       </c>
       <c r="M3">
         <v>1.5</v>
       </c>
-      <c r="N3" s="9">
-        <v>0.75780000000000003</v>
+      <c r="N3" s="3">
+        <v>0.76400000000000001</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="3">
         <v>0.99380000000000002</v>
       </c>
       <c r="Q3">
         <v>3</v>
       </c>
-      <c r="R3" s="9">
+      <c r="R3" s="3">
         <v>0.9627</v>
       </c>
       <c r="S3">
         <v>3</v>
       </c>
-      <c r="T3" s="9">
+      <c r="T3" s="3">
         <v>0.92549999999999999</v>
       </c>
       <c r="U3">
         <v>1.5</v>
       </c>
-      <c r="V3" s="9">
+      <c r="V3" s="3">
         <v>1</v>
       </c>
       <c r="W3">
         <v>3</v>
       </c>
-      <c r="X3" s="9">
+      <c r="X3" s="3">
         <v>1</v>
       </c>
       <c r="Y3">
         <v>3</v>
       </c>
-      <c r="Z3" s="9">
+      <c r="Z3" s="3">
         <v>1</v>
       </c>
       <c r="AA3">
         <v>3</v>
       </c>
-      <c r="AB3" s="9">
+      <c r="AB3" s="3">
         <v>0.14910000000000001</v>
       </c>
       <c r="AC3">
         <v>0</v>
       </c>
-      <c r="AD3" s="2"/>
       <c r="AE3">
         <v>0</v>
       </c>
-      <c r="AF3" s="2"/>
       <c r="AG3">
         <v>3</v>
       </c>
-      <c r="AH3" s="9">
+      <c r="AH3" s="3">
         <v>1</v>
       </c>
       <c r="AI3">
         <v>3</v>
       </c>
-      <c r="AJ3" s="9">
+      <c r="AJ3" s="3">
         <v>6.1999999999999998E-3</v>
       </c>
       <c r="AK3">
         <v>3</v>
       </c>
-      <c r="AL3" s="9">
-        <v>0.88</v>
+      <c r="AL3" s="3">
+        <v>1</v>
       </c>
       <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="10">
+        <v>3</v>
+      </c>
+      <c r="AN3" s="4">
         <v>1</v>
       </c>
       <c r="AO3">
@@ -1070,118 +1007,115 @@
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>25014951</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="2">
-        <v>37.5</v>
-      </c>
-      <c r="F4" s="9">
-        <v>1</v>
-      </c>
-      <c r="G4" s="9">
+      <c r="E4">
+        <v>40.5</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
         <v>1</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="3">
         <v>0.94520000000000004</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="3">
         <v>0.94520000000000004</v>
       </c>
-      <c r="K4" s="14">
-        <v>3</v>
-      </c>
-      <c r="L4" s="9">
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4" s="3">
         <v>0.92689999999999995</v>
       </c>
       <c r="M4">
         <v>1.5</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="3">
         <v>0.90869999999999995</v>
       </c>
       <c r="O4">
         <v>1.5</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="3">
         <v>0.94979999999999998</v>
       </c>
       <c r="Q4">
         <v>3</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R4" s="3">
         <v>0.95430000000000004</v>
       </c>
       <c r="S4">
         <v>3</v>
       </c>
-      <c r="T4" s="9">
+      <c r="T4" s="3">
         <v>0.91779999999999995</v>
       </c>
       <c r="U4">
         <v>1.5</v>
       </c>
-      <c r="V4" s="9">
+      <c r="V4" s="3">
         <v>0.9385</v>
       </c>
       <c r="W4">
         <v>3</v>
       </c>
-      <c r="X4" s="9">
+      <c r="X4" s="3">
         <v>0.96830000000000005</v>
       </c>
       <c r="Y4">
         <v>3</v>
       </c>
-      <c r="Z4" s="9">
+      <c r="Z4" s="3">
         <v>1</v>
       </c>
       <c r="AA4">
         <v>3</v>
       </c>
-      <c r="AB4" s="9">
+      <c r="AB4" s="3">
         <v>9.5899999999999999E-2</v>
       </c>
       <c r="AC4">
         <v>0</v>
       </c>
-      <c r="AD4" s="9"/>
       <c r="AE4">
         <v>0</v>
       </c>
-      <c r="AF4" s="2"/>
       <c r="AG4">
         <v>3</v>
       </c>
-      <c r="AH4" s="9">
+      <c r="AH4" s="3">
         <v>0.98360000000000003</v>
       </c>
       <c r="AI4">
         <v>3</v>
       </c>
-      <c r="AJ4" s="2"/>
       <c r="AK4">
         <v>3</v>
       </c>
-      <c r="AL4" s="9">
-        <v>0.88</v>
+      <c r="AL4" s="3">
+        <v>1.07</v>
       </c>
       <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="10">
+        <v>3</v>
+      </c>
+      <c r="AN4" s="4">
         <v>1</v>
       </c>
       <c r="AO4">
@@ -1189,118 +1123,115 @@
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5">
         <v>25019740</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="13">
-        <v>46.5</v>
-      </c>
-      <c r="F5" s="11">
-        <v>1</v>
-      </c>
-      <c r="G5" s="11">
+      <c r="E5">
+        <v>48</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
         <v>0.98770000000000002</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
-      <c r="I5" s="11">
-        <v>1</v>
-      </c>
-      <c r="J5" s="11">
-        <v>1</v>
-      </c>
-      <c r="K5" s="14">
-        <v>3</v>
-      </c>
-      <c r="L5" s="11">
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5" s="3">
         <v>1</v>
       </c>
       <c r="M5">
         <v>3</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="3">
         <v>0.96909999999999996</v>
       </c>
       <c r="O5">
         <v>3</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="3">
         <v>1</v>
       </c>
       <c r="Q5">
         <v>3</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="3">
         <v>0.99380000000000002</v>
       </c>
       <c r="S5">
         <v>3</v>
       </c>
-      <c r="T5" s="11">
+      <c r="T5" s="3">
         <v>1</v>
       </c>
       <c r="U5">
         <v>3</v>
       </c>
-      <c r="V5" s="11">
+      <c r="V5" s="3">
         <v>0.93020000000000003</v>
       </c>
       <c r="W5">
         <v>3</v>
       </c>
-      <c r="X5" s="11">
+      <c r="X5" s="3">
         <v>1</v>
       </c>
       <c r="Y5">
         <v>3</v>
       </c>
-      <c r="Z5" s="11">
+      <c r="Z5" s="3">
         <v>1.0313000000000001</v>
       </c>
       <c r="AA5">
         <v>3</v>
       </c>
-      <c r="AB5" s="11">
+      <c r="AB5" s="3">
         <v>1.8499999999999999E-2</v>
       </c>
       <c r="AC5">
         <v>3</v>
       </c>
-      <c r="AD5" s="11"/>
       <c r="AE5">
         <v>0</v>
       </c>
-      <c r="AF5" s="4"/>
       <c r="AG5">
         <v>3</v>
       </c>
-      <c r="AH5" s="11">
+      <c r="AH5" s="3">
         <v>0.97560000000000002</v>
       </c>
       <c r="AI5">
         <v>3</v>
       </c>
-      <c r="AJ5" s="4"/>
       <c r="AK5">
         <v>3</v>
       </c>
-      <c r="AL5" s="11">
-        <v>0.92</v>
+      <c r="AL5" s="3">
+        <v>1.08</v>
       </c>
       <c r="AM5">
-        <v>1.5</v>
-      </c>
-      <c r="AN5" s="12">
+        <v>3</v>
+      </c>
+      <c r="AN5" s="4">
         <v>1</v>
       </c>
       <c r="AO5">
@@ -1308,118 +1239,115 @@
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6">
         <v>25014412</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6">
         <v>37.5</v>
       </c>
-      <c r="F6" s="13">
-        <v>1</v>
-      </c>
-      <c r="G6" s="11">
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
         <v>0.95179999999999998</v>
       </c>
       <c r="H6">
         <v>3</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="3">
         <v>0.97589999999999999</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="3">
         <v>0.97589999999999999</v>
       </c>
-      <c r="K6" s="14">
-        <v>3</v>
-      </c>
-      <c r="L6" s="11">
-        <v>0.80720000000000003</v>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.88549999999999995</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="3">
         <v>0.86750000000000005</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="3">
         <v>0.98799999999999999</v>
       </c>
       <c r="Q6">
         <v>3</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6" s="3">
         <v>0.9819</v>
       </c>
       <c r="S6">
         <v>3</v>
       </c>
-      <c r="T6" s="11">
-        <v>0.95779999999999998</v>
+      <c r="T6" s="3">
+        <v>0.96389999999999998</v>
       </c>
       <c r="U6">
         <v>3</v>
       </c>
-      <c r="V6" s="11">
+      <c r="V6" s="3">
         <v>0.96430000000000005</v>
       </c>
       <c r="W6">
         <v>3</v>
       </c>
-      <c r="X6" s="11">
+      <c r="X6" s="3">
         <v>1</v>
       </c>
       <c r="Y6">
         <v>3</v>
       </c>
-      <c r="Z6" s="11">
+      <c r="Z6" s="3">
         <v>1</v>
       </c>
       <c r="AA6">
         <v>3</v>
       </c>
-      <c r="AB6" s="11">
+      <c r="AB6" s="3">
         <v>0.20480000000000001</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
-      <c r="AD6" s="11"/>
       <c r="AE6">
         <v>0</v>
       </c>
-      <c r="AF6" s="4"/>
       <c r="AG6">
         <v>3</v>
       </c>
-      <c r="AH6" s="11">
+      <c r="AH6" s="3">
         <v>0.97619999999999996</v>
       </c>
       <c r="AI6">
         <v>3</v>
       </c>
-      <c r="AJ6" s="4"/>
       <c r="AK6">
         <v>3</v>
       </c>
-      <c r="AL6" s="11">
+      <c r="AL6" s="3">
         <v>0.92</v>
       </c>
       <c r="AM6">
         <v>1.5</v>
       </c>
-      <c r="AN6" s="12">
+      <c r="AN6" s="4">
         <v>1</v>
       </c>
       <c r="AO6">
@@ -1427,122 +1355,121 @@
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>25018094</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="2">
-        <v>31.5</v>
-      </c>
-      <c r="F7" s="9">
+      <c r="E7">
+        <v>33</v>
+      </c>
+      <c r="F7" s="3">
         <v>0.95830000000000004</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="3">
         <v>0.90149999999999997</v>
       </c>
       <c r="H7">
         <v>3</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="3">
         <v>0.92800000000000005</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="3">
         <v>0.92800000000000005</v>
       </c>
-      <c r="K7" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="L7" s="9">
-        <v>0.90910000000000002</v>
+      <c r="K7">
+        <v>1.5</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.92800000000000005</v>
       </c>
       <c r="M7">
         <v>1.5</v>
       </c>
-      <c r="N7" s="9">
-        <v>0.89019999999999999</v>
+      <c r="N7" s="3">
+        <v>0.89770000000000005</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-      <c r="P7" s="9">
-        <v>0.92049999999999998</v>
+      <c r="P7" s="3">
+        <v>0.92420000000000002</v>
       </c>
       <c r="Q7">
         <v>1.5</v>
       </c>
-      <c r="R7" s="9">
+      <c r="R7" s="3">
         <v>0.91669999999999996</v>
       </c>
       <c r="S7">
         <v>1.5</v>
       </c>
-      <c r="T7" s="9">
+      <c r="T7" s="3">
         <v>0.90529999999999999</v>
       </c>
       <c r="U7">
         <v>1.5</v>
       </c>
-      <c r="V7" s="9">
+      <c r="V7" s="3">
         <v>0.97870000000000001</v>
       </c>
       <c r="W7">
         <v>3</v>
       </c>
-      <c r="X7" s="9">
+      <c r="X7" s="3">
         <v>0.97829999999999995</v>
       </c>
       <c r="Y7">
         <v>3</v>
       </c>
-      <c r="Z7" s="9">
+      <c r="Z7" s="3">
         <v>1</v>
       </c>
       <c r="AA7">
         <v>3</v>
       </c>
-      <c r="AB7" s="9">
+      <c r="AB7" s="3">
         <v>0.1439</v>
       </c>
       <c r="AC7">
         <v>0</v>
       </c>
-      <c r="AD7" s="9">
+      <c r="AD7" s="3">
         <v>0.68179999999999996</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
-      <c r="AF7" s="2"/>
       <c r="AG7">
         <v>3</v>
       </c>
-      <c r="AH7" s="9">
+      <c r="AH7" s="3">
         <v>0.93330000000000002</v>
       </c>
       <c r="AI7">
         <v>1.5</v>
       </c>
-      <c r="AJ7" s="9">
+      <c r="AJ7" s="3">
         <v>2.2700000000000001E-2</v>
       </c>
       <c r="AK7">
         <v>3</v>
       </c>
-      <c r="AL7" s="9">
-        <v>0.9</v>
+      <c r="AL7" s="3">
+        <v>1</v>
       </c>
       <c r="AM7">
-        <v>1.5</v>
-      </c>
-      <c r="AN7" s="10">
+        <v>3</v>
+      </c>
+      <c r="AN7" s="4">
         <v>1</v>
       </c>
       <c r="AO7">
@@ -1550,120 +1477,118 @@
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8">
         <v>25130242</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8">
         <v>43.5</v>
       </c>
-      <c r="F8" s="11">
-        <v>1</v>
-      </c>
-      <c r="G8" s="11">
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
         <v>0.996</v>
       </c>
       <c r="H8">
         <v>3</v>
       </c>
-      <c r="I8" s="11">
-        <v>1</v>
-      </c>
-      <c r="J8" s="11">
-        <v>1</v>
-      </c>
-      <c r="K8" s="15">
-        <v>3</v>
-      </c>
-      <c r="L8" s="11">
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3">
         <v>1</v>
       </c>
       <c r="M8">
         <v>3</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="3">
         <v>1</v>
       </c>
       <c r="O8">
         <v>3</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="3">
         <v>1</v>
       </c>
       <c r="Q8">
         <v>3</v>
       </c>
-      <c r="R8" s="11">
+      <c r="R8" s="3">
         <v>1</v>
       </c>
       <c r="S8">
         <v>3</v>
       </c>
-      <c r="T8" s="11">
+      <c r="T8" s="3">
         <v>1</v>
       </c>
       <c r="U8">
         <v>3</v>
       </c>
-      <c r="V8" s="11">
+      <c r="V8" s="3">
         <v>0.9</v>
       </c>
       <c r="W8">
         <v>1.5</v>
       </c>
-      <c r="X8" s="11">
+      <c r="X8" s="3">
         <v>0.97260000000000002</v>
       </c>
       <c r="Y8">
         <v>3</v>
       </c>
-      <c r="Z8" s="11">
+      <c r="Z8" s="3">
         <v>1</v>
       </c>
       <c r="AA8">
         <v>3</v>
       </c>
-      <c r="AB8" s="11">
+      <c r="AB8" s="3">
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="AC8">
         <v>0</v>
       </c>
-      <c r="AD8" s="11">
+      <c r="AD8" s="3">
         <v>0.22800000000000001</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
-      <c r="AF8" s="4"/>
       <c r="AG8">
         <v>3</v>
       </c>
-      <c r="AH8" s="11">
+      <c r="AH8" s="3">
         <v>0.98609999999999998</v>
       </c>
       <c r="AI8">
         <v>3</v>
       </c>
-      <c r="AJ8" s="4"/>
       <c r="AK8">
         <v>3</v>
       </c>
-      <c r="AL8" s="11">
-        <v>1</v>
+      <c r="AL8" s="3">
+        <v>1.21</v>
       </c>
       <c r="AM8">
         <v>3</v>
       </c>
-      <c r="AN8" s="12">
+      <c r="AN8" s="4">
         <v>1</v>
       </c>
       <c r="AO8">
@@ -1671,118 +1596,115 @@
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
         <v>25019538</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9">
         <v>48</v>
       </c>
-      <c r="F9" s="11">
-        <v>1</v>
-      </c>
-      <c r="G9" s="11">
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
         <v>1</v>
       </c>
       <c r="H9">
         <v>3</v>
       </c>
-      <c r="I9" s="11">
-        <v>1</v>
-      </c>
-      <c r="J9" s="11">
-        <v>1</v>
-      </c>
-      <c r="K9" s="14">
-        <v>3</v>
-      </c>
-      <c r="L9" s="11">
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3">
         <v>1</v>
       </c>
       <c r="M9">
         <v>3</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="3">
         <v>1</v>
       </c>
       <c r="O9">
         <v>3</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="3">
         <v>1</v>
       </c>
       <c r="Q9">
         <v>3</v>
       </c>
-      <c r="R9" s="11">
+      <c r="R9" s="3">
         <v>1</v>
       </c>
       <c r="S9">
         <v>3</v>
       </c>
-      <c r="T9" s="11">
+      <c r="T9" s="3">
         <v>1</v>
       </c>
       <c r="U9">
         <v>3</v>
       </c>
-      <c r="V9" s="11">
+      <c r="V9" s="3">
         <v>1</v>
       </c>
       <c r="W9">
         <v>3</v>
       </c>
-      <c r="X9" s="11">
+      <c r="X9" s="3">
         <v>1</v>
       </c>
       <c r="Y9">
         <v>3</v>
       </c>
-      <c r="Z9" s="11">
+      <c r="Z9" s="3">
         <v>0.97829999999999995</v>
       </c>
       <c r="AA9">
         <v>3</v>
       </c>
-      <c r="AB9" s="11"/>
       <c r="AC9">
         <v>3</v>
       </c>
-      <c r="AD9" s="11">
+      <c r="AD9" s="3">
         <v>0.87109999999999999</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
-      <c r="AF9" s="4"/>
       <c r="AG9">
         <v>3</v>
       </c>
-      <c r="AH9" s="11">
+      <c r="AH9" s="3">
         <v>0.94230000000000003</v>
       </c>
       <c r="AI9">
         <v>3</v>
       </c>
-      <c r="AJ9" s="4"/>
       <c r="AK9">
         <v>3</v>
       </c>
-      <c r="AL9" s="11">
-        <v>1</v>
+      <c r="AL9" s="3">
+        <v>1.05</v>
       </c>
       <c r="AM9">
         <v>3</v>
       </c>
-      <c r="AN9" s="12">
+      <c r="AN9" s="4">
         <v>1</v>
       </c>
       <c r="AO9">
@@ -1790,120 +1712,118 @@
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10">
         <v>25018280</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10">
         <v>42</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="3">
         <v>0.99780000000000002</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="3">
         <v>0.91700000000000004</v>
       </c>
       <c r="H10">
         <v>3</v>
       </c>
-      <c r="I10" s="11">
-        <v>0.96940000000000004</v>
-      </c>
-      <c r="J10" s="11">
-        <v>0.96940000000000004</v>
-      </c>
-      <c r="K10" s="14">
-        <v>3</v>
-      </c>
-      <c r="L10" s="11">
+      <c r="I10" s="3">
+        <v>0.96719999999999995</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.96719999999999995</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3">
         <v>0.93010000000000004</v>
       </c>
       <c r="M10">
         <v>1.5</v>
       </c>
-      <c r="N10" s="11">
-        <v>0.92579999999999996</v>
+      <c r="N10" s="3">
+        <v>0.92359999999999998</v>
       </c>
       <c r="O10">
         <v>1.5</v>
       </c>
-      <c r="P10" s="11">
-        <v>0.99560000000000004</v>
+      <c r="P10" s="3">
+        <v>0.99129999999999996</v>
       </c>
       <c r="Q10">
         <v>3</v>
       </c>
-      <c r="R10" s="11">
+      <c r="R10" s="3">
         <v>0.9738</v>
       </c>
       <c r="S10">
         <v>3</v>
       </c>
-      <c r="T10" s="11">
+      <c r="T10" s="3">
         <v>0.95409999999999995</v>
       </c>
       <c r="U10">
         <v>3</v>
       </c>
-      <c r="V10" s="11">
+      <c r="V10" s="3">
         <v>0.98250000000000004</v>
       </c>
       <c r="W10">
         <v>3</v>
       </c>
-      <c r="X10" s="11">
+      <c r="X10" s="3">
         <v>0.98060000000000003</v>
       </c>
       <c r="Y10">
         <v>3</v>
       </c>
-      <c r="Z10" s="11">
+      <c r="Z10" s="3">
         <v>1</v>
       </c>
       <c r="AA10">
         <v>3</v>
       </c>
-      <c r="AB10" s="11">
-        <v>7.8600000000000003E-2</v>
+      <c r="AB10" s="3">
+        <v>7.2099999999999997E-2</v>
       </c>
       <c r="AC10">
         <v>0</v>
       </c>
-      <c r="AD10" s="11">
+      <c r="AD10" s="3">
         <v>0.64410000000000001</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
-      <c r="AF10" s="4"/>
       <c r="AG10">
         <v>3</v>
       </c>
-      <c r="AH10" s="11">
+      <c r="AH10" s="3">
         <v>1</v>
       </c>
       <c r="AI10">
         <v>3</v>
       </c>
-      <c r="AJ10" s="4"/>
       <c r="AK10">
         <v>3</v>
       </c>
-      <c r="AL10" s="11">
-        <v>1</v>
+      <c r="AL10" s="3">
+        <v>1.1599999999999999</v>
       </c>
       <c r="AM10">
         <v>3</v>
       </c>
-      <c r="AN10" s="12">
+      <c r="AN10" s="4">
         <v>1</v>
       </c>
       <c r="AO10">
@@ -1911,120 +1831,118 @@
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <v>25017080</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11">
         <v>39</v>
       </c>
-      <c r="F11" s="9">
-        <v>0.98209999999999997</v>
-      </c>
-      <c r="G11" s="9">
+      <c r="F11" s="3">
+        <v>0.98809999999999998</v>
+      </c>
+      <c r="G11" s="3">
         <v>0.88100000000000001</v>
       </c>
       <c r="H11">
         <v>3</v>
       </c>
-      <c r="I11" s="9">
-        <v>0.9405</v>
-      </c>
-      <c r="J11" s="9">
-        <v>0.9405</v>
-      </c>
-      <c r="K11" s="14">
-        <v>3</v>
-      </c>
-      <c r="L11" s="9">
-        <v>0.90480000000000005</v>
+      <c r="I11" s="3">
+        <v>0.94640000000000002</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.94640000000000002</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0.91069999999999995</v>
       </c>
       <c r="M11">
         <v>1.5</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="3">
         <v>1</v>
       </c>
       <c r="O11">
         <v>3</v>
       </c>
-      <c r="P11" s="9">
-        <v>0.92859999999999998</v>
+      <c r="P11" s="3">
+        <v>0.92259999999999998</v>
       </c>
       <c r="Q11">
         <v>1.5</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11" s="3">
         <v>0.96430000000000005</v>
       </c>
       <c r="S11">
         <v>3</v>
       </c>
-      <c r="T11" s="9">
-        <v>0.98809999999999998</v>
+      <c r="T11" s="3">
+        <v>0.99399999999999999</v>
       </c>
       <c r="U11">
         <v>3</v>
       </c>
-      <c r="V11" s="9">
+      <c r="V11" s="3">
         <v>0.96489999999999998</v>
       </c>
       <c r="W11">
         <v>3</v>
       </c>
-      <c r="X11" s="9">
+      <c r="X11" s="3">
         <v>0.94440000000000002</v>
       </c>
       <c r="Y11">
         <v>3</v>
       </c>
-      <c r="Z11" s="9">
+      <c r="Z11" s="3">
         <v>1.0238</v>
       </c>
       <c r="AA11">
         <v>3</v>
       </c>
-      <c r="AB11" s="9">
-        <v>0.11899999999999999</v>
+      <c r="AB11" s="3">
+        <v>0.1071</v>
       </c>
       <c r="AC11">
         <v>0</v>
       </c>
-      <c r="AD11" s="9">
+      <c r="AD11" s="3">
         <v>0.99399999999999999</v>
       </c>
       <c r="AE11">
         <v>3</v>
       </c>
-      <c r="AF11" s="2"/>
       <c r="AG11">
         <v>3</v>
       </c>
-      <c r="AH11" s="9">
+      <c r="AH11" s="3">
         <v>0.89090000000000003</v>
       </c>
       <c r="AI11">
         <v>0</v>
       </c>
-      <c r="AJ11" s="2"/>
       <c r="AK11">
         <v>3</v>
       </c>
-      <c r="AL11" s="9">
-        <v>1</v>
+      <c r="AL11" s="3">
+        <v>1.08</v>
       </c>
       <c r="AM11">
         <v>3</v>
       </c>
-      <c r="AN11" s="10">
+      <c r="AN11" s="4">
         <v>1</v>
       </c>
       <c r="AO11">
@@ -2032,116 +1950,112 @@
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12">
         <v>25126342</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12">
         <v>45</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="3">
         <v>0.98799999999999999</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="3">
         <v>0.92769999999999997</v>
       </c>
       <c r="H12">
         <v>3</v>
       </c>
-      <c r="I12" s="11">
-        <v>1</v>
-      </c>
-      <c r="J12" s="11">
-        <v>1</v>
-      </c>
-      <c r="K12" s="15">
-        <v>3</v>
-      </c>
-      <c r="L12" s="11">
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3">
         <v>0.98799999999999999</v>
       </c>
       <c r="M12">
         <v>3</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="3">
         <v>1</v>
       </c>
       <c r="O12">
         <v>3</v>
       </c>
-      <c r="P12" s="11">
+      <c r="P12" s="3">
         <v>1</v>
       </c>
       <c r="Q12">
         <v>3</v>
       </c>
-      <c r="R12" s="11">
+      <c r="R12" s="3">
         <v>1</v>
       </c>
       <c r="S12">
         <v>3</v>
       </c>
-      <c r="T12" s="11">
+      <c r="T12" s="3">
         <v>1</v>
       </c>
       <c r="U12">
         <v>3</v>
       </c>
-      <c r="V12" s="11">
+      <c r="V12" s="3">
         <v>0.95240000000000002</v>
       </c>
       <c r="W12">
         <v>3</v>
       </c>
-      <c r="X12" s="11">
+      <c r="X12" s="3">
         <v>1</v>
       </c>
       <c r="Y12">
         <v>3</v>
       </c>
-      <c r="Z12" s="11">
+      <c r="Z12" s="3">
         <v>1.087</v>
       </c>
       <c r="AA12">
         <v>3</v>
       </c>
-      <c r="AB12" s="11">
+      <c r="AB12" s="3">
         <v>1.2E-2</v>
       </c>
       <c r="AC12">
         <v>3</v>
       </c>
-      <c r="AD12" s="11"/>
       <c r="AE12">
         <v>0</v>
       </c>
-      <c r="AF12" s="4"/>
       <c r="AG12">
         <v>3</v>
       </c>
-      <c r="AH12" s="4"/>
       <c r="AI12">
         <v>0</v>
       </c>
-      <c r="AJ12" s="4"/>
       <c r="AK12">
         <v>3</v>
       </c>
-      <c r="AL12" s="11">
-        <v>1</v>
+      <c r="AL12" s="3">
+        <v>1.17</v>
       </c>
       <c r="AM12">
         <v>3</v>
       </c>
-      <c r="AN12" s="12">
+      <c r="AN12" s="4">
         <v>1</v>
       </c>
       <c r="AO12">
@@ -2149,118 +2063,115 @@
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13">
         <v>25018124</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="4">
-        <v>22.5</v>
-      </c>
-      <c r="F13" s="11">
+      <c r="E13">
+        <v>24</v>
+      </c>
+      <c r="F13" s="3">
         <v>0.96889999999999998</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="3">
         <v>0.85229999999999995</v>
       </c>
       <c r="H13">
         <v>3</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="3">
+        <v>0.94040000000000001</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.94040000000000001</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0.84719999999999995</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.8135</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0.79790000000000005</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
         <v>0.93779999999999997</v>
       </c>
-      <c r="J13" s="11">
-        <v>0.93779999999999997</v>
-      </c>
-      <c r="K13" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="L13" s="11">
-        <v>0.84460000000000002</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13" s="11">
-        <v>0.80310000000000004</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" s="11">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13" s="11">
-        <v>0.93259999999999998</v>
-      </c>
       <c r="S13">
         <v>1.5</v>
       </c>
-      <c r="T13" s="11">
-        <v>0.79020000000000001</v>
+      <c r="T13" s="3">
+        <v>0.79269999999999996</v>
       </c>
       <c r="U13">
         <v>0</v>
       </c>
-      <c r="V13" s="11">
+      <c r="V13" s="3">
         <v>0.96</v>
       </c>
       <c r="W13">
         <v>3</v>
       </c>
-      <c r="X13" s="11">
+      <c r="X13" s="3">
         <v>0.97560000000000002</v>
       </c>
       <c r="Y13">
         <v>3</v>
       </c>
-      <c r="Z13" s="11">
+      <c r="Z13" s="3">
         <v>0.89539999999999997</v>
       </c>
       <c r="AA13">
         <v>1.5</v>
       </c>
-      <c r="AB13" s="11">
-        <v>0.25130000000000002</v>
+      <c r="AB13" s="3">
+        <v>0.2409</v>
       </c>
       <c r="AC13">
         <v>0</v>
       </c>
-      <c r="AD13" s="11"/>
       <c r="AE13">
         <v>0</v>
       </c>
-      <c r="AF13" s="4"/>
       <c r="AG13">
         <v>3</v>
       </c>
-      <c r="AH13" s="4"/>
       <c r="AI13">
         <v>0</v>
       </c>
-      <c r="AJ13" s="11">
+      <c r="AJ13" s="3">
         <v>2.5999999999999999E-3</v>
       </c>
       <c r="AK13">
         <v>3</v>
       </c>
-      <c r="AL13" s="11">
-        <v>0.52</v>
+      <c r="AL13" s="3">
+        <v>0.68</v>
       </c>
       <c r="AM13">
         <v>0</v>
       </c>
-      <c r="AN13" s="12">
+      <c r="AN13" s="4">
         <v>1</v>
       </c>
       <c r="AO13">
@@ -2268,118 +2179,115 @@
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14">
         <v>25018132</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="2">
-        <v>40.5</v>
-      </c>
-      <c r="F14" s="9">
+      <c r="E14">
+        <v>43.5</v>
+      </c>
+      <c r="F14" s="3">
         <v>0.98929999999999996</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="3">
         <v>0.95169999999999999</v>
       </c>
       <c r="H14">
         <v>3</v>
       </c>
-      <c r="I14" s="9">
-        <v>1</v>
-      </c>
-      <c r="J14" s="9">
-        <v>1</v>
-      </c>
-      <c r="K14" s="15">
-        <v>3</v>
-      </c>
-      <c r="L14" s="9">
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
         <v>0.9839</v>
       </c>
       <c r="M14">
         <v>3</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="3">
         <v>0.96779999999999999</v>
       </c>
       <c r="O14">
         <v>3</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P14" s="3">
         <v>0.99729999999999996</v>
       </c>
       <c r="Q14">
         <v>3</v>
       </c>
-      <c r="R14" s="9">
+      <c r="R14" s="3">
         <v>1</v>
       </c>
       <c r="S14">
         <v>3</v>
       </c>
-      <c r="T14" s="9">
+      <c r="T14" s="3">
         <v>0.91149999999999998</v>
       </c>
       <c r="U14">
         <v>1.5</v>
       </c>
-      <c r="V14" s="9">
+      <c r="V14" s="3">
         <v>0.9103</v>
       </c>
       <c r="W14">
         <v>3</v>
       </c>
-      <c r="X14" s="9">
+      <c r="X14" s="3">
         <v>1</v>
       </c>
       <c r="Y14">
         <v>3</v>
       </c>
-      <c r="Z14" s="9">
+      <c r="Z14" s="3">
         <v>0.96050000000000002</v>
       </c>
       <c r="AA14">
         <v>3</v>
       </c>
-      <c r="AB14" s="9">
+      <c r="AB14" s="3">
         <v>1.34E-2</v>
       </c>
       <c r="AC14">
         <v>3</v>
       </c>
-      <c r="AD14" s="9"/>
       <c r="AE14">
         <v>0</v>
       </c>
-      <c r="AF14" s="2"/>
       <c r="AG14">
         <v>3</v>
       </c>
-      <c r="AH14" s="2"/>
       <c r="AI14">
         <v>0</v>
       </c>
-      <c r="AJ14" s="9">
-        <v>1.0699999999999999E-2</v>
+      <c r="AJ14" s="3">
+        <v>1.34E-2</v>
       </c>
       <c r="AK14">
         <v>3</v>
       </c>
-      <c r="AL14" s="9">
-        <v>0.64</v>
+      <c r="AL14" s="3">
+        <v>1</v>
       </c>
       <c r="AM14">
-        <v>0</v>
-      </c>
-      <c r="AN14" s="10">
+        <v>3</v>
+      </c>
+      <c r="AN14" s="4">
         <v>1</v>
       </c>
       <c r="AO14">
@@ -2387,118 +2295,115 @@
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15">
         <v>25018256</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="4">
-        <v>31.5</v>
-      </c>
-      <c r="F15" s="11">
+      <c r="E15">
+        <v>34.5</v>
+      </c>
+      <c r="F15" s="3">
         <v>0.95730000000000004</v>
       </c>
-      <c r="G15" s="11">
-        <v>0.78129999999999999</v>
+      <c r="G15" s="3">
+        <v>0.78400000000000003</v>
       </c>
       <c r="H15">
         <v>3</v>
       </c>
-      <c r="I15" s="11">
-        <v>0.97070000000000001</v>
-      </c>
-      <c r="J15" s="11">
-        <v>0.97070000000000001</v>
-      </c>
-      <c r="K15" s="14">
-        <v>3</v>
-      </c>
-      <c r="L15" s="11">
+      <c r="I15" s="3">
+        <v>0.97330000000000005</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.97330000000000005</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3">
         <v>0.81330000000000002</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="3">
         <v>0.70669999999999999</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-      <c r="P15" s="11">
-        <v>0.9093</v>
+      <c r="P15" s="3">
+        <v>0.90400000000000003</v>
       </c>
       <c r="Q15">
         <v>1.5</v>
       </c>
-      <c r="R15" s="11">
+      <c r="R15" s="3">
         <v>0.96530000000000005</v>
       </c>
       <c r="S15">
         <v>3</v>
       </c>
-      <c r="T15" s="11">
+      <c r="T15" s="3">
         <v>0.94130000000000003</v>
       </c>
       <c r="U15">
         <v>3</v>
       </c>
-      <c r="V15" s="11">
+      <c r="V15" s="3">
         <v>0.97440000000000004</v>
       </c>
       <c r="W15">
         <v>3</v>
       </c>
-      <c r="X15" s="11">
+      <c r="X15" s="3">
         <v>0.98250000000000004</v>
       </c>
       <c r="Y15">
         <v>3</v>
       </c>
-      <c r="Z15" s="11">
+      <c r="Z15" s="3">
         <v>0.97809999999999997</v>
       </c>
       <c r="AA15">
         <v>3</v>
       </c>
-      <c r="AB15" s="11">
-        <v>0.26129999999999998</v>
+      <c r="AB15" s="3">
+        <v>0.28000000000000003</v>
       </c>
       <c r="AC15">
         <v>0</v>
       </c>
-      <c r="AD15" s="4"/>
       <c r="AE15">
         <v>0</v>
       </c>
-      <c r="AF15" s="4"/>
       <c r="AG15">
         <v>3</v>
       </c>
-      <c r="AH15" s="4"/>
       <c r="AI15">
         <v>0</v>
       </c>
-      <c r="AJ15" s="11">
+      <c r="AJ15" s="3">
         <v>1.3299999999999999E-2</v>
       </c>
       <c r="AK15">
         <v>3</v>
       </c>
-      <c r="AL15" s="11">
-        <v>0.86</v>
+      <c r="AL15" s="3">
+        <v>1.1000000000000001</v>
       </c>
       <c r="AM15">
-        <v>0</v>
-      </c>
-      <c r="AN15" s="12">
+        <v>3</v>
+      </c>
+      <c r="AN15" s="4">
         <v>1</v>
       </c>
       <c r="AO15">
@@ -2506,118 +2411,115 @@
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16">
         <v>25018264</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16">
         <v>33</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="3">
         <v>0.95450000000000002</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="3">
         <v>0.9</v>
       </c>
       <c r="H16">
         <v>3</v>
       </c>
-      <c r="I16" s="9">
-        <v>1</v>
-      </c>
-      <c r="J16" s="9">
-        <v>1</v>
-      </c>
-      <c r="K16" s="15">
-        <v>3</v>
-      </c>
-      <c r="L16" s="9">
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0.98180000000000001</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.98180000000000001</v>
+      </c>
+      <c r="O16">
+        <v>3</v>
+      </c>
+      <c r="P16" s="3">
         <v>0.97270000000000001</v>
       </c>
-      <c r="M16">
-        <v>3</v>
-      </c>
-      <c r="N16" s="9">
-        <v>0.97270000000000001</v>
-      </c>
-      <c r="O16">
-        <v>3</v>
-      </c>
-      <c r="P16" s="9">
+      <c r="Q16">
+        <v>3</v>
+      </c>
+      <c r="R16" s="3">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>3</v>
+      </c>
+      <c r="T16" s="3">
         <v>0.96360000000000001</v>
       </c>
-      <c r="Q16">
-        <v>3</v>
-      </c>
-      <c r="R16" s="9">
-        <v>0.9909</v>
-      </c>
-      <c r="S16">
-        <v>3</v>
-      </c>
-      <c r="T16" s="9">
-        <v>0.95450000000000002</v>
-      </c>
       <c r="U16">
         <v>3</v>
       </c>
-      <c r="V16" s="9">
+      <c r="V16" s="3">
         <v>0.8</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
-      <c r="X16" s="9">
+      <c r="X16" s="3">
         <v>0.77270000000000005</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
-      <c r="Z16" s="9">
+      <c r="Z16" s="3">
         <v>1</v>
       </c>
       <c r="AA16">
         <v>3</v>
       </c>
-      <c r="AB16" s="9">
+      <c r="AB16" s="3">
         <v>6.3600000000000004E-2</v>
       </c>
       <c r="AC16">
         <v>0</v>
       </c>
-      <c r="AD16" s="9"/>
       <c r="AE16">
         <v>0</v>
       </c>
-      <c r="AF16" s="2"/>
       <c r="AG16">
         <v>3</v>
       </c>
-      <c r="AH16" s="2"/>
       <c r="AI16">
         <v>0</v>
       </c>
-      <c r="AJ16" s="9">
+      <c r="AJ16" s="3">
         <v>9.1000000000000004E-3</v>
       </c>
       <c r="AK16">
         <v>3</v>
       </c>
-      <c r="AL16" s="9">
-        <v>0.47</v>
+      <c r="AL16" s="3">
+        <v>0.82</v>
       </c>
       <c r="AM16">
         <v>0</v>
       </c>
-      <c r="AN16" s="10">
+      <c r="AN16" s="4">
         <v>1</v>
       </c>
       <c r="AO16">
@@ -2625,116 +2527,112 @@
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17">
         <v>25014960</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="4">
-        <v>31.5</v>
-      </c>
-      <c r="F17" s="11">
+      <c r="E17">
+        <v>33</v>
+      </c>
+      <c r="F17" s="3">
         <v>0.98309999999999997</v>
       </c>
-      <c r="G17" s="11">
-        <v>0.9153</v>
+      <c r="G17" s="3">
+        <v>0.92369999999999997</v>
       </c>
       <c r="H17">
         <v>3</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="3">
         <v>0.98309999999999997</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="3">
         <v>0.98309999999999997</v>
       </c>
-      <c r="K17" s="14">
-        <v>3</v>
-      </c>
-      <c r="L17" s="11">
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3">
         <v>0.95760000000000001</v>
       </c>
       <c r="M17">
         <v>3</v>
       </c>
-      <c r="N17" s="11">
+      <c r="N17" s="3">
         <v>0.93220000000000003</v>
       </c>
       <c r="O17">
         <v>1.5</v>
       </c>
-      <c r="P17" s="11">
+      <c r="P17" s="3">
         <v>0.99150000000000005</v>
       </c>
       <c r="Q17">
         <v>3</v>
       </c>
-      <c r="R17" s="11">
+      <c r="R17" s="3">
         <v>0.98309999999999997</v>
       </c>
       <c r="S17">
         <v>3</v>
       </c>
-      <c r="T17" s="11">
+      <c r="T17" s="3">
         <v>0.93220000000000003</v>
       </c>
       <c r="U17">
         <v>1.5</v>
       </c>
-      <c r="V17" s="11">
+      <c r="V17" s="3">
         <v>0.89659999999999995</v>
       </c>
       <c r="W17">
         <v>1.5</v>
       </c>
-      <c r="X17" s="11">
+      <c r="X17" s="3">
         <v>0.77780000000000005</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
-      <c r="Z17" s="11">
+      <c r="Z17" s="3">
         <v>0.91890000000000005</v>
       </c>
       <c r="AA17">
         <v>3</v>
       </c>
-      <c r="AB17" s="11">
-        <v>5.9299999999999999E-2</v>
+      <c r="AB17" s="3">
+        <v>5.0799999999999998E-2</v>
       </c>
       <c r="AC17">
         <v>0</v>
       </c>
-      <c r="AD17" s="11"/>
       <c r="AE17">
         <v>0</v>
       </c>
-      <c r="AF17" s="4"/>
       <c r="AG17">
         <v>3</v>
       </c>
-      <c r="AH17" s="4"/>
       <c r="AI17">
         <v>0</v>
       </c>
-      <c r="AJ17" s="4"/>
       <c r="AK17">
         <v>3</v>
       </c>
-      <c r="AL17" s="11">
-        <v>0.64</v>
+      <c r="AL17" s="3">
+        <v>0.91</v>
       </c>
       <c r="AM17">
-        <v>0</v>
-      </c>
-      <c r="AN17" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="AN17" s="4">
         <v>1</v>
       </c>
       <c r="AO17">
@@ -2742,116 +2640,112 @@
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18">
         <v>25017071</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="2">
-        <v>37.5</v>
-      </c>
-      <c r="F18" s="9">
+      <c r="E18">
+        <v>40.5</v>
+      </c>
+      <c r="F18" s="3">
         <v>0.98160000000000003</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="3">
         <v>0.92020000000000002</v>
       </c>
       <c r="H18">
         <v>3</v>
       </c>
-      <c r="I18" s="9">
-        <v>1</v>
-      </c>
-      <c r="J18" s="9">
-        <v>1</v>
-      </c>
-      <c r="K18" s="14">
-        <v>3</v>
-      </c>
-      <c r="L18" s="9">
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3">
         <v>0.98160000000000003</v>
       </c>
       <c r="M18">
         <v>3</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N18" s="3">
         <v>0.92020000000000002</v>
       </c>
       <c r="O18">
         <v>1.5</v>
       </c>
-      <c r="P18" s="9">
-        <v>0.96930000000000005</v>
+      <c r="P18" s="3">
+        <v>0.97550000000000003</v>
       </c>
       <c r="Q18">
         <v>3</v>
       </c>
-      <c r="R18" s="9">
+      <c r="R18" s="3">
         <v>0.99390000000000001</v>
       </c>
       <c r="S18">
         <v>3</v>
       </c>
-      <c r="T18" s="9">
-        <v>0.97550000000000003</v>
+      <c r="T18" s="3">
+        <v>0.98160000000000003</v>
       </c>
       <c r="U18">
         <v>3</v>
       </c>
-      <c r="V18" s="9">
+      <c r="V18" s="3">
         <v>0.94</v>
       </c>
       <c r="W18">
         <v>3</v>
       </c>
-      <c r="X18" s="9">
+      <c r="X18" s="3">
         <v>1</v>
       </c>
       <c r="Y18">
         <v>3</v>
       </c>
-      <c r="Z18" s="9">
+      <c r="Z18" s="3">
         <v>0.96919999999999995</v>
       </c>
       <c r="AA18">
         <v>3</v>
       </c>
-      <c r="AB18" s="9">
+      <c r="AB18" s="3">
         <v>5.5199999999999999E-2</v>
       </c>
       <c r="AC18">
         <v>0</v>
       </c>
-      <c r="AD18" s="9"/>
       <c r="AE18">
         <v>0</v>
       </c>
-      <c r="AF18" s="2"/>
       <c r="AG18">
         <v>3</v>
       </c>
-      <c r="AH18" s="2"/>
       <c r="AI18">
         <v>0</v>
       </c>
-      <c r="AJ18" s="2"/>
       <c r="AK18">
         <v>3</v>
       </c>
-      <c r="AL18" s="9">
-        <v>0.71</v>
+      <c r="AL18" s="3">
+        <v>1.21</v>
       </c>
       <c r="AM18">
-        <v>0</v>
-      </c>
-      <c r="AN18" s="10">
+        <v>3</v>
+      </c>
+      <c r="AN18" s="4">
         <v>1</v>
       </c>
       <c r="AO18">
@@ -2859,110 +2753,103 @@
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19">
         <v>25130846</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19">
         <v>36</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="3">
         <v>0.9859</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="3">
         <v>0.9577</v>
       </c>
       <c r="H19">
         <v>3</v>
       </c>
-      <c r="I19" s="11">
-        <v>1</v>
-      </c>
-      <c r="J19" s="11">
-        <v>1</v>
-      </c>
-      <c r="K19" s="14">
-        <v>3</v>
-      </c>
-      <c r="L19" s="11">
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19" s="3">
         <v>0.9859</v>
       </c>
       <c r="M19">
         <v>3</v>
       </c>
-      <c r="N19" s="11">
+      <c r="N19" s="3">
         <v>0.9859</v>
       </c>
       <c r="O19">
         <v>3</v>
       </c>
-      <c r="P19" s="11">
-        <v>0.9859</v>
+      <c r="P19" s="3">
+        <v>1</v>
       </c>
       <c r="Q19">
         <v>3</v>
       </c>
-      <c r="R19" s="11">
+      <c r="R19" s="3">
         <v>1</v>
       </c>
       <c r="S19">
         <v>3</v>
       </c>
-      <c r="T19" s="11">
+      <c r="T19" s="3">
         <v>1</v>
       </c>
       <c r="U19">
         <v>3</v>
       </c>
-      <c r="V19" s="11"/>
       <c r="W19">
         <v>0</v>
       </c>
-      <c r="X19" s="11">
+      <c r="X19" s="3">
         <v>1</v>
       </c>
       <c r="Y19">
         <v>3</v>
       </c>
-      <c r="Z19" s="11"/>
       <c r="AA19">
         <v>0</v>
       </c>
-      <c r="AB19" s="11"/>
       <c r="AC19">
         <v>3</v>
       </c>
-      <c r="AD19" s="11"/>
       <c r="AE19">
         <v>0</v>
       </c>
-      <c r="AF19" s="4"/>
       <c r="AG19">
         <v>3</v>
       </c>
-      <c r="AH19" s="4"/>
       <c r="AI19">
         <v>0</v>
       </c>
-      <c r="AJ19" s="4"/>
       <c r="AK19">
         <v>3</v>
       </c>
-      <c r="AL19" s="11">
-        <v>0.67</v>
+      <c r="AL19" s="3">
+        <v>0.62</v>
       </c>
       <c r="AM19">
         <v>0</v>
       </c>
-      <c r="AN19" s="12">
+      <c r="AN19" s="4">
         <v>1</v>
       </c>
       <c r="AO19">
@@ -2970,118 +2857,115 @@
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20">
         <v>25018078</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="4">
-        <v>27</v>
-      </c>
-      <c r="F20" s="11">
+      <c r="E20">
+        <v>30</v>
+      </c>
+      <c r="F20" s="3">
         <v>0.9667</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="3">
         <v>0.84440000000000004</v>
       </c>
       <c r="H20">
         <v>3</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="3">
         <v>0.9667</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="3">
         <v>0.9667</v>
       </c>
-      <c r="K20" s="14">
-        <v>3</v>
-      </c>
-      <c r="L20" s="11">
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3">
         <v>0.82779999999999998</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-      <c r="N20" s="11">
+      <c r="N20" s="3">
         <v>0.66110000000000002</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-      <c r="P20" s="11">
+      <c r="P20" s="3">
         <v>0.91669999999999996</v>
       </c>
       <c r="Q20">
         <v>1.5</v>
       </c>
-      <c r="R20" s="11">
+      <c r="R20" s="3">
         <v>0.97219999999999995</v>
       </c>
       <c r="S20">
         <v>3</v>
       </c>
-      <c r="T20" s="11">
+      <c r="T20" s="3">
         <v>0.81669999999999998</v>
       </c>
       <c r="U20">
         <v>0</v>
       </c>
-      <c r="V20" s="11">
+      <c r="V20" s="3">
         <v>0.88</v>
       </c>
       <c r="W20">
         <v>1.5</v>
       </c>
-      <c r="X20" s="11">
+      <c r="X20" s="3">
         <v>0.96550000000000002</v>
       </c>
       <c r="Y20">
         <v>3</v>
       </c>
-      <c r="Z20" s="11">
+      <c r="Z20" s="3">
         <v>1.0769</v>
       </c>
       <c r="AA20">
         <v>3</v>
       </c>
-      <c r="AB20" s="11">
+      <c r="AB20" s="3">
         <v>0.2833</v>
       </c>
       <c r="AC20">
         <v>0</v>
       </c>
-      <c r="AD20" s="11"/>
       <c r="AE20">
         <v>0</v>
       </c>
-      <c r="AF20" s="4"/>
       <c r="AG20">
         <v>3</v>
       </c>
-      <c r="AH20" s="11">
+      <c r="AH20" s="3">
         <v>0.69230000000000003</v>
       </c>
       <c r="AI20">
         <v>0</v>
       </c>
-      <c r="AJ20" s="4"/>
       <c r="AK20">
         <v>3</v>
       </c>
-      <c r="AL20" s="11">
-        <v>0.56000000000000005</v>
+      <c r="AL20" s="3">
+        <v>0.98</v>
       </c>
       <c r="AM20">
-        <v>0</v>
-      </c>
-      <c r="AN20" s="12">
+        <v>3</v>
+      </c>
+      <c r="AN20" s="4">
         <v>1</v>
       </c>
       <c r="AO20">
@@ -3089,120 +2973,118 @@
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21">
         <v>25019228</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21">
         <v>39</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="3">
         <v>0.93410000000000004</v>
       </c>
-      <c r="G21" s="9">
-        <v>0.73629999999999995</v>
+      <c r="G21" s="3">
+        <v>0.7399</v>
       </c>
       <c r="H21">
         <v>3</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="3">
         <v>0.98170000000000002</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="3">
         <v>0.98170000000000002</v>
       </c>
-      <c r="K21" s="14">
-        <v>3</v>
-      </c>
-      <c r="L21" s="9">
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>0.94140000000000001</v>
       </c>
       <c r="M21">
         <v>3</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N21" s="3">
         <v>0.91210000000000002</v>
       </c>
       <c r="O21">
         <v>1.5</v>
       </c>
-      <c r="P21" s="9">
-        <v>0.95599999999999996</v>
+      <c r="P21" s="3">
+        <v>0.9597</v>
       </c>
       <c r="Q21">
         <v>3</v>
       </c>
-      <c r="R21" s="9">
+      <c r="R21" s="3">
         <v>0.97070000000000001</v>
       </c>
       <c r="S21">
         <v>3</v>
       </c>
-      <c r="T21" s="9">
+      <c r="T21" s="3">
         <v>0.96340000000000003</v>
       </c>
       <c r="U21">
         <v>3</v>
       </c>
-      <c r="V21" s="9">
+      <c r="V21" s="3">
         <v>1.0273000000000001</v>
       </c>
       <c r="W21">
         <v>3</v>
       </c>
-      <c r="X21" s="9">
+      <c r="X21" s="3">
         <v>1</v>
       </c>
       <c r="Y21">
         <v>3</v>
       </c>
-      <c r="Z21" s="9">
+      <c r="Z21" s="3">
         <v>1</v>
       </c>
       <c r="AA21">
         <v>3</v>
       </c>
-      <c r="AB21" s="9">
+      <c r="AB21" s="3">
         <v>0.19409999999999999</v>
       </c>
       <c r="AC21">
         <v>0</v>
       </c>
-      <c r="AD21" s="9"/>
       <c r="AE21">
         <v>0</v>
       </c>
-      <c r="AF21" s="2"/>
       <c r="AG21">
         <v>3</v>
       </c>
-      <c r="AH21" s="9">
+      <c r="AH21" s="3">
         <v>0.91839999999999999</v>
       </c>
       <c r="AI21">
         <v>1.5</v>
       </c>
-      <c r="AJ21" s="9">
-        <v>1.83E-2</v>
+      <c r="AJ21" s="3">
+        <v>2.93E-2</v>
       </c>
       <c r="AK21">
         <v>3</v>
       </c>
-      <c r="AL21" s="9">
-        <v>0.73</v>
+      <c r="AL21" s="3">
+        <v>0.88</v>
       </c>
       <c r="AM21">
         <v>0</v>
       </c>
-      <c r="AN21" s="10">
+      <c r="AN21" s="4">
         <v>1</v>
       </c>
       <c r="AO21">
@@ -3210,120 +3092,118 @@
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="4" t="s">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22">
         <v>25018140</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22">
         <v>21</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="3">
         <v>0.85</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="3">
         <v>0.61919999999999997</v>
       </c>
       <c r="H22">
         <v>1.5</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="3">
         <v>0.96919999999999995</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22" s="3">
         <v>0.96919999999999995</v>
       </c>
-      <c r="K22" s="14">
-        <v>3</v>
-      </c>
-      <c r="L22" s="11">
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3">
         <v>0.87309999999999999</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-      <c r="N22" s="11">
+      <c r="N22" s="3">
         <v>0.71540000000000004</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-      <c r="P22" s="11">
-        <v>0.81920000000000004</v>
+      <c r="P22" s="3">
+        <v>0.82310000000000005</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-      <c r="R22" s="11">
+      <c r="R22" s="3">
         <v>0.9385</v>
       </c>
       <c r="S22">
         <v>1.5</v>
       </c>
-      <c r="T22" s="11">
+      <c r="T22" s="3">
         <v>0.9</v>
       </c>
       <c r="U22">
         <v>1.5</v>
       </c>
-      <c r="V22" s="11">
+      <c r="V22" s="3">
         <v>0.75639999999999996</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
-      <c r="X22" s="11">
+      <c r="X22" s="3">
         <v>1</v>
       </c>
       <c r="Y22">
         <v>3</v>
       </c>
-      <c r="Z22" s="11">
+      <c r="Z22" s="3">
         <v>0.8659</v>
       </c>
       <c r="AA22">
         <v>1.5</v>
       </c>
-      <c r="AB22" s="11">
+      <c r="AB22" s="3">
         <v>0.26919999999999999</v>
       </c>
       <c r="AC22">
         <v>0</v>
       </c>
-      <c r="AD22" s="11"/>
       <c r="AE22">
         <v>0</v>
       </c>
-      <c r="AF22" s="4"/>
       <c r="AG22">
         <v>3</v>
       </c>
-      <c r="AH22" s="11">
+      <c r="AH22" s="3">
         <v>0.83330000000000004</v>
       </c>
       <c r="AI22">
         <v>0</v>
       </c>
-      <c r="AJ22" s="11">
+      <c r="AJ22" s="3">
         <v>1.15E-2</v>
       </c>
       <c r="AK22">
         <v>3</v>
       </c>
-      <c r="AL22" s="11">
-        <v>0.76</v>
+      <c r="AL22" s="3">
+        <v>0.83</v>
       </c>
       <c r="AM22">
         <v>0</v>
       </c>
-      <c r="AN22" s="12">
+      <c r="AN22" s="4">
         <v>1</v>
       </c>
       <c r="AO22">
@@ -3331,118 +3211,115 @@
       </c>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="4" t="s">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23">
         <v>25018221</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23">
         <v>42</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="3">
         <v>0.98780000000000001</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="3">
         <v>0.94510000000000005</v>
       </c>
       <c r="H23">
         <v>3</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="3">
         <v>0.99390000000000001</v>
       </c>
-      <c r="J23" s="11">
+      <c r="J23" s="3">
         <v>0.99390000000000001</v>
       </c>
-      <c r="K23" s="14">
-        <v>3</v>
-      </c>
-      <c r="L23" s="11">
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3">
         <v>0.97560000000000002</v>
       </c>
       <c r="M23">
         <v>3</v>
       </c>
-      <c r="N23" s="11">
+      <c r="N23" s="3">
         <v>0.97560000000000002</v>
       </c>
       <c r="O23">
         <v>3</v>
       </c>
-      <c r="P23" s="11">
+      <c r="P23" s="3">
         <v>0.99390000000000001</v>
       </c>
       <c r="Q23">
         <v>3</v>
       </c>
-      <c r="R23" s="11">
+      <c r="R23" s="3">
         <v>0.98170000000000002</v>
       </c>
       <c r="S23">
         <v>3</v>
       </c>
-      <c r="T23" s="11">
+      <c r="T23" s="3">
         <v>0.97560000000000002</v>
       </c>
       <c r="U23">
         <v>3</v>
       </c>
-      <c r="V23" s="11">
+      <c r="V23" s="3">
         <v>1</v>
       </c>
       <c r="W23">
         <v>3</v>
       </c>
-      <c r="X23" s="11">
+      <c r="X23" s="3">
         <v>1</v>
       </c>
       <c r="Y23">
         <v>3</v>
       </c>
-      <c r="Z23" s="11">
+      <c r="Z23" s="3">
         <v>0.96879999999999999</v>
       </c>
       <c r="AA23">
         <v>3</v>
       </c>
-      <c r="AB23" s="11">
+      <c r="AB23" s="3">
         <v>3.0499999999999999E-2</v>
       </c>
       <c r="AC23">
         <v>3</v>
       </c>
-      <c r="AD23" s="11"/>
       <c r="AE23">
         <v>0</v>
       </c>
-      <c r="AF23" s="4"/>
       <c r="AG23">
         <v>3</v>
       </c>
-      <c r="AH23" s="4"/>
       <c r="AI23">
         <v>0</v>
       </c>
-      <c r="AJ23" s="11">
+      <c r="AJ23" s="3">
         <v>1.83E-2</v>
       </c>
       <c r="AK23">
         <v>3</v>
       </c>
-      <c r="AL23" s="11">
-        <v>0.5</v>
+      <c r="AL23" s="3">
+        <v>0.62</v>
       </c>
       <c r="AM23">
         <v>0</v>
       </c>
-      <c r="AN23" s="12">
+      <c r="AN23" s="4">
         <v>1</v>
       </c>
       <c r="AO23">
@@ -3450,120 +3327,118 @@
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24">
         <v>25018639</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24">
         <v>28.5</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="3">
         <v>0.90780000000000005</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="3">
         <v>0.75429999999999997</v>
       </c>
       <c r="H24">
         <v>1.5</v>
       </c>
-      <c r="I24" s="9">
-        <v>0.9829</v>
-      </c>
-      <c r="J24" s="9">
-        <v>0.9829</v>
-      </c>
-      <c r="K24" s="14">
-        <v>3</v>
-      </c>
-      <c r="L24" s="9">
+      <c r="I24" s="3">
+        <v>0.97950000000000004</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0.97950000000000004</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3">
         <v>0.91810000000000003</v>
       </c>
       <c r="M24">
         <v>1.5</v>
       </c>
-      <c r="N24" s="9">
+      <c r="N24" s="3">
         <v>0.82589999999999997</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-      <c r="P24" s="9">
+      <c r="P24" s="3">
         <v>0.90780000000000005</v>
       </c>
       <c r="Q24">
         <v>1.5</v>
       </c>
-      <c r="R24" s="9">
+      <c r="R24" s="3">
         <v>1</v>
       </c>
       <c r="S24">
         <v>3</v>
       </c>
-      <c r="T24" s="9">
+      <c r="T24" s="3">
         <v>0.98980000000000001</v>
       </c>
       <c r="U24">
         <v>3</v>
       </c>
-      <c r="V24" s="9">
+      <c r="V24" s="3">
         <v>0.95589999999999997</v>
       </c>
       <c r="W24">
         <v>3</v>
       </c>
-      <c r="X24" s="9">
+      <c r="X24" s="3">
         <v>0.96970000000000001</v>
       </c>
       <c r="Y24">
         <v>3</v>
       </c>
-      <c r="Z24" s="9">
+      <c r="Z24" s="3">
         <v>0.93100000000000005</v>
       </c>
       <c r="AA24">
         <v>3</v>
       </c>
-      <c r="AB24" s="9">
+      <c r="AB24" s="3">
         <v>0.16719999999999999</v>
       </c>
       <c r="AC24">
         <v>0</v>
       </c>
-      <c r="AD24" s="9"/>
       <c r="AE24">
         <v>0</v>
       </c>
-      <c r="AF24" s="2"/>
       <c r="AG24">
         <v>3</v>
       </c>
-      <c r="AH24" s="9">
+      <c r="AH24" s="3">
         <v>0.74470000000000003</v>
       </c>
       <c r="AI24">
         <v>0</v>
       </c>
-      <c r="AJ24" s="9">
-        <v>0.19800000000000001</v>
+      <c r="AJ24" s="3">
+        <v>0.20480000000000001</v>
       </c>
       <c r="AK24">
         <v>0</v>
       </c>
-      <c r="AL24" s="9">
-        <v>0.36</v>
+      <c r="AL24" s="3">
+        <v>0.71</v>
       </c>
       <c r="AM24">
         <v>0</v>
       </c>
-      <c r="AN24" s="10">
+      <c r="AN24" s="4">
         <v>1</v>
       </c>
       <c r="AO24">
@@ -3571,120 +3446,118 @@
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25">
         <v>25018183</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="2">
-        <v>30</v>
-      </c>
-      <c r="F25" s="9">
+      <c r="E25">
+        <v>33</v>
+      </c>
+      <c r="F25" s="3">
         <v>0.97709999999999997</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="3">
         <v>0.92369999999999997</v>
       </c>
       <c r="H25">
         <v>3</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="3">
         <v>0.97709999999999997</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="3">
         <v>0.97709999999999997</v>
       </c>
-      <c r="K25" s="14">
-        <v>3</v>
-      </c>
-      <c r="L25" s="9">
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25" s="3">
         <v>0.90839999999999999</v>
       </c>
       <c r="M25">
         <v>1.5</v>
       </c>
-      <c r="N25" s="9">
+      <c r="N25" s="3">
         <v>0.87790000000000001</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
-      <c r="P25" s="9">
+      <c r="P25" s="3">
         <v>0.93130000000000002</v>
       </c>
       <c r="Q25">
         <v>1.5</v>
       </c>
-      <c r="R25" s="9">
+      <c r="R25" s="3">
         <v>1</v>
       </c>
       <c r="S25">
         <v>3</v>
       </c>
-      <c r="T25" s="9">
+      <c r="T25" s="3">
         <v>0.83209999999999995</v>
       </c>
       <c r="U25">
         <v>0</v>
       </c>
-      <c r="V25" s="9">
+      <c r="V25" s="3">
         <v>0.84619999999999995</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
-      <c r="X25" s="9">
+      <c r="X25" s="3">
         <v>1</v>
       </c>
       <c r="Y25">
         <v>3</v>
       </c>
-      <c r="Z25" s="9">
+      <c r="Z25" s="3">
         <v>0.98329999999999995</v>
       </c>
       <c r="AA25">
         <v>3</v>
       </c>
-      <c r="AB25" s="9">
+      <c r="AB25" s="3">
         <v>0.1221</v>
       </c>
       <c r="AC25">
         <v>0</v>
       </c>
-      <c r="AD25" s="9"/>
       <c r="AE25">
         <v>0</v>
       </c>
-      <c r="AF25" s="2"/>
       <c r="AG25">
         <v>3</v>
       </c>
-      <c r="AH25" s="9">
+      <c r="AH25" s="3">
         <v>0.94440000000000002</v>
       </c>
       <c r="AI25">
         <v>3</v>
       </c>
-      <c r="AJ25" s="9">
+      <c r="AJ25" s="3">
         <v>7.6E-3</v>
       </c>
       <c r="AK25">
         <v>3</v>
       </c>
-      <c r="AL25" s="9">
-        <v>0.59</v>
+      <c r="AL25" s="3">
+        <v>1.24</v>
       </c>
       <c r="AM25">
-        <v>0</v>
-      </c>
-      <c r="AN25" s="10">
+        <v>3</v>
+      </c>
+      <c r="AN25" s="4">
         <v>1</v>
       </c>
       <c r="AO25">
@@ -3692,118 +3565,115 @@
       </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26">
         <v>25018191</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26">
         <v>33</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="3">
         <v>0.96430000000000005</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="3">
         <v>0.88390000000000002</v>
       </c>
       <c r="H26">
         <v>3</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="3">
         <v>0.99109999999999998</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="3">
         <v>0.99109999999999998</v>
       </c>
-      <c r="K26" s="14">
-        <v>3</v>
-      </c>
-      <c r="L26" s="9">
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3">
         <v>0.97319999999999995</v>
       </c>
       <c r="M26">
         <v>3</v>
       </c>
-      <c r="N26" s="9">
+      <c r="N26" s="3">
         <v>0.9375</v>
       </c>
       <c r="O26">
         <v>1.5</v>
       </c>
-      <c r="P26" s="9">
+      <c r="P26" s="3">
         <v>0.97319999999999995</v>
       </c>
       <c r="Q26">
         <v>3</v>
       </c>
-      <c r="R26" s="9">
+      <c r="R26" s="3">
         <v>0.99109999999999998</v>
       </c>
       <c r="S26">
         <v>3</v>
       </c>
-      <c r="T26" s="9">
-        <v>0.85709999999999997</v>
+      <c r="T26" s="3">
+        <v>0.89290000000000003</v>
       </c>
       <c r="U26">
         <v>0</v>
       </c>
-      <c r="V26" s="9">
+      <c r="V26" s="3">
         <v>0.90629999999999999</v>
       </c>
       <c r="W26">
         <v>1.5</v>
       </c>
-      <c r="X26" s="9">
+      <c r="X26" s="3">
         <v>1</v>
       </c>
       <c r="Y26">
         <v>3</v>
       </c>
-      <c r="Z26" s="9"/>
       <c r="AA26">
         <v>0</v>
       </c>
-      <c r="AB26" s="9">
-        <v>8.9300000000000004E-2</v>
+      <c r="AB26" s="3">
+        <v>7.1400000000000005E-2</v>
       </c>
       <c r="AC26">
         <v>0</v>
       </c>
-      <c r="AD26" s="9"/>
       <c r="AE26">
         <v>0</v>
       </c>
-      <c r="AF26" s="2"/>
       <c r="AG26">
         <v>3</v>
       </c>
-      <c r="AH26" s="9">
+      <c r="AH26" s="3">
         <v>1</v>
       </c>
       <c r="AI26">
         <v>3</v>
       </c>
-      <c r="AJ26" s="9">
+      <c r="AJ26" s="3">
         <v>1.7899999999999999E-2</v>
       </c>
       <c r="AK26">
         <v>3</v>
       </c>
-      <c r="AL26" s="9">
-        <v>0.21</v>
+      <c r="AL26" s="3">
+        <v>0.85</v>
       </c>
       <c r="AM26">
         <v>0</v>
       </c>
-      <c r="AN26" s="10">
+      <c r="AN26" s="4">
         <v>1</v>
       </c>
       <c r="AO26">
@@ -3811,120 +3681,118 @@
       </c>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27">
         <v>25018060</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27">
         <v>37.5</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="3">
         <v>0.96760000000000002</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="3">
         <v>0.89729999999999999</v>
       </c>
       <c r="H27">
         <v>3</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="3">
         <v>0.98380000000000001</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27" s="3">
         <v>0.98380000000000001</v>
       </c>
-      <c r="K27" s="14">
-        <v>3</v>
-      </c>
-      <c r="L27" s="9">
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3">
         <v>0.91349999999999998</v>
       </c>
       <c r="M27">
         <v>1.5</v>
       </c>
-      <c r="N27" s="9">
+      <c r="N27" s="3">
         <v>0.90269999999999995</v>
       </c>
       <c r="O27">
         <v>1.5</v>
       </c>
-      <c r="P27" s="9">
+      <c r="P27" s="3">
         <v>0.92969999999999997</v>
       </c>
       <c r="Q27">
         <v>1.5</v>
       </c>
-      <c r="R27" s="9">
+      <c r="R27" s="3">
         <v>0.97299999999999998</v>
       </c>
       <c r="S27">
         <v>3</v>
       </c>
-      <c r="T27" s="9">
+      <c r="T27" s="3">
         <v>0.97299999999999998</v>
       </c>
       <c r="U27">
         <v>3</v>
       </c>
-      <c r="V27" s="9">
+      <c r="V27" s="3">
         <v>0.98</v>
       </c>
       <c r="W27">
         <v>3</v>
       </c>
-      <c r="X27" s="9">
+      <c r="X27" s="3">
         <v>1</v>
       </c>
       <c r="Y27">
         <v>3</v>
       </c>
-      <c r="Z27" s="9">
+      <c r="Z27" s="3">
         <v>1.0204</v>
       </c>
       <c r="AA27">
         <v>3</v>
       </c>
-      <c r="AB27" s="9">
+      <c r="AB27" s="3">
         <v>0.1459</v>
       </c>
       <c r="AC27">
         <v>0</v>
       </c>
-      <c r="AD27" s="9"/>
       <c r="AE27">
         <v>0</v>
       </c>
-      <c r="AF27" s="9"/>
       <c r="AG27">
         <v>3</v>
       </c>
-      <c r="AH27" s="9">
+      <c r="AH27" s="3">
         <v>0.875</v>
       </c>
       <c r="AI27">
         <v>0</v>
       </c>
-      <c r="AJ27" s="9">
+      <c r="AJ27" s="3">
         <v>2.7E-2</v>
       </c>
       <c r="AK27">
         <v>3</v>
       </c>
-      <c r="AL27" s="9">
+      <c r="AL27" s="3">
         <v>0.94</v>
       </c>
       <c r="AM27">
         <v>3</v>
       </c>
-      <c r="AN27" s="10">
+      <c r="AN27" s="4">
         <v>1</v>
       </c>
       <c r="AO27">
@@ -3932,120 +3800,118 @@
       </c>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="4" t="s">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28">
         <v>25018272</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="4">
-        <v>33</v>
-      </c>
-      <c r="F28" s="11">
-        <v>0.96850000000000003</v>
-      </c>
-      <c r="G28" s="11">
+      <c r="E28">
+        <v>34.5</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="G28" s="3">
         <v>0.9234</v>
       </c>
       <c r="H28">
         <v>3</v>
       </c>
-      <c r="I28" s="11">
-        <v>0.92789999999999995</v>
-      </c>
-      <c r="J28" s="11">
-        <v>0.92789999999999995</v>
-      </c>
-      <c r="K28" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="L28" s="11">
+      <c r="I28" s="3">
+        <v>0.94140000000000001</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0.94140000000000001</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28" s="3">
         <v>0.79279999999999995</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
-      <c r="N28" s="11">
-        <v>0.75680000000000003</v>
+      <c r="N28" s="3">
+        <v>0.7883</v>
       </c>
       <c r="O28">
         <v>0</v>
       </c>
-      <c r="P28" s="11">
+      <c r="P28" s="3">
         <v>0.90090000000000003</v>
       </c>
       <c r="Q28">
         <v>1.5</v>
       </c>
-      <c r="R28" s="11">
+      <c r="R28" s="3">
         <v>0.97750000000000004</v>
       </c>
       <c r="S28">
         <v>3</v>
       </c>
-      <c r="T28" s="11">
-        <v>0.86040000000000005</v>
+      <c r="T28" s="3">
+        <v>0.89190000000000003</v>
       </c>
       <c r="U28">
         <v>0</v>
       </c>
-      <c r="V28" s="11">
+      <c r="V28" s="3">
         <v>0.96879999999999999</v>
       </c>
       <c r="W28">
         <v>3</v>
       </c>
-      <c r="X28" s="11">
+      <c r="X28" s="3">
         <v>0.98209999999999997</v>
       </c>
       <c r="Y28">
         <v>3</v>
       </c>
-      <c r="Z28" s="11">
+      <c r="Z28" s="3">
         <v>0.98939999999999995</v>
       </c>
       <c r="AA28">
         <v>3</v>
       </c>
-      <c r="AB28" s="11">
-        <v>0.27929999999999999</v>
+      <c r="AB28" s="3">
+        <v>0.25679999999999997</v>
       </c>
       <c r="AC28">
         <v>0</v>
       </c>
-      <c r="AD28" s="11"/>
       <c r="AE28">
         <v>0</v>
       </c>
-      <c r="AF28" s="4"/>
       <c r="AG28">
         <v>3</v>
       </c>
-      <c r="AH28" s="11">
+      <c r="AH28" s="3">
         <v>1</v>
       </c>
       <c r="AI28">
         <v>3</v>
       </c>
-      <c r="AJ28" s="11">
+      <c r="AJ28" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="AK28">
         <v>3</v>
       </c>
-      <c r="AL28" s="11">
-        <v>1</v>
+      <c r="AL28" s="3">
+        <v>1.22</v>
       </c>
       <c r="AM28">
         <v>3</v>
       </c>
-      <c r="AN28" s="12">
+      <c r="AN28" s="4">
         <v>1</v>
       </c>
       <c r="AO28">
@@ -4053,118 +3919,115 @@
       </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29">
         <v>25018582</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="2">
-        <v>36</v>
-      </c>
-      <c r="F29" s="9">
+      <c r="E29">
+        <v>37.5</v>
+      </c>
+      <c r="F29" s="3">
         <v>0.92759999999999998</v>
       </c>
-      <c r="G29" s="9">
-        <v>0.64480000000000004</v>
+      <c r="G29" s="3">
+        <v>0.6462</v>
       </c>
       <c r="H29">
         <v>3</v>
       </c>
-      <c r="I29" s="9">
-        <v>0.97270000000000001</v>
-      </c>
-      <c r="J29" s="9">
-        <v>0.97270000000000001</v>
-      </c>
-      <c r="K29" s="14">
-        <v>3</v>
-      </c>
-      <c r="L29" s="9">
-        <v>0.91259999999999997</v>
+      <c r="I29" s="3">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0.91390000000000005</v>
       </c>
       <c r="M29">
         <v>1.5</v>
       </c>
-      <c r="N29" s="9">
+      <c r="N29" s="3">
         <v>0.84699999999999998</v>
       </c>
       <c r="O29">
         <v>0</v>
       </c>
-      <c r="P29" s="9">
-        <v>0.97540000000000004</v>
+      <c r="P29" s="3">
+        <v>0.98089999999999999</v>
       </c>
       <c r="Q29">
         <v>3</v>
       </c>
-      <c r="R29" s="9">
+      <c r="R29" s="3">
         <v>0.99729999999999996</v>
       </c>
       <c r="S29">
         <v>3</v>
       </c>
-      <c r="T29" s="9">
+      <c r="T29" s="3">
         <v>0.8921</v>
       </c>
       <c r="U29">
         <v>0</v>
       </c>
-      <c r="V29" s="9">
+      <c r="V29" s="3">
         <v>0.9708</v>
       </c>
       <c r="W29">
         <v>3</v>
       </c>
-      <c r="X29" s="9">
+      <c r="X29" s="3">
         <v>0.97709999999999997</v>
       </c>
       <c r="Y29">
         <v>3</v>
       </c>
-      <c r="Z29" s="9">
+      <c r="Z29" s="3">
         <v>0.99480000000000002</v>
       </c>
       <c r="AA29">
         <v>3</v>
       </c>
-      <c r="AB29" s="9">
-        <v>0.16800000000000001</v>
+      <c r="AB29" s="3">
+        <v>0.1653</v>
       </c>
       <c r="AC29">
         <v>0</v>
       </c>
-      <c r="AD29" s="9"/>
       <c r="AE29">
         <v>0</v>
       </c>
-      <c r="AF29" s="2"/>
       <c r="AG29">
         <v>3</v>
       </c>
-      <c r="AH29" s="9">
+      <c r="AH29" s="3">
         <v>0.96240000000000003</v>
       </c>
       <c r="AI29">
         <v>3</v>
       </c>
-      <c r="AJ29" s="2"/>
       <c r="AK29">
         <v>3</v>
       </c>
-      <c r="AL29" s="9">
-        <v>0.92</v>
+      <c r="AL29" s="3">
+        <v>0.95</v>
       </c>
       <c r="AM29">
-        <v>1.5</v>
-      </c>
-      <c r="AN29" s="10">
+        <v>3</v>
+      </c>
+      <c r="AN29" s="4">
         <v>1</v>
       </c>
       <c r="AO29">
@@ -4172,14 +4035,14 @@
       </c>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="G32" s="8">
+      <c r="G32" s="2">
         <f>AVERAGE(E2:E29)</f>
-        <v>35.785714285714285</v>
+        <v>36.857142857142854</v>
       </c>
     </row>
   </sheetData>

--- a/atuais.xlsx
+++ b/atuais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael Abrantes\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A69E3AA-604B-46F3-9F71-EC219AAA2877}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03A2E8E2-4819-48C8-AB71-76787D59D58F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -596,7 +596,7 @@
   <dimension ref="A1:AO32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,7 +785,7 @@
         <v>68</v>
       </c>
       <c r="E2">
-        <v>36</v>
+        <v>34.5</v>
       </c>
       <c r="F2" s="3">
         <v>0.95730000000000004</v>
@@ -797,22 +797,22 @@
         <v>3</v>
       </c>
       <c r="I2" s="3">
-        <v>0.93589999999999995</v>
+        <v>0.93159999999999998</v>
       </c>
       <c r="J2" s="3">
-        <v>0.93589999999999995</v>
+        <v>0.93159999999999998</v>
       </c>
       <c r="K2">
         <v>1.5</v>
       </c>
       <c r="L2" s="3">
-        <v>0.90600000000000003</v>
+        <v>0.88460000000000005</v>
       </c>
       <c r="M2">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="N2" s="3">
-        <v>0.78210000000000002</v>
+        <v>0.77780000000000005</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>3</v>
       </c>
       <c r="T2" s="3">
-        <v>0.85470000000000002</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>3</v>
       </c>
       <c r="AB2" s="3">
-        <v>0.1923</v>
+        <v>0.17949999999999999</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0.98140000000000005</v>
       </c>
       <c r="G3" s="3">
-        <v>0.89439999999999997</v>
+        <v>0.90680000000000005</v>
       </c>
       <c r="H3">
         <v>3</v>
       </c>
       <c r="I3" s="3">
-        <v>0.9627</v>
+        <v>0.96889999999999998</v>
       </c>
       <c r="J3" s="3">
-        <v>0.9627</v>
+        <v>0.96889999999999998</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -928,7 +928,7 @@
         <v>1.5</v>
       </c>
       <c r="N3" s="3">
-        <v>0.76400000000000001</v>
+        <v>0.80120000000000002</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>3</v>
       </c>
       <c r="R3" s="3">
-        <v>0.9627</v>
+        <v>0.98140000000000005</v>
       </c>
       <c r="S3">
         <v>3</v>
       </c>
       <c r="T3" s="3">
-        <v>0.92549999999999999</v>
+        <v>0.93169999999999997</v>
       </c>
       <c r="U3">
         <v>1.5</v>
@@ -970,7 +970,7 @@
         <v>3</v>
       </c>
       <c r="AB3" s="3">
-        <v>0.14910000000000001</v>
+        <v>0.1118</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -1026,46 +1026,46 @@
         <v>1</v>
       </c>
       <c r="G4" s="3">
-        <v>1</v>
+        <v>0.99539999999999995</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="I4" s="3">
-        <v>0.94520000000000004</v>
+        <v>0.94979999999999998</v>
       </c>
       <c r="J4" s="3">
-        <v>0.94520000000000004</v>
+        <v>0.94979999999999998</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4" s="3">
-        <v>0.92689999999999995</v>
+        <v>0.93610000000000004</v>
       </c>
       <c r="M4">
         <v>1.5</v>
       </c>
       <c r="N4" s="3">
-        <v>0.90869999999999995</v>
+        <v>0.91320000000000001</v>
       </c>
       <c r="O4">
         <v>1.5</v>
       </c>
       <c r="P4" s="3">
-        <v>0.94979999999999998</v>
+        <v>0.96350000000000002</v>
       </c>
       <c r="Q4">
         <v>3</v>
       </c>
       <c r="R4" s="3">
-        <v>0.95430000000000004</v>
+        <v>0.95889999999999997</v>
       </c>
       <c r="S4">
         <v>3</v>
       </c>
       <c r="T4" s="3">
-        <v>0.91779999999999995</v>
+        <v>0.9224</v>
       </c>
       <c r="U4">
         <v>1.5</v>
@@ -1089,7 +1089,7 @@
         <v>3</v>
       </c>
       <c r="AB4" s="3">
-        <v>9.5899999999999999E-2</v>
+        <v>8.6800000000000002E-2</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -1252,7 +1252,7 @@
         <v>63</v>
       </c>
       <c r="E6">
-        <v>37.5</v>
+        <v>39</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -1264,22 +1264,22 @@
         <v>3</v>
       </c>
       <c r="I6" s="3">
-        <v>0.97589999999999999</v>
+        <v>0.9819</v>
       </c>
       <c r="J6" s="3">
-        <v>0.97589999999999999</v>
+        <v>0.9819</v>
       </c>
       <c r="K6">
         <v>3</v>
       </c>
       <c r="L6" s="3">
-        <v>0.88549999999999995</v>
+        <v>0.93369999999999997</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N6" s="3">
-        <v>0.86750000000000005</v>
+        <v>0.87350000000000005</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>3</v>
       </c>
       <c r="R6" s="3">
-        <v>0.9819</v>
+        <v>0.97589999999999999</v>
       </c>
       <c r="S6">
         <v>3</v>
       </c>
       <c r="T6" s="3">
-        <v>0.96389999999999998</v>
+        <v>0.95779999999999998</v>
       </c>
       <c r="U6">
         <v>3</v>
@@ -1321,7 +1321,7 @@
         <v>3</v>
       </c>
       <c r="AB6" s="3">
-        <v>0.20480000000000001</v>
+        <v>0.1145</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1368,13 +1368,13 @@
         <v>62</v>
       </c>
       <c r="E7">
-        <v>33</v>
+        <v>34.5</v>
       </c>
       <c r="F7" s="3">
-        <v>0.95830000000000004</v>
+        <v>0.95450000000000002</v>
       </c>
       <c r="G7" s="3">
-        <v>0.90149999999999997</v>
+        <v>0.89770000000000005</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -1389,25 +1389,25 @@
         <v>1.5</v>
       </c>
       <c r="L7" s="3">
-        <v>0.92800000000000005</v>
+        <v>0.93179999999999996</v>
       </c>
       <c r="M7">
         <v>1.5</v>
       </c>
       <c r="N7" s="3">
-        <v>0.89770000000000005</v>
+        <v>0.92420000000000002</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P7" s="3">
-        <v>0.92420000000000002</v>
+        <v>0.92049999999999998</v>
       </c>
       <c r="Q7">
         <v>1.5</v>
       </c>
       <c r="R7" s="3">
-        <v>0.91669999999999996</v>
+        <v>0.93559999999999999</v>
       </c>
       <c r="S7">
         <v>1.5</v>
@@ -1437,7 +1437,7 @@
         <v>3</v>
       </c>
       <c r="AB7" s="3">
-        <v>0.1439</v>
+        <v>0.1326</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -1458,7 +1458,7 @@
         <v>1.5</v>
       </c>
       <c r="AJ7" s="3">
-        <v>2.2700000000000001E-2</v>
+        <v>1.52E-2</v>
       </c>
       <c r="AK7">
         <v>3</v>
@@ -1490,13 +1490,13 @@
         <v>11</v>
       </c>
       <c r="E8">
-        <v>43.5</v>
+        <v>46.5</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
       </c>
       <c r="G8" s="3">
-        <v>0.996</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -1558,11 +1558,9 @@
       <c r="AA8">
         <v>3</v>
       </c>
-      <c r="AB8" s="3">
-        <v>6.4000000000000001E-2</v>
-      </c>
+      <c r="AB8" s="3"/>
       <c r="AC8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD8" s="3">
         <v>0.22800000000000001</v>
@@ -1746,31 +1744,31 @@
         <v>3</v>
       </c>
       <c r="L10" s="3">
-        <v>0.93010000000000004</v>
+        <v>0.92359999999999998</v>
       </c>
       <c r="M10">
         <v>1.5</v>
       </c>
       <c r="N10" s="3">
-        <v>0.92359999999999998</v>
+        <v>0.93669999999999998</v>
       </c>
       <c r="O10">
         <v>1.5</v>
       </c>
       <c r="P10" s="3">
-        <v>0.99129999999999996</v>
+        <v>0.98909999999999998</v>
       </c>
       <c r="Q10">
         <v>3</v>
       </c>
       <c r="R10" s="3">
-        <v>0.9738</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="S10">
         <v>3</v>
       </c>
       <c r="T10" s="3">
-        <v>0.95409999999999995</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="U10">
         <v>3</v>
@@ -1800,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="AD10" s="3">
-        <v>0.64410000000000001</v>
+        <v>0.64629999999999999</v>
       </c>
       <c r="AE10">
         <v>0</v>
@@ -1856,16 +1854,16 @@
         <v>3</v>
       </c>
       <c r="I11" s="3">
-        <v>0.94640000000000002</v>
+        <v>0.95830000000000004</v>
       </c>
       <c r="J11" s="3">
-        <v>0.94640000000000002</v>
+        <v>0.95830000000000004</v>
       </c>
       <c r="K11">
         <v>3</v>
       </c>
       <c r="L11" s="3">
-        <v>0.91069999999999995</v>
+        <v>0.9345</v>
       </c>
       <c r="M11">
         <v>1.5</v>
@@ -1877,7 +1875,7 @@
         <v>3</v>
       </c>
       <c r="P11" s="3">
-        <v>0.92259999999999998</v>
+        <v>0.9345</v>
       </c>
       <c r="Q11">
         <v>1.5</v>
@@ -1913,7 +1911,7 @@
         <v>3</v>
       </c>
       <c r="AB11" s="3">
-        <v>0.1071</v>
+        <v>0.11310000000000001</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -2082,46 +2080,46 @@
         <v>0.96889999999999998</v>
       </c>
       <c r="G13" s="3">
-        <v>0.85229999999999995</v>
+        <v>0.85750000000000004</v>
       </c>
       <c r="H13">
         <v>3</v>
       </c>
       <c r="I13" s="3">
-        <v>0.94040000000000001</v>
+        <v>0.93779999999999997</v>
       </c>
       <c r="J13" s="3">
-        <v>0.94040000000000001</v>
+        <v>0.93779999999999997</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L13" s="3">
-        <v>0.84719999999999995</v>
+        <v>0.85750000000000004</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13" s="3">
-        <v>0.8135</v>
+        <v>0.83420000000000005</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" s="3">
-        <v>0.79790000000000005</v>
+        <v>0.80049999999999999</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13" s="3">
-        <v>0.93779999999999997</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="S13">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="T13" s="3">
-        <v>0.79269999999999996</v>
+        <v>0.81869999999999998</v>
       </c>
       <c r="U13">
         <v>0</v>
@@ -2145,7 +2143,7 @@
         <v>1.5</v>
       </c>
       <c r="AB13" s="3">
-        <v>0.2409</v>
+        <v>0.20979999999999999</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -2198,7 +2196,7 @@
         <v>0.98929999999999996</v>
       </c>
       <c r="G14" s="3">
-        <v>0.95169999999999999</v>
+        <v>0.95440000000000003</v>
       </c>
       <c r="H14">
         <v>3</v>
@@ -2219,7 +2217,7 @@
         <v>3</v>
       </c>
       <c r="N14" s="3">
-        <v>0.96779999999999999</v>
+        <v>0.97050000000000003</v>
       </c>
       <c r="O14">
         <v>3</v>
@@ -2276,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="3">
-        <v>1.34E-2</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="AK14">
         <v>3</v>
@@ -2308,28 +2306,28 @@
         <v>14</v>
       </c>
       <c r="E15">
-        <v>34.5</v>
+        <v>33</v>
       </c>
       <c r="F15" s="3">
         <v>0.95730000000000004</v>
       </c>
       <c r="G15" s="3">
-        <v>0.78400000000000003</v>
+        <v>0.77070000000000005</v>
       </c>
       <c r="H15">
         <v>3</v>
       </c>
       <c r="I15" s="3">
-        <v>0.97330000000000005</v>
+        <v>0.96530000000000005</v>
       </c>
       <c r="J15" s="3">
-        <v>0.97330000000000005</v>
+        <v>0.96530000000000005</v>
       </c>
       <c r="K15">
         <v>3</v>
       </c>
       <c r="L15" s="3">
-        <v>0.81330000000000002</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -2341,10 +2339,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="3">
-        <v>0.90400000000000003</v>
+        <v>0.88270000000000004</v>
       </c>
       <c r="Q15">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R15" s="3">
         <v>0.96530000000000005</v>
@@ -2353,7 +2351,7 @@
         <v>3</v>
       </c>
       <c r="T15" s="3">
-        <v>0.94130000000000003</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="U15">
         <v>3</v>
@@ -2377,7 +2375,7 @@
         <v>3</v>
       </c>
       <c r="AB15" s="3">
-        <v>0.28000000000000003</v>
+        <v>0.28270000000000001</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -2392,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="3">
-        <v>1.3299999999999999E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AK15">
         <v>3</v>
@@ -2424,13 +2422,13 @@
         <v>71</v>
       </c>
       <c r="E16">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F16" s="3">
-        <v>0.95450000000000002</v>
+        <v>0.96330000000000005</v>
       </c>
       <c r="G16" s="3">
-        <v>0.9</v>
+        <v>0.92659999999999998</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -2445,19 +2443,19 @@
         <v>3</v>
       </c>
       <c r="L16" s="3">
-        <v>0.98180000000000001</v>
+        <v>0.98170000000000002</v>
       </c>
       <c r="M16">
         <v>3</v>
       </c>
       <c r="N16" s="3">
-        <v>0.98180000000000001</v>
+        <v>0.99080000000000001</v>
       </c>
       <c r="O16">
         <v>3</v>
       </c>
       <c r="P16" s="3">
-        <v>0.97270000000000001</v>
+        <v>0.99080000000000001</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -2469,7 +2467,7 @@
         <v>3</v>
       </c>
       <c r="T16" s="3">
-        <v>0.96360000000000001</v>
+        <v>0.96330000000000005</v>
       </c>
       <c r="U16">
         <v>3</v>
@@ -2493,10 +2491,10 @@
         <v>3</v>
       </c>
       <c r="AB16" s="3">
-        <v>6.3600000000000004E-2</v>
+        <v>3.6700000000000003E-2</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE16">
         <v>0</v>
@@ -2508,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="3">
-        <v>9.1000000000000004E-3</v>
+        <v>1.83E-2</v>
       </c>
       <c r="AK16">
         <v>3</v>
@@ -2543,7 +2541,7 @@
         <v>33</v>
       </c>
       <c r="F17" s="3">
-        <v>0.98309999999999997</v>
+        <v>0.97460000000000002</v>
       </c>
       <c r="G17" s="3">
         <v>0.92369999999999997</v>
@@ -2659,7 +2657,7 @@
         <v>0.98160000000000003</v>
       </c>
       <c r="G18" s="3">
-        <v>0.92020000000000002</v>
+        <v>0.94479999999999997</v>
       </c>
       <c r="H18">
         <v>3</v>
@@ -2772,7 +2770,7 @@
         <v>0.9859</v>
       </c>
       <c r="G19" s="3">
-        <v>0.9577</v>
+        <v>0.9718</v>
       </c>
       <c r="H19">
         <v>3</v>
@@ -2882,10 +2880,10 @@
         <v>3</v>
       </c>
       <c r="I20" s="3">
-        <v>0.9667</v>
+        <v>0.97219999999999995</v>
       </c>
       <c r="J20" s="3">
-        <v>0.9667</v>
+        <v>0.97219999999999995</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -2909,7 +2907,7 @@
         <v>1.5</v>
       </c>
       <c r="R20" s="3">
-        <v>0.97219999999999995</v>
+        <v>0.9778</v>
       </c>
       <c r="S20">
         <v>3</v>
@@ -2939,7 +2937,7 @@
         <v>3</v>
       </c>
       <c r="AB20" s="3">
-        <v>0.2833</v>
+        <v>0.27779999999999999</v>
       </c>
       <c r="AC20">
         <v>0</v>
@@ -2955,6 +2953,9 @@
       </c>
       <c r="AI20">
         <v>0</v>
+      </c>
+      <c r="AJ20" s="3">
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="AK20">
         <v>3</v>
@@ -2989,7 +2990,7 @@
         <v>39</v>
       </c>
       <c r="F21" s="3">
-        <v>0.93410000000000004</v>
+        <v>0.93769999999999998</v>
       </c>
       <c r="G21" s="3">
         <v>0.7399</v>
@@ -3007,13 +3008,13 @@
         <v>3</v>
       </c>
       <c r="L21" s="3">
-        <v>0.94140000000000001</v>
+        <v>0.94869999999999999</v>
       </c>
       <c r="M21">
         <v>3</v>
       </c>
       <c r="N21" s="3">
-        <v>0.91210000000000002</v>
+        <v>0.90839999999999999</v>
       </c>
       <c r="O21">
         <v>1.5</v>
@@ -3025,13 +3026,13 @@
         <v>3</v>
       </c>
       <c r="R21" s="3">
+        <v>0.97440000000000004</v>
+      </c>
+      <c r="S21">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3">
         <v>0.97070000000000001</v>
-      </c>
-      <c r="S21">
-        <v>3</v>
-      </c>
-      <c r="T21" s="3">
-        <v>0.96340000000000003</v>
       </c>
       <c r="U21">
         <v>3</v>
@@ -3055,7 +3056,7 @@
         <v>3</v>
       </c>
       <c r="AB21" s="3">
-        <v>0.19409999999999999</v>
+        <v>0.17949999999999999</v>
       </c>
       <c r="AC21">
         <v>0</v>
@@ -3073,7 +3074,7 @@
         <v>1.5</v>
       </c>
       <c r="AJ21" s="3">
-        <v>2.93E-2</v>
+        <v>2.5600000000000001E-2</v>
       </c>
       <c r="AK21">
         <v>3</v>
@@ -3126,13 +3127,13 @@
         <v>3</v>
       </c>
       <c r="L22" s="3">
-        <v>0.87309999999999999</v>
+        <v>0.88080000000000003</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22" s="3">
-        <v>0.71540000000000004</v>
+        <v>0.74229999999999996</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -3174,7 +3175,7 @@
         <v>1.5</v>
       </c>
       <c r="AB22" s="3">
-        <v>0.26919999999999999</v>
+        <v>0.25380000000000003</v>
       </c>
       <c r="AC22">
         <v>0</v>
@@ -3227,10 +3228,10 @@
         <v>42</v>
       </c>
       <c r="F23" s="3">
-        <v>0.98780000000000001</v>
+        <v>0.98770000000000002</v>
       </c>
       <c r="G23" s="3">
-        <v>0.94510000000000005</v>
+        <v>0.95089999999999997</v>
       </c>
       <c r="H23">
         <v>3</v>
@@ -3245,13 +3246,13 @@
         <v>3</v>
       </c>
       <c r="L23" s="3">
-        <v>0.97560000000000002</v>
+        <v>0.99390000000000001</v>
       </c>
       <c r="M23">
         <v>3</v>
       </c>
       <c r="N23" s="3">
-        <v>0.97560000000000002</v>
+        <v>0.97550000000000003</v>
       </c>
       <c r="O23">
         <v>3</v>
@@ -3263,13 +3264,13 @@
         <v>3</v>
       </c>
       <c r="R23" s="3">
-        <v>0.98170000000000002</v>
+        <v>0.98160000000000003</v>
       </c>
       <c r="S23">
         <v>3</v>
       </c>
       <c r="T23" s="3">
-        <v>0.97560000000000002</v>
+        <v>0.98160000000000003</v>
       </c>
       <c r="U23">
         <v>3</v>
@@ -3293,7 +3294,7 @@
         <v>3</v>
       </c>
       <c r="AB23" s="3">
-        <v>3.0499999999999999E-2</v>
+        <v>2.4500000000000001E-2</v>
       </c>
       <c r="AC23">
         <v>3</v>
@@ -3308,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="AJ23" s="3">
-        <v>1.83E-2</v>
+        <v>1.23E-2</v>
       </c>
       <c r="AK23">
         <v>3</v>
@@ -3343,37 +3344,37 @@
         <v>28.5</v>
       </c>
       <c r="F24" s="3">
-        <v>0.90780000000000005</v>
+        <v>0.90939999999999999</v>
       </c>
       <c r="G24" s="3">
-        <v>0.75429999999999997</v>
+        <v>0.76659999999999995</v>
       </c>
       <c r="H24">
         <v>1.5</v>
       </c>
       <c r="I24" s="3">
-        <v>0.97950000000000004</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="J24" s="3">
-        <v>0.97950000000000004</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="K24">
         <v>3</v>
       </c>
       <c r="L24" s="3">
-        <v>0.91810000000000003</v>
+        <v>0.92330000000000001</v>
       </c>
       <c r="M24">
         <v>1.5</v>
       </c>
       <c r="N24" s="3">
-        <v>0.82589999999999997</v>
+        <v>0.83620000000000005</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24" s="3">
-        <v>0.90780000000000005</v>
+        <v>0.91290000000000004</v>
       </c>
       <c r="Q24">
         <v>1.5</v>
@@ -3385,7 +3386,7 @@
         <v>3</v>
       </c>
       <c r="T24" s="3">
-        <v>0.98980000000000001</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="U24">
         <v>3</v>
@@ -3409,7 +3410,7 @@
         <v>3</v>
       </c>
       <c r="AB24" s="3">
-        <v>0.16719999999999999</v>
+        <v>0.14979999999999999</v>
       </c>
       <c r="AC24">
         <v>0</v>
@@ -3427,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="AJ24" s="3">
-        <v>0.20480000000000001</v>
+        <v>0.1394</v>
       </c>
       <c r="AK24">
         <v>0</v>
@@ -3471,10 +3472,10 @@
         <v>3</v>
       </c>
       <c r="I25" s="3">
-        <v>0.97709999999999997</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="J25" s="3">
-        <v>0.97709999999999997</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -3504,7 +3505,7 @@
         <v>3</v>
       </c>
       <c r="T25" s="3">
-        <v>0.83209999999999995</v>
+        <v>0.8397</v>
       </c>
       <c r="U25">
         <v>0</v>
@@ -3578,7 +3579,7 @@
         <v>19</v>
       </c>
       <c r="E26">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F26" s="3">
         <v>0.96430000000000005</v>
@@ -3605,10 +3606,10 @@
         <v>3</v>
       </c>
       <c r="N26" s="3">
-        <v>0.9375</v>
+        <v>0.94640000000000002</v>
       </c>
       <c r="O26">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="P26" s="3">
         <v>0.97319999999999995</v>
@@ -3617,16 +3618,16 @@
         <v>3</v>
       </c>
       <c r="R26" s="3">
-        <v>0.99109999999999998</v>
+        <v>1</v>
       </c>
       <c r="S26">
         <v>3</v>
       </c>
       <c r="T26" s="3">
-        <v>0.89290000000000003</v>
+        <v>0.91959999999999997</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="V26" s="3">
         <v>0.90629999999999999</v>
@@ -3644,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="AB26" s="3">
-        <v>7.1400000000000005E-2</v>
+        <v>5.3600000000000002E-2</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -3662,7 +3663,7 @@
         <v>3</v>
       </c>
       <c r="AJ26" s="3">
-        <v>1.7899999999999999E-2</v>
+        <v>2.6800000000000001E-2</v>
       </c>
       <c r="AK26">
         <v>3</v>
@@ -3697,7 +3698,7 @@
         <v>37.5</v>
       </c>
       <c r="F27" s="3">
-        <v>0.96760000000000002</v>
+        <v>0.96220000000000006</v>
       </c>
       <c r="G27" s="3">
         <v>0.89729999999999999</v>
@@ -3733,13 +3734,13 @@
         <v>1.5</v>
       </c>
       <c r="R27" s="3">
-        <v>0.97299999999999998</v>
+        <v>0.97840000000000005</v>
       </c>
       <c r="S27">
         <v>3</v>
       </c>
       <c r="T27" s="3">
-        <v>0.97299999999999998</v>
+        <v>0.96220000000000006</v>
       </c>
       <c r="U27">
         <v>3</v>
@@ -3763,7 +3764,7 @@
         <v>3</v>
       </c>
       <c r="AB27" s="3">
-        <v>0.1459</v>
+        <v>0.15140000000000001</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -3781,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="AJ27" s="3">
-        <v>2.7E-2</v>
+        <v>3.78E-2</v>
       </c>
       <c r="AK27">
         <v>3</v>
@@ -3813,7 +3814,7 @@
         <v>72</v>
       </c>
       <c r="E28">
-        <v>34.5</v>
+        <v>37.5</v>
       </c>
       <c r="F28" s="3">
         <v>0.97299999999999998</v>
@@ -3834,22 +3835,22 @@
         <v>3</v>
       </c>
       <c r="L28" s="3">
-        <v>0.79279999999999995</v>
+        <v>0.81979999999999997</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
       <c r="N28" s="3">
-        <v>0.7883</v>
+        <v>0.85140000000000005</v>
       </c>
       <c r="O28">
         <v>0</v>
       </c>
       <c r="P28" s="3">
-        <v>0.90090000000000003</v>
+        <v>0.94140000000000001</v>
       </c>
       <c r="Q28">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="R28" s="3">
         <v>0.97750000000000004</v>
@@ -3858,10 +3859,10 @@
         <v>3</v>
       </c>
       <c r="T28" s="3">
-        <v>0.89190000000000003</v>
+        <v>0.90090000000000003</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="V28" s="3">
         <v>0.96879999999999999</v>
@@ -3882,7 +3883,7 @@
         <v>3</v>
       </c>
       <c r="AB28" s="3">
-        <v>0.25679999999999997</v>
+        <v>0.22969999999999999</v>
       </c>
       <c r="AC28">
         <v>0</v>
@@ -3932,40 +3933,40 @@
         <v>74</v>
       </c>
       <c r="E29">
-        <v>37.5</v>
+        <v>40.5</v>
       </c>
       <c r="F29" s="3">
+        <v>0.93030000000000002</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.65029999999999999</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0.97950000000000004</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0.97950000000000004</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29" s="3">
         <v>0.92759999999999998</v>
       </c>
-      <c r="G29" s="3">
-        <v>0.6462</v>
-      </c>
-      <c r="H29">
-        <v>3</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0.91390000000000005</v>
-      </c>
       <c r="M29">
         <v>1.5</v>
       </c>
       <c r="N29" s="3">
-        <v>0.84699999999999998</v>
+        <v>0.90710000000000002</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P29" s="3">
-        <v>0.98089999999999999</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -3977,10 +3978,10 @@
         <v>3</v>
       </c>
       <c r="T29" s="3">
-        <v>0.8921</v>
+        <v>0.91669999999999996</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="V29" s="3">
         <v>0.9708</v>
@@ -4001,7 +4002,7 @@
         <v>3</v>
       </c>
       <c r="AB29" s="3">
-        <v>0.1653</v>
+        <v>0.15160000000000001</v>
       </c>
       <c r="AC29">
         <v>0</v>
@@ -4042,7 +4043,7 @@
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="G32" s="2">
         <f>AVERAGE(E2:E29)</f>
-        <v>36.857142857142854</v>
+        <v>37.392857142857146</v>
       </c>
     </row>
   </sheetData>

--- a/atuais.xlsx
+++ b/atuais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael Abrantes\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03A2E8E2-4819-48C8-AB71-76787D59D58F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A1D7389-4249-4E3B-91EE-9187E39F6C8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -595,9 +595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -785,34 +783,34 @@
         <v>68</v>
       </c>
       <c r="E2">
-        <v>34.5</v>
+        <v>36</v>
       </c>
       <c r="F2" s="3">
         <v>0.95730000000000004</v>
       </c>
       <c r="G2" s="3">
-        <v>0.86319999999999997</v>
+        <v>0.86750000000000005</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2" s="3">
-        <v>0.93159999999999998</v>
+        <v>0.94020000000000004</v>
       </c>
       <c r="J2" s="3">
-        <v>0.93159999999999998</v>
+        <v>0.94020000000000004</v>
       </c>
       <c r="K2">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L2" s="3">
-        <v>0.88460000000000005</v>
+        <v>0.88890000000000002</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2" s="3">
-        <v>0.77780000000000005</v>
+        <v>0.79059999999999997</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -854,7 +852,7 @@
         <v>3</v>
       </c>
       <c r="AB2" s="3">
-        <v>0.17949999999999999</v>
+        <v>0.15379999999999999</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -913,16 +911,16 @@
         <v>3</v>
       </c>
       <c r="I3" s="3">
-        <v>0.96889999999999998</v>
+        <v>0.98140000000000005</v>
       </c>
       <c r="J3" s="3">
-        <v>0.96889999999999998</v>
+        <v>0.98140000000000005</v>
       </c>
       <c r="K3">
         <v>3</v>
       </c>
       <c r="L3" s="3">
-        <v>0.91300000000000003</v>
+        <v>0.93789999999999996</v>
       </c>
       <c r="M3">
         <v>1.5</v>
@@ -970,7 +968,7 @@
         <v>3</v>
       </c>
       <c r="AB3" s="3">
-        <v>0.1118</v>
+        <v>0.1056</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -1020,13 +1018,13 @@
         <v>64</v>
       </c>
       <c r="E4">
-        <v>40.5</v>
+        <v>42</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
       </c>
       <c r="G4" s="3">
-        <v>0.99539999999999995</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -1041,19 +1039,19 @@
         <v>3</v>
       </c>
       <c r="L4" s="3">
-        <v>0.93610000000000004</v>
+        <v>0.94979999999999998</v>
       </c>
       <c r="M4">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="N4" s="3">
-        <v>0.91320000000000001</v>
+        <v>0.90869999999999995</v>
       </c>
       <c r="O4">
         <v>1.5</v>
       </c>
       <c r="P4" s="3">
-        <v>0.96350000000000002</v>
+        <v>0.95430000000000004</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1065,7 +1063,7 @@
         <v>3</v>
       </c>
       <c r="T4" s="3">
-        <v>0.9224</v>
+        <v>0.92689999999999995</v>
       </c>
       <c r="U4">
         <v>1.5</v>
@@ -1089,7 +1087,7 @@
         <v>3</v>
       </c>
       <c r="AB4" s="3">
-        <v>8.6800000000000002E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -1142,7 +1140,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="3">
-        <v>0.98770000000000002</v>
+        <v>0.99380000000000002</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -1163,7 +1161,7 @@
         <v>3</v>
       </c>
       <c r="N5" s="3">
-        <v>0.96909999999999996</v>
+        <v>0.97529999999999994</v>
       </c>
       <c r="O5">
         <v>3</v>
@@ -1321,7 +1319,7 @@
         <v>3</v>
       </c>
       <c r="AB6" s="3">
-        <v>0.1145</v>
+        <v>0.1205</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1374,16 +1372,16 @@
         <v>0.95450000000000002</v>
       </c>
       <c r="G7" s="3">
-        <v>0.89770000000000005</v>
+        <v>0.90149999999999997</v>
       </c>
       <c r="H7">
         <v>3</v>
       </c>
       <c r="I7" s="3">
-        <v>0.92800000000000005</v>
+        <v>0.93179999999999996</v>
       </c>
       <c r="J7" s="3">
-        <v>0.92800000000000005</v>
+        <v>0.93179999999999996</v>
       </c>
       <c r="K7">
         <v>1.5</v>
@@ -1413,7 +1411,7 @@
         <v>1.5</v>
       </c>
       <c r="T7" s="3">
-        <v>0.90529999999999999</v>
+        <v>0.90910000000000002</v>
       </c>
       <c r="U7">
         <v>1.5</v>
@@ -1437,7 +1435,7 @@
         <v>3</v>
       </c>
       <c r="AB7" s="3">
-        <v>0.1326</v>
+        <v>0.125</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -1458,7 +1456,7 @@
         <v>1.5</v>
       </c>
       <c r="AJ7" s="3">
-        <v>1.52E-2</v>
+        <v>1.89E-2</v>
       </c>
       <c r="AK7">
         <v>3</v>
@@ -1723,37 +1721,37 @@
         <v>73</v>
       </c>
       <c r="E10">
-        <v>42</v>
+        <v>43.5</v>
       </c>
       <c r="F10" s="3">
         <v>0.99780000000000002</v>
       </c>
       <c r="G10" s="3">
-        <v>0.91700000000000004</v>
+        <v>0.92359999999999998</v>
       </c>
       <c r="H10">
         <v>3</v>
       </c>
       <c r="I10" s="3">
-        <v>0.96719999999999995</v>
+        <v>0.97819999999999996</v>
       </c>
       <c r="J10" s="3">
-        <v>0.96719999999999995</v>
+        <v>0.97819999999999996</v>
       </c>
       <c r="K10">
         <v>3</v>
       </c>
       <c r="L10" s="3">
-        <v>0.92359999999999998</v>
+        <v>0.92579999999999996</v>
       </c>
       <c r="M10">
         <v>1.5</v>
       </c>
       <c r="N10" s="3">
-        <v>0.93669999999999998</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="O10">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="P10" s="3">
         <v>0.98909999999999998</v>
@@ -1768,7 +1766,7 @@
         <v>3</v>
       </c>
       <c r="T10" s="3">
-        <v>0.95199999999999996</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="U10">
         <v>3</v>
@@ -1792,7 +1790,7 @@
         <v>3</v>
       </c>
       <c r="AB10" s="3">
-        <v>7.2099999999999997E-2</v>
+        <v>6.3299999999999995E-2</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -1845,19 +1843,19 @@
         <v>39</v>
       </c>
       <c r="F11" s="3">
-        <v>0.98809999999999998</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="G11" s="3">
-        <v>0.88100000000000001</v>
+        <v>0.89290000000000003</v>
       </c>
       <c r="H11">
         <v>3</v>
       </c>
       <c r="I11" s="3">
-        <v>0.95830000000000004</v>
+        <v>0.98209999999999997</v>
       </c>
       <c r="J11" s="3">
-        <v>0.95830000000000004</v>
+        <v>0.98209999999999997</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1875,13 +1873,13 @@
         <v>3</v>
       </c>
       <c r="P11" s="3">
-        <v>0.9345</v>
+        <v>0.91069999999999995</v>
       </c>
       <c r="Q11">
         <v>1.5</v>
       </c>
       <c r="R11" s="3">
-        <v>0.96430000000000005</v>
+        <v>0.97619999999999996</v>
       </c>
       <c r="S11">
         <v>3</v>
@@ -1911,13 +1909,13 @@
         <v>3</v>
       </c>
       <c r="AB11" s="3">
-        <v>0.11310000000000001</v>
+        <v>9.5200000000000007E-2</v>
       </c>
       <c r="AC11">
         <v>0</v>
       </c>
       <c r="AD11" s="3">
-        <v>0.99399999999999999</v>
+        <v>1</v>
       </c>
       <c r="AE11">
         <v>3</v>
@@ -2074,25 +2072,25 @@
         <v>12</v>
       </c>
       <c r="E13">
-        <v>24</v>
+        <v>25.5</v>
       </c>
       <c r="F13" s="3">
-        <v>0.96889999999999998</v>
+        <v>0.97409999999999997</v>
       </c>
       <c r="G13" s="3">
-        <v>0.85750000000000004</v>
+        <v>0.8679</v>
       </c>
       <c r="H13">
         <v>3</v>
       </c>
       <c r="I13" s="3">
-        <v>0.93779999999999997</v>
+        <v>0.9637</v>
       </c>
       <c r="J13" s="3">
-        <v>0.93779999999999997</v>
+        <v>0.9637</v>
       </c>
       <c r="K13">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L13" s="3">
         <v>0.85750000000000004</v>
@@ -2143,7 +2141,7 @@
         <v>1.5</v>
       </c>
       <c r="AB13" s="3">
-        <v>0.20979999999999999</v>
+        <v>0.20730000000000001</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -2157,9 +2155,7 @@
       <c r="AI13">
         <v>0</v>
       </c>
-      <c r="AJ13" s="3">
-        <v>2.5999999999999999E-3</v>
-      </c>
+      <c r="AJ13" s="3"/>
       <c r="AK13">
         <v>3</v>
       </c>
@@ -2193,10 +2189,10 @@
         <v>43.5</v>
       </c>
       <c r="F14" s="3">
-        <v>0.98929999999999996</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="G14" s="3">
-        <v>0.95440000000000003</v>
+        <v>0.95169999999999999</v>
       </c>
       <c r="H14">
         <v>3</v>
@@ -2217,7 +2213,7 @@
         <v>3</v>
       </c>
       <c r="N14" s="3">
-        <v>0.97050000000000003</v>
+        <v>0.97589999999999999</v>
       </c>
       <c r="O14">
         <v>3</v>
@@ -2312,34 +2308,34 @@
         <v>0.95730000000000004</v>
       </c>
       <c r="G15" s="3">
-        <v>0.77070000000000005</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="H15">
         <v>3</v>
       </c>
       <c r="I15" s="3">
-        <v>0.96530000000000005</v>
+        <v>0.98929999999999996</v>
       </c>
       <c r="J15" s="3">
-        <v>0.96530000000000005</v>
+        <v>0.98929999999999996</v>
       </c>
       <c r="K15">
         <v>3</v>
       </c>
       <c r="L15" s="3">
-        <v>0.81599999999999995</v>
+        <v>0.7893</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15" s="3">
-        <v>0.70669999999999999</v>
+        <v>0.73070000000000002</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" s="3">
-        <v>0.88270000000000004</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -2351,7 +2347,7 @@
         <v>3</v>
       </c>
       <c r="T15" s="3">
-        <v>0.94399999999999995</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="U15">
         <v>3</v>
@@ -2375,7 +2371,7 @@
         <v>3</v>
       </c>
       <c r="AB15" s="3">
-        <v>0.28270000000000001</v>
+        <v>0.21870000000000001</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -2491,7 +2487,7 @@
         <v>3</v>
       </c>
       <c r="AB16" s="3">
-        <v>3.6700000000000003E-2</v>
+        <v>2.75E-2</v>
       </c>
       <c r="AC16">
         <v>3</v>
@@ -2538,22 +2534,22 @@
         <v>6</v>
       </c>
       <c r="E17">
-        <v>33</v>
+        <v>37.5</v>
       </c>
       <c r="F17" s="3">
-        <v>0.97460000000000002</v>
+        <v>0.99150000000000005</v>
       </c>
       <c r="G17" s="3">
-        <v>0.92369999999999997</v>
+        <v>0.94920000000000004</v>
       </c>
       <c r="H17">
         <v>3</v>
       </c>
       <c r="I17" s="3">
-        <v>0.98309999999999997</v>
+        <v>1</v>
       </c>
       <c r="J17" s="3">
-        <v>0.98309999999999997</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -2583,10 +2579,10 @@
         <v>3</v>
       </c>
       <c r="T17" s="3">
-        <v>0.93220000000000003</v>
+        <v>0.94069999999999998</v>
       </c>
       <c r="U17">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="V17" s="3">
         <v>0.89659999999999995</v>
@@ -2607,10 +2603,10 @@
         <v>3</v>
       </c>
       <c r="AB17" s="3">
-        <v>5.0799999999999998E-2</v>
+        <v>3.39E-2</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE17">
         <v>0</v>
@@ -2770,7 +2766,7 @@
         <v>0.9859</v>
       </c>
       <c r="G19" s="3">
-        <v>0.9718</v>
+        <v>0.9577</v>
       </c>
       <c r="H19">
         <v>3</v>
@@ -2871,49 +2867,49 @@
         <v>30</v>
       </c>
       <c r="F20" s="3">
-        <v>0.9667</v>
+        <v>0.96550000000000002</v>
       </c>
       <c r="G20" s="3">
-        <v>0.84440000000000004</v>
+        <v>0.85629999999999995</v>
       </c>
       <c r="H20">
         <v>3</v>
       </c>
       <c r="I20" s="3">
-        <v>0.97219999999999995</v>
+        <v>1</v>
       </c>
       <c r="J20" s="3">
-        <v>0.97219999999999995</v>
+        <v>1</v>
       </c>
       <c r="K20">
         <v>3</v>
       </c>
       <c r="L20" s="3">
-        <v>0.82779999999999998</v>
+        <v>0.8448</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>0.66110000000000002</v>
+        <v>0.6724</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>0.91669999999999996</v>
+        <v>0.91949999999999998</v>
       </c>
       <c r="Q20">
         <v>1.5</v>
       </c>
       <c r="R20" s="3">
-        <v>0.9778</v>
+        <v>0.99429999999999996</v>
       </c>
       <c r="S20">
         <v>3</v>
       </c>
       <c r="T20" s="3">
-        <v>0.81669999999999998</v>
+        <v>0.85629999999999995</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -2937,7 +2933,7 @@
         <v>3</v>
       </c>
       <c r="AB20" s="3">
-        <v>0.27779999999999999</v>
+        <v>0.2069</v>
       </c>
       <c r="AC20">
         <v>0</v>
@@ -2955,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="AJ20" s="3">
-        <v>5.5999999999999999E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="AK20">
         <v>3</v>
@@ -2990,49 +2986,49 @@
         <v>39</v>
       </c>
       <c r="F21" s="3">
-        <v>0.93769999999999998</v>
+        <v>0.9375</v>
       </c>
       <c r="G21" s="3">
-        <v>0.7399</v>
+        <v>0.74260000000000004</v>
       </c>
       <c r="H21">
         <v>3</v>
       </c>
       <c r="I21" s="3">
-        <v>0.98170000000000002</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="J21" s="3">
-        <v>0.98170000000000002</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="K21">
         <v>3</v>
       </c>
       <c r="L21" s="3">
-        <v>0.94869999999999999</v>
+        <v>0.96689999999999998</v>
       </c>
       <c r="M21">
         <v>3</v>
       </c>
       <c r="N21" s="3">
-        <v>0.90839999999999999</v>
+        <v>0.91180000000000005</v>
       </c>
       <c r="O21">
         <v>1.5</v>
       </c>
       <c r="P21" s="3">
-        <v>0.9597</v>
+        <v>0.97060000000000002</v>
       </c>
       <c r="Q21">
         <v>3</v>
       </c>
       <c r="R21" s="3">
-        <v>0.97440000000000004</v>
+        <v>0.97430000000000005</v>
       </c>
       <c r="S21">
         <v>3</v>
       </c>
       <c r="T21" s="3">
-        <v>0.97070000000000001</v>
+        <v>0.97430000000000005</v>
       </c>
       <c r="U21">
         <v>3</v>
@@ -3056,7 +3052,7 @@
         <v>3</v>
       </c>
       <c r="AB21" s="3">
-        <v>0.17949999999999999</v>
+        <v>0.12870000000000001</v>
       </c>
       <c r="AC21">
         <v>0</v>
@@ -3074,7 +3070,7 @@
         <v>1.5</v>
       </c>
       <c r="AJ21" s="3">
-        <v>2.5600000000000001E-2</v>
+        <v>1.84E-2</v>
       </c>
       <c r="AK21">
         <v>3</v>
@@ -3109,7 +3105,7 @@
         <v>21</v>
       </c>
       <c r="F22" s="3">
-        <v>0.85</v>
+        <v>0.84619999999999995</v>
       </c>
       <c r="G22" s="3">
         <v>0.61919999999999997</v>
@@ -3118,10 +3114,10 @@
         <v>1.5</v>
       </c>
       <c r="I22" s="3">
-        <v>0.96919999999999995</v>
+        <v>0.98850000000000005</v>
       </c>
       <c r="J22" s="3">
-        <v>0.96919999999999995</v>
+        <v>0.98850000000000005</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -3133,13 +3129,13 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
-        <v>0.74229999999999996</v>
+        <v>0.75</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22" s="3">
-        <v>0.82310000000000005</v>
+        <v>0.83460000000000001</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -3175,7 +3171,7 @@
         <v>1.5</v>
       </c>
       <c r="AB22" s="3">
-        <v>0.25380000000000003</v>
+        <v>0.2346</v>
       </c>
       <c r="AC22">
         <v>0</v>
@@ -3252,13 +3248,13 @@
         <v>3</v>
       </c>
       <c r="N23" s="3">
-        <v>0.97550000000000003</v>
+        <v>0.98770000000000002</v>
       </c>
       <c r="O23">
         <v>3</v>
       </c>
       <c r="P23" s="3">
-        <v>0.99390000000000001</v>
+        <v>0.98770000000000002</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -3344,31 +3340,31 @@
         <v>28.5</v>
       </c>
       <c r="F24" s="3">
-        <v>0.90939999999999999</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="G24" s="3">
-        <v>0.76659999999999995</v>
+        <v>0.75960000000000005</v>
       </c>
       <c r="H24">
         <v>1.5</v>
       </c>
       <c r="I24" s="3">
-        <v>0.99299999999999999</v>
+        <v>0.99650000000000005</v>
       </c>
       <c r="J24" s="3">
-        <v>0.99299999999999999</v>
+        <v>0.99650000000000005</v>
       </c>
       <c r="K24">
         <v>3</v>
       </c>
       <c r="L24" s="3">
-        <v>0.92330000000000001</v>
+        <v>0.92679999999999996</v>
       </c>
       <c r="M24">
         <v>1.5</v>
       </c>
       <c r="N24" s="3">
-        <v>0.83620000000000005</v>
+        <v>0.84670000000000001</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -3410,7 +3406,7 @@
         <v>3</v>
       </c>
       <c r="AB24" s="3">
-        <v>0.14979999999999999</v>
+        <v>0.1394</v>
       </c>
       <c r="AC24">
         <v>0</v>
@@ -3428,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="AJ24" s="3">
-        <v>0.1394</v>
+        <v>0.115</v>
       </c>
       <c r="AK24">
         <v>0</v>
@@ -3460,31 +3456,31 @@
         <v>18</v>
       </c>
       <c r="E25">
-        <v>33</v>
+        <v>34.5</v>
       </c>
       <c r="F25" s="3">
         <v>0.97709999999999997</v>
       </c>
       <c r="G25" s="3">
-        <v>0.92369999999999997</v>
+        <v>0.93130000000000002</v>
       </c>
       <c r="H25">
         <v>3</v>
       </c>
       <c r="I25" s="3">
-        <v>0.98470000000000002</v>
+        <v>1</v>
       </c>
       <c r="J25" s="3">
-        <v>0.98470000000000002</v>
+        <v>1</v>
       </c>
       <c r="K25">
         <v>3</v>
       </c>
       <c r="L25" s="3">
-        <v>0.90839999999999999</v>
+        <v>0.9466</v>
       </c>
       <c r="M25">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="N25" s="3">
         <v>0.87790000000000001</v>
@@ -3505,7 +3501,7 @@
         <v>3</v>
       </c>
       <c r="T25" s="3">
-        <v>0.8397</v>
+        <v>0.84730000000000005</v>
       </c>
       <c r="U25">
         <v>0</v>
@@ -3529,7 +3525,7 @@
         <v>3</v>
       </c>
       <c r="AB25" s="3">
-        <v>0.1221</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="AC25">
         <v>0</v>
@@ -3579,7 +3575,7 @@
         <v>19</v>
       </c>
       <c r="E26">
-        <v>36</v>
+        <v>37.5</v>
       </c>
       <c r="F26" s="3">
         <v>0.96430000000000005</v>
@@ -3591,16 +3587,16 @@
         <v>3</v>
       </c>
       <c r="I26" s="3">
-        <v>0.99109999999999998</v>
+        <v>1</v>
       </c>
       <c r="J26" s="3">
-        <v>0.99109999999999998</v>
+        <v>1</v>
       </c>
       <c r="K26">
         <v>3</v>
       </c>
       <c r="L26" s="3">
-        <v>0.97319999999999995</v>
+        <v>0.98209999999999997</v>
       </c>
       <c r="M26">
         <v>3</v>
@@ -3645,10 +3641,10 @@
         <v>0</v>
       </c>
       <c r="AB26" s="3">
-        <v>5.3600000000000002E-2</v>
+        <v>4.4600000000000001E-2</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE26">
         <v>0</v>
@@ -3695,7 +3691,7 @@
         <v>20</v>
       </c>
       <c r="E27">
-        <v>37.5</v>
+        <v>34.5</v>
       </c>
       <c r="F27" s="3">
         <v>0.96220000000000006</v>
@@ -3716,10 +3712,10 @@
         <v>3</v>
       </c>
       <c r="L27" s="3">
-        <v>0.91349999999999998</v>
+        <v>0.89190000000000003</v>
       </c>
       <c r="M27">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
         <v>0.90269999999999995</v>
@@ -3728,19 +3724,19 @@
         <v>1.5</v>
       </c>
       <c r="P27" s="3">
-        <v>0.92969999999999997</v>
+        <v>0.92430000000000001</v>
       </c>
       <c r="Q27">
         <v>1.5</v>
       </c>
       <c r="R27" s="3">
-        <v>0.97840000000000005</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="S27">
         <v>3</v>
       </c>
       <c r="T27" s="3">
-        <v>0.96220000000000006</v>
+        <v>0.95679999999999998</v>
       </c>
       <c r="U27">
         <v>3</v>
@@ -3764,7 +3760,7 @@
         <v>3</v>
       </c>
       <c r="AB27" s="3">
-        <v>0.15140000000000001</v>
+        <v>0.14050000000000001</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -3782,10 +3778,10 @@
         <v>0</v>
       </c>
       <c r="AJ27" s="3">
-        <v>3.78E-2</v>
+        <v>4.3200000000000002E-2</v>
       </c>
       <c r="AK27">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AL27" s="3">
         <v>0.94</v>
@@ -3817,25 +3813,25 @@
         <v>37.5</v>
       </c>
       <c r="F28" s="3">
-        <v>0.97299999999999998</v>
+        <v>0.96850000000000003</v>
       </c>
       <c r="G28" s="3">
-        <v>0.9234</v>
+        <v>0.91890000000000005</v>
       </c>
       <c r="H28">
         <v>3</v>
       </c>
       <c r="I28" s="3">
-        <v>0.94140000000000001</v>
+        <v>0.96850000000000003</v>
       </c>
       <c r="J28" s="3">
-        <v>0.94140000000000001</v>
+        <v>0.96850000000000003</v>
       </c>
       <c r="K28">
         <v>3</v>
       </c>
       <c r="L28" s="3">
-        <v>0.81979999999999997</v>
+        <v>0.82430000000000003</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -3847,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="3">
-        <v>0.94140000000000001</v>
+        <v>0.94589999999999996</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -3859,7 +3855,7 @@
         <v>3</v>
       </c>
       <c r="T28" s="3">
-        <v>0.90090000000000003</v>
+        <v>0.91439999999999999</v>
       </c>
       <c r="U28">
         <v>1.5</v>
@@ -3883,7 +3879,7 @@
         <v>3</v>
       </c>
       <c r="AB28" s="3">
-        <v>0.22969999999999999</v>
+        <v>0.1036</v>
       </c>
       <c r="AC28">
         <v>0</v>
@@ -3936,49 +3932,49 @@
         <v>40.5</v>
       </c>
       <c r="F29" s="3">
-        <v>0.93030000000000002</v>
+        <v>0.93579999999999997</v>
       </c>
       <c r="G29" s="3">
-        <v>0.65029999999999999</v>
+        <v>0.66259999999999997</v>
       </c>
       <c r="H29">
         <v>3</v>
       </c>
       <c r="I29" s="3">
-        <v>0.97950000000000004</v>
+        <v>0.99319999999999997</v>
       </c>
       <c r="J29" s="3">
-        <v>0.97950000000000004</v>
+        <v>0.99319999999999997</v>
       </c>
       <c r="K29">
         <v>3</v>
       </c>
       <c r="L29" s="3">
-        <v>0.92759999999999998</v>
+        <v>0.93440000000000001</v>
       </c>
       <c r="M29">
         <v>1.5</v>
       </c>
       <c r="N29" s="3">
-        <v>0.90710000000000002</v>
+        <v>0.9153</v>
       </c>
       <c r="O29">
         <v>1.5</v>
       </c>
       <c r="P29" s="3">
-        <v>0.98499999999999999</v>
+        <v>0.98770000000000002</v>
       </c>
       <c r="Q29">
         <v>3</v>
       </c>
       <c r="R29" s="3">
-        <v>0.99729999999999996</v>
+        <v>0.99860000000000004</v>
       </c>
       <c r="S29">
         <v>3</v>
       </c>
       <c r="T29" s="3">
-        <v>0.91669999999999996</v>
+        <v>0.93579999999999997</v>
       </c>
       <c r="U29">
         <v>1.5</v>
@@ -4002,7 +3998,7 @@
         <v>3</v>
       </c>
       <c r="AB29" s="3">
-        <v>0.15160000000000001</v>
+        <v>0.12839999999999999</v>
       </c>
       <c r="AC29">
         <v>0</v>
@@ -4043,7 +4039,7 @@
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="G32" s="2">
         <f>AVERAGE(E2:E29)</f>
-        <v>37.392857142857146</v>
+        <v>37.767857142857146</v>
       </c>
     </row>
   </sheetData>

--- a/atuais.xlsx
+++ b/atuais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael Abrantes\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A1D7389-4249-4E3B-91EE-9187E39F6C8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CD91C76-40E0-40A2-BEE3-80D96D72D2E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -595,7 +595,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -783,7 +785,7 @@
         <v>68</v>
       </c>
       <c r="E2">
-        <v>36</v>
+        <v>34.5</v>
       </c>
       <c r="F2" s="3">
         <v>0.95730000000000004</v>
@@ -795,10 +797,10 @@
         <v>3</v>
       </c>
       <c r="I2" s="3">
-        <v>0.94020000000000004</v>
+        <v>0.94440000000000002</v>
       </c>
       <c r="J2" s="3">
-        <v>0.94020000000000004</v>
+        <v>0.94440000000000002</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -810,16 +812,16 @@
         <v>0</v>
       </c>
       <c r="N2" s="3">
-        <v>0.79059999999999997</v>
+        <v>0.82050000000000001</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" s="3">
-        <v>0.94020000000000004</v>
+        <v>0.9274</v>
       </c>
       <c r="Q2">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="R2" s="3">
         <v>0.96579999999999999</v>
@@ -828,7 +830,7 @@
         <v>3</v>
       </c>
       <c r="T2" s="3">
-        <v>0.85899999999999999</v>
+        <v>0.88890000000000002</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -852,7 +854,7 @@
         <v>3</v>
       </c>
       <c r="AB2" s="3">
-        <v>0.15379999999999999</v>
+        <v>0.14530000000000001</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -1030,40 +1032,40 @@
         <v>3</v>
       </c>
       <c r="I4" s="3">
-        <v>0.94979999999999998</v>
+        <v>0.95409999999999995</v>
       </c>
       <c r="J4" s="3">
-        <v>0.94979999999999998</v>
+        <v>0.95409999999999995</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4" s="3">
-        <v>0.94979999999999998</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="M4">
         <v>3</v>
       </c>
       <c r="N4" s="3">
-        <v>0.90869999999999995</v>
+        <v>0.9083</v>
       </c>
       <c r="O4">
         <v>1.5</v>
       </c>
       <c r="P4" s="3">
-        <v>0.95430000000000004</v>
+        <v>0.9587</v>
       </c>
       <c r="Q4">
         <v>3</v>
       </c>
       <c r="R4" s="3">
-        <v>0.95889999999999997</v>
+        <v>0.9587</v>
       </c>
       <c r="S4">
         <v>3</v>
       </c>
       <c r="T4" s="3">
-        <v>0.92689999999999995</v>
+        <v>0.93579999999999997</v>
       </c>
       <c r="U4">
         <v>1.5</v>
@@ -1087,7 +1089,7 @@
         <v>3</v>
       </c>
       <c r="AB4" s="3">
-        <v>8.2199999999999995E-2</v>
+        <v>7.3400000000000007E-2</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -1161,7 +1163,7 @@
         <v>3</v>
       </c>
       <c r="N5" s="3">
-        <v>0.97529999999999994</v>
+        <v>0.98150000000000004</v>
       </c>
       <c r="O5">
         <v>3</v>
@@ -1319,7 +1321,7 @@
         <v>3</v>
       </c>
       <c r="AB6" s="3">
-        <v>0.1205</v>
+        <v>0.1084</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1369,7 +1371,7 @@
         <v>34.5</v>
       </c>
       <c r="F7" s="3">
-        <v>0.95450000000000002</v>
+        <v>0.95830000000000004</v>
       </c>
       <c r="G7" s="3">
         <v>0.90149999999999997</v>
@@ -1435,7 +1437,7 @@
         <v>3</v>
       </c>
       <c r="AB7" s="3">
-        <v>0.125</v>
+        <v>0.11360000000000001</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -1727,16 +1729,16 @@
         <v>0.99780000000000002</v>
       </c>
       <c r="G10" s="3">
-        <v>0.92359999999999998</v>
+        <v>0.92579999999999996</v>
       </c>
       <c r="H10">
         <v>3</v>
       </c>
       <c r="I10" s="3">
-        <v>0.97819999999999996</v>
+        <v>0.98029999999999995</v>
       </c>
       <c r="J10" s="3">
-        <v>0.97819999999999996</v>
+        <v>0.98029999999999995</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1754,19 +1756,19 @@
         <v>3</v>
       </c>
       <c r="P10" s="3">
-        <v>0.98909999999999998</v>
+        <v>0.99129999999999996</v>
       </c>
       <c r="Q10">
         <v>3</v>
       </c>
       <c r="R10" s="3">
-        <v>0.97599999999999998</v>
+        <v>0.98029999999999995</v>
       </c>
       <c r="S10">
         <v>3</v>
       </c>
       <c r="T10" s="3">
-        <v>0.94099999999999995</v>
+        <v>0.95409999999999995</v>
       </c>
       <c r="U10">
         <v>3</v>
@@ -1790,7 +1792,7 @@
         <v>3</v>
       </c>
       <c r="AB10" s="3">
-        <v>6.3299999999999995E-2</v>
+        <v>5.6800000000000003E-2</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -2302,13 +2304,13 @@
         <v>14</v>
       </c>
       <c r="E15">
-        <v>33</v>
+        <v>34.5</v>
       </c>
       <c r="F15" s="3">
         <v>0.95730000000000004</v>
       </c>
       <c r="G15" s="3">
-        <v>0.77600000000000002</v>
+        <v>0.78129999999999999</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -2323,7 +2325,7 @@
         <v>3</v>
       </c>
       <c r="L15" s="3">
-        <v>0.7893</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -2335,19 +2337,19 @@
         <v>0</v>
       </c>
       <c r="P15" s="3">
-        <v>0.88800000000000001</v>
+        <v>0.90129999999999999</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R15" s="3">
-        <v>0.96530000000000005</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="S15">
         <v>3</v>
       </c>
       <c r="T15" s="3">
-        <v>0.95199999999999996</v>
+        <v>0.9627</v>
       </c>
       <c r="U15">
         <v>3</v>
@@ -2371,7 +2373,7 @@
         <v>3</v>
       </c>
       <c r="AB15" s="3">
-        <v>0.21870000000000001</v>
+        <v>0.21329999999999999</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -2386,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="3">
-        <v>8.0000000000000002E-3</v>
+        <v>5.3E-3</v>
       </c>
       <c r="AK15">
         <v>3</v>
@@ -2439,7 +2441,7 @@
         <v>3</v>
       </c>
       <c r="L16" s="3">
-        <v>0.98170000000000002</v>
+        <v>1</v>
       </c>
       <c r="M16">
         <v>3</v>
@@ -2579,7 +2581,7 @@
         <v>3</v>
       </c>
       <c r="T17" s="3">
-        <v>0.94069999999999998</v>
+        <v>0.94920000000000004</v>
       </c>
       <c r="U17">
         <v>3</v>
@@ -2647,7 +2649,7 @@
         <v>65</v>
       </c>
       <c r="E18">
-        <v>40.5</v>
+        <v>42</v>
       </c>
       <c r="F18" s="3">
         <v>0.98160000000000003</v>
@@ -2716,10 +2718,10 @@
         <v>3</v>
       </c>
       <c r="AB18" s="3">
-        <v>5.5199999999999999E-2</v>
+        <v>4.9099999999999998E-2</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE18">
         <v>0</v>
@@ -2891,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>0.6724</v>
+        <v>0.71840000000000004</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -2933,7 +2935,7 @@
         <v>3</v>
       </c>
       <c r="AB20" s="3">
-        <v>0.2069</v>
+        <v>0.19539999999999999</v>
       </c>
       <c r="AC20">
         <v>0</v>
@@ -2950,9 +2952,7 @@
       <c r="AI20">
         <v>0</v>
       </c>
-      <c r="AJ20" s="3">
-        <v>5.7000000000000002E-3</v>
-      </c>
+      <c r="AJ20" s="3"/>
       <c r="AK20">
         <v>3</v>
       </c>
@@ -2986,37 +2986,37 @@
         <v>39</v>
       </c>
       <c r="F21" s="3">
-        <v>0.9375</v>
+        <v>0.94489999999999996</v>
       </c>
       <c r="G21" s="3">
-        <v>0.74260000000000004</v>
+        <v>0.75739999999999996</v>
       </c>
       <c r="H21">
         <v>3</v>
       </c>
       <c r="I21" s="3">
-        <v>0.98899999999999999</v>
+        <v>0.99260000000000004</v>
       </c>
       <c r="J21" s="3">
-        <v>0.98899999999999999</v>
+        <v>0.99260000000000004</v>
       </c>
       <c r="K21">
         <v>3</v>
       </c>
       <c r="L21" s="3">
-        <v>0.96689999999999998</v>
+        <v>0.97430000000000005</v>
       </c>
       <c r="M21">
         <v>3</v>
       </c>
       <c r="N21" s="3">
-        <v>0.91180000000000005</v>
+        <v>0.93010000000000004</v>
       </c>
       <c r="O21">
         <v>1.5</v>
       </c>
       <c r="P21" s="3">
-        <v>0.97060000000000002</v>
+        <v>0.98160000000000003</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -3028,7 +3028,7 @@
         <v>3</v>
       </c>
       <c r="T21" s="3">
-        <v>0.97430000000000005</v>
+        <v>0.97789999999999999</v>
       </c>
       <c r="U21">
         <v>3</v>
@@ -3052,7 +3052,7 @@
         <v>3</v>
       </c>
       <c r="AB21" s="3">
-        <v>0.12870000000000001</v>
+        <v>0.12130000000000001</v>
       </c>
       <c r="AC21">
         <v>0</v>
@@ -3070,7 +3070,7 @@
         <v>1.5</v>
       </c>
       <c r="AJ21" s="3">
-        <v>1.84E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AK21">
         <v>3</v>
@@ -3102,52 +3102,52 @@
         <v>17</v>
       </c>
       <c r="E22">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F22" s="3">
-        <v>0.84619999999999995</v>
+        <v>0.85270000000000001</v>
       </c>
       <c r="G22" s="3">
-        <v>0.61919999999999997</v>
+        <v>0.624</v>
       </c>
       <c r="H22">
         <v>1.5</v>
       </c>
       <c r="I22" s="3">
-        <v>0.98850000000000005</v>
+        <v>0.98450000000000004</v>
       </c>
       <c r="J22" s="3">
-        <v>0.98850000000000005</v>
+        <v>0.98450000000000004</v>
       </c>
       <c r="K22">
         <v>3</v>
       </c>
       <c r="L22" s="3">
-        <v>0.88080000000000003</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N22" s="3">
-        <v>0.75</v>
+        <v>0.74029999999999996</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22" s="3">
-        <v>0.83460000000000001</v>
+        <v>0.84109999999999996</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
       <c r="R22" s="3">
-        <v>0.9385</v>
+        <v>0.94189999999999996</v>
       </c>
       <c r="S22">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="T22" s="3">
-        <v>0.9</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="U22">
         <v>1.5</v>
@@ -3171,7 +3171,7 @@
         <v>1.5</v>
       </c>
       <c r="AB22" s="3">
-        <v>0.2346</v>
+        <v>0.2326</v>
       </c>
       <c r="AC22">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="AJ22" s="3">
-        <v>1.15E-2</v>
+        <v>1.55E-2</v>
       </c>
       <c r="AK22">
         <v>3</v>
@@ -3370,13 +3370,13 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
-        <v>0.91290000000000004</v>
+        <v>0.92679999999999996</v>
       </c>
       <c r="Q24">
         <v>1.5</v>
       </c>
       <c r="R24" s="3">
-        <v>1</v>
+        <v>0.94430000000000003</v>
       </c>
       <c r="S24">
         <v>3</v>
@@ -3406,7 +3406,7 @@
         <v>3</v>
       </c>
       <c r="AB24" s="3">
-        <v>0.1394</v>
+        <v>0.17069999999999999</v>
       </c>
       <c r="AC24">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="AJ24" s="3">
-        <v>0.115</v>
+        <v>0.1115</v>
       </c>
       <c r="AK24">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>3</v>
       </c>
       <c r="L25" s="3">
-        <v>0.9466</v>
+        <v>0.95420000000000005</v>
       </c>
       <c r="M25">
         <v>3</v>
@@ -3542,9 +3542,7 @@
       <c r="AI25">
         <v>3</v>
       </c>
-      <c r="AJ25" s="3">
-        <v>7.6E-3</v>
-      </c>
+      <c r="AJ25" s="3"/>
       <c r="AK25">
         <v>3</v>
       </c>
@@ -3614,13 +3612,13 @@
         <v>3</v>
       </c>
       <c r="R26" s="3">
-        <v>1</v>
+        <v>0.99109999999999998</v>
       </c>
       <c r="S26">
         <v>3</v>
       </c>
       <c r="T26" s="3">
-        <v>0.91959999999999997</v>
+        <v>0.92859999999999998</v>
       </c>
       <c r="U26">
         <v>1.5</v>
@@ -3703,10 +3701,10 @@
         <v>3</v>
       </c>
       <c r="I27" s="3">
-        <v>0.98380000000000001</v>
+        <v>0.97840000000000005</v>
       </c>
       <c r="J27" s="3">
-        <v>0.98380000000000001</v>
+        <v>0.97840000000000005</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -3718,25 +3716,25 @@
         <v>0</v>
       </c>
       <c r="N27" s="3">
-        <v>0.90269999999999995</v>
+        <v>0.91349999999999998</v>
       </c>
       <c r="O27">
         <v>1.5</v>
       </c>
       <c r="P27" s="3">
-        <v>0.92430000000000001</v>
+        <v>0.90810000000000002</v>
       </c>
       <c r="Q27">
         <v>1.5</v>
       </c>
       <c r="R27" s="3">
-        <v>0.97299999999999998</v>
+        <v>0.95679999999999998</v>
       </c>
       <c r="S27">
         <v>3</v>
       </c>
       <c r="T27" s="3">
-        <v>0.95679999999999998</v>
+        <v>0.94589999999999996</v>
       </c>
       <c r="U27">
         <v>3</v>
@@ -3760,7 +3758,7 @@
         <v>3</v>
       </c>
       <c r="AB27" s="3">
-        <v>0.14050000000000001</v>
+        <v>0.15140000000000001</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -3813,19 +3811,19 @@
         <v>37.5</v>
       </c>
       <c r="F28" s="3">
-        <v>0.96850000000000003</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="G28" s="3">
-        <v>0.91890000000000005</v>
+        <v>0.9234</v>
       </c>
       <c r="H28">
         <v>3</v>
       </c>
       <c r="I28" s="3">
-        <v>0.96850000000000003</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="J28" s="3">
-        <v>0.96850000000000003</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -3855,7 +3853,7 @@
         <v>3</v>
       </c>
       <c r="T28" s="3">
-        <v>0.91439999999999999</v>
+        <v>0.93240000000000001</v>
       </c>
       <c r="U28">
         <v>1.5</v>
@@ -3879,7 +3877,7 @@
         <v>3</v>
       </c>
       <c r="AB28" s="3">
-        <v>0.1036</v>
+        <v>9.9099999999999994E-2</v>
       </c>
       <c r="AC28">
         <v>0</v>
@@ -3932,49 +3930,49 @@
         <v>40.5</v>
       </c>
       <c r="F29" s="3">
-        <v>0.93579999999999997</v>
+        <v>0.93720000000000003</v>
       </c>
       <c r="G29" s="3">
-        <v>0.66259999999999997</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="H29">
         <v>3</v>
       </c>
       <c r="I29" s="3">
-        <v>0.99319999999999997</v>
+        <v>0.99450000000000005</v>
       </c>
       <c r="J29" s="3">
-        <v>0.99319999999999997</v>
+        <v>0.99450000000000005</v>
       </c>
       <c r="K29">
         <v>3</v>
       </c>
       <c r="L29" s="3">
-        <v>0.93440000000000001</v>
+        <v>0.9385</v>
       </c>
       <c r="M29">
         <v>1.5</v>
       </c>
       <c r="N29" s="3">
-        <v>0.9153</v>
+        <v>0.92620000000000002</v>
       </c>
       <c r="O29">
         <v>1.5</v>
       </c>
       <c r="P29" s="3">
-        <v>0.98770000000000002</v>
+        <v>0.98629999999999995</v>
       </c>
       <c r="Q29">
         <v>3</v>
       </c>
       <c r="R29" s="3">
-        <v>0.99860000000000004</v>
+        <v>1</v>
       </c>
       <c r="S29">
         <v>3</v>
       </c>
       <c r="T29" s="3">
-        <v>0.93579999999999997</v>
+        <v>0.9385</v>
       </c>
       <c r="U29">
         <v>1.5</v>
@@ -3998,7 +3996,7 @@
         <v>3</v>
       </c>
       <c r="AB29" s="3">
-        <v>0.12839999999999999</v>
+        <v>0.1134</v>
       </c>
       <c r="AC29">
         <v>0</v>
@@ -4039,7 +4037,7 @@
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="G32" s="2">
         <f>AVERAGE(E2:E29)</f>
-        <v>37.767857142857146</v>
+        <v>37.928571428571431</v>
       </c>
     </row>
   </sheetData>

--- a/atuais.xlsx
+++ b/atuais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael Abrantes\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CD91C76-40E0-40A2-BEE3-80D96D72D2E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D20FAE2-ADE3-4C05-88DD-0A9A1F7FCDF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -595,9 +595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -854,7 +852,7 @@
         <v>3</v>
       </c>
       <c r="AB2" s="3">
-        <v>0.14530000000000001</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -1175,7 +1173,7 @@
         <v>3</v>
       </c>
       <c r="R5" s="3">
-        <v>0.99380000000000002</v>
+        <v>1</v>
       </c>
       <c r="S5">
         <v>3</v>
@@ -1279,7 +1277,7 @@
         <v>1.5</v>
       </c>
       <c r="N6" s="3">
-        <v>0.87350000000000005</v>
+        <v>0.87949999999999995</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1291,13 +1289,13 @@
         <v>3</v>
       </c>
       <c r="R6" s="3">
-        <v>0.97589999999999999</v>
+        <v>0.9819</v>
       </c>
       <c r="S6">
         <v>3</v>
       </c>
       <c r="T6" s="3">
-        <v>0.95779999999999998</v>
+        <v>0.94579999999999997</v>
       </c>
       <c r="U6">
         <v>3</v>
@@ -1321,7 +1319,7 @@
         <v>3</v>
       </c>
       <c r="AB6" s="3">
-        <v>0.1084</v>
+        <v>8.43E-2</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1458,7 +1456,7 @@
         <v>1.5</v>
       </c>
       <c r="AJ7" s="3">
-        <v>1.89E-2</v>
+        <v>1.52E-2</v>
       </c>
       <c r="AK7">
         <v>3</v>
@@ -1558,7 +1556,6 @@
       <c r="AA8">
         <v>3</v>
       </c>
-      <c r="AB8" s="3"/>
       <c r="AC8">
         <v>3</v>
       </c>
@@ -1735,22 +1732,22 @@
         <v>3</v>
       </c>
       <c r="I10" s="3">
-        <v>0.98029999999999995</v>
+        <v>0.97819999999999996</v>
       </c>
       <c r="J10" s="3">
-        <v>0.98029999999999995</v>
+        <v>0.97819999999999996</v>
       </c>
       <c r="K10">
         <v>3</v>
       </c>
       <c r="L10" s="3">
-        <v>0.92579999999999996</v>
+        <v>0.93889999999999996</v>
       </c>
       <c r="M10">
         <v>1.5</v>
       </c>
       <c r="N10" s="3">
-        <v>0.94099999999999995</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="O10">
         <v>3</v>
@@ -1768,7 +1765,7 @@
         <v>3</v>
       </c>
       <c r="T10" s="3">
-        <v>0.95409999999999995</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="U10">
         <v>3</v>
@@ -1792,7 +1789,7 @@
         <v>3</v>
       </c>
       <c r="AB10" s="3">
-        <v>5.6800000000000003E-2</v>
+        <v>5.4600000000000003E-2</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -1848,7 +1845,7 @@
         <v>0.99399999999999999</v>
       </c>
       <c r="G11" s="3">
-        <v>0.89290000000000003</v>
+        <v>0.89880000000000004</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1964,7 +1961,7 @@
         <v>45</v>
       </c>
       <c r="F12" s="3">
-        <v>0.98799999999999999</v>
+        <v>1</v>
       </c>
       <c r="G12" s="3">
         <v>0.92769999999999997</v>
@@ -2080,7 +2077,7 @@
         <v>0.97409999999999997</v>
       </c>
       <c r="G13" s="3">
-        <v>0.8679</v>
+        <v>0.87050000000000005</v>
       </c>
       <c r="H13">
         <v>3</v>
@@ -2157,7 +2154,6 @@
       <c r="AI13">
         <v>0</v>
       </c>
-      <c r="AJ13" s="3"/>
       <c r="AK13">
         <v>3</v>
       </c>
@@ -2188,7 +2184,7 @@
         <v>13</v>
       </c>
       <c r="E14">
-        <v>43.5</v>
+        <v>45</v>
       </c>
       <c r="F14" s="3">
         <v>0.99199999999999999</v>
@@ -2233,10 +2229,10 @@
         <v>3</v>
       </c>
       <c r="T14" s="3">
-        <v>0.91149999999999998</v>
+        <v>0.98660000000000003</v>
       </c>
       <c r="U14">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="V14" s="3">
         <v>0.9103</v>
@@ -2310,7 +2306,7 @@
         <v>0.95730000000000004</v>
       </c>
       <c r="G15" s="3">
-        <v>0.78129999999999999</v>
+        <v>0.77869999999999995</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -2325,7 +2321,7 @@
         <v>3</v>
       </c>
       <c r="L15" s="3">
-        <v>0.79200000000000004</v>
+        <v>0.81869999999999998</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -2337,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="3">
-        <v>0.90129999999999999</v>
+        <v>0.91469999999999996</v>
       </c>
       <c r="Q15">
         <v>1.5</v>
@@ -2373,7 +2369,7 @@
         <v>3</v>
       </c>
       <c r="AB15" s="3">
-        <v>0.21329999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -2489,7 +2485,7 @@
         <v>3</v>
       </c>
       <c r="AB16" s="3">
-        <v>2.75E-2</v>
+        <v>3.6700000000000003E-2</v>
       </c>
       <c r="AC16">
         <v>3</v>
@@ -2504,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="3">
-        <v>1.83E-2</v>
+        <v>9.1999999999999998E-3</v>
       </c>
       <c r="AK16">
         <v>3</v>
@@ -2542,7 +2538,7 @@
         <v>0.99150000000000005</v>
       </c>
       <c r="G17" s="3">
-        <v>0.94920000000000004</v>
+        <v>0.95760000000000001</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2694,7 +2690,7 @@
         <v>3</v>
       </c>
       <c r="T18" s="3">
-        <v>0.98160000000000003</v>
+        <v>0.98770000000000002</v>
       </c>
       <c r="U18">
         <v>3</v>
@@ -2783,13 +2779,13 @@
         <v>3</v>
       </c>
       <c r="L19" s="3">
-        <v>0.9859</v>
+        <v>1</v>
       </c>
       <c r="M19">
         <v>3</v>
       </c>
       <c r="N19" s="3">
-        <v>0.9859</v>
+        <v>1</v>
       </c>
       <c r="O19">
         <v>3</v>
@@ -2835,6 +2831,9 @@
       </c>
       <c r="AI19">
         <v>0</v>
+      </c>
+      <c r="AJ19" s="3">
+        <v>1.41E-2</v>
       </c>
       <c r="AK19">
         <v>3</v>
@@ -2872,7 +2871,7 @@
         <v>0.96550000000000002</v>
       </c>
       <c r="G20" s="3">
-        <v>0.85629999999999995</v>
+        <v>0.86209999999999998</v>
       </c>
       <c r="H20">
         <v>3</v>
@@ -2899,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>0.91949999999999998</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="Q20">
         <v>1.5</v>
@@ -2911,7 +2910,7 @@
         <v>3</v>
       </c>
       <c r="T20" s="3">
-        <v>0.85629999999999995</v>
+        <v>0.87360000000000004</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -2935,7 +2934,7 @@
         <v>3</v>
       </c>
       <c r="AB20" s="3">
-        <v>0.19539999999999999</v>
+        <v>0.2011</v>
       </c>
       <c r="AC20">
         <v>0</v>
@@ -2952,7 +2951,6 @@
       <c r="AI20">
         <v>0</v>
       </c>
-      <c r="AJ20" s="3"/>
       <c r="AK20">
         <v>3</v>
       </c>
@@ -2983,22 +2981,22 @@
         <v>16</v>
       </c>
       <c r="E21">
-        <v>39</v>
+        <v>40.5</v>
       </c>
       <c r="F21" s="3">
-        <v>0.94489999999999996</v>
+        <v>0.95220000000000005</v>
       </c>
       <c r="G21" s="3">
-        <v>0.75739999999999996</v>
+        <v>0.76839999999999997</v>
       </c>
       <c r="H21">
         <v>3</v>
       </c>
       <c r="I21" s="3">
-        <v>0.99260000000000004</v>
+        <v>0.99629999999999996</v>
       </c>
       <c r="J21" s="3">
-        <v>0.99260000000000004</v>
+        <v>0.99629999999999996</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -3010,19 +3008,19 @@
         <v>3</v>
       </c>
       <c r="N21" s="3">
-        <v>0.93010000000000004</v>
+        <v>0.94489999999999996</v>
       </c>
       <c r="O21">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="P21" s="3">
+        <v>0.98529999999999995</v>
+      </c>
+      <c r="Q21">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3">
         <v>0.98160000000000003</v>
-      </c>
-      <c r="Q21">
-        <v>3</v>
-      </c>
-      <c r="R21" s="3">
-        <v>0.97430000000000005</v>
       </c>
       <c r="S21">
         <v>3</v>
@@ -3052,7 +3050,7 @@
         <v>3</v>
       </c>
       <c r="AB21" s="3">
-        <v>0.12130000000000001</v>
+        <v>0.1176</v>
       </c>
       <c r="AC21">
         <v>0</v>
@@ -3108,7 +3106,7 @@
         <v>0.85270000000000001</v>
       </c>
       <c r="G22" s="3">
-        <v>0.624</v>
+        <v>0.63949999999999996</v>
       </c>
       <c r="H22">
         <v>1.5</v>
@@ -3129,7 +3127,7 @@
         <v>1.5</v>
       </c>
       <c r="N22" s="3">
-        <v>0.74029999999999996</v>
+        <v>0.76739999999999997</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -3147,7 +3145,7 @@
         <v>3</v>
       </c>
       <c r="T22" s="3">
-        <v>0.90700000000000003</v>
+        <v>0.91090000000000004</v>
       </c>
       <c r="U22">
         <v>1.5</v>
@@ -3171,7 +3169,7 @@
         <v>1.5</v>
       </c>
       <c r="AB22" s="3">
-        <v>0.2326</v>
+        <v>0.2054</v>
       </c>
       <c r="AC22">
         <v>0</v>
@@ -3189,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="AJ22" s="3">
-        <v>1.55E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="AK22">
         <v>3</v>
@@ -3340,7 +3338,7 @@
         <v>28.5</v>
       </c>
       <c r="F24" s="3">
-        <v>0.89900000000000002</v>
+        <v>0.89549999999999996</v>
       </c>
       <c r="G24" s="3">
         <v>0.75960000000000005</v>
@@ -3364,13 +3362,13 @@
         <v>1.5</v>
       </c>
       <c r="N24" s="3">
-        <v>0.84670000000000001</v>
+        <v>0.86409999999999998</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24" s="3">
-        <v>0.92679999999999996</v>
+        <v>0.93030000000000002</v>
       </c>
       <c r="Q24">
         <v>1.5</v>
@@ -3459,10 +3457,10 @@
         <v>34.5</v>
       </c>
       <c r="F25" s="3">
-        <v>0.97709999999999997</v>
+        <v>0.98460000000000003</v>
       </c>
       <c r="G25" s="3">
-        <v>0.93130000000000002</v>
+        <v>0.9385</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -3477,19 +3475,19 @@
         <v>3</v>
       </c>
       <c r="L25" s="3">
-        <v>0.95420000000000005</v>
+        <v>0.96150000000000002</v>
       </c>
       <c r="M25">
         <v>3</v>
       </c>
       <c r="N25" s="3">
-        <v>0.87790000000000001</v>
+        <v>0.88460000000000005</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25" s="3">
-        <v>0.93130000000000002</v>
+        <v>0.9385</v>
       </c>
       <c r="Q25">
         <v>1.5</v>
@@ -3501,7 +3499,7 @@
         <v>3</v>
       </c>
       <c r="T25" s="3">
-        <v>0.84730000000000005</v>
+        <v>0.8538</v>
       </c>
       <c r="U25">
         <v>0</v>
@@ -3525,7 +3523,7 @@
         <v>3</v>
       </c>
       <c r="AB25" s="3">
-        <v>8.4000000000000005E-2</v>
+        <v>6.9199999999999998E-2</v>
       </c>
       <c r="AC25">
         <v>0</v>
@@ -3542,7 +3540,6 @@
       <c r="AI25">
         <v>3</v>
       </c>
-      <c r="AJ25" s="3"/>
       <c r="AK25">
         <v>3</v>
       </c>
@@ -3573,7 +3570,7 @@
         <v>19</v>
       </c>
       <c r="E26">
-        <v>37.5</v>
+        <v>39</v>
       </c>
       <c r="F26" s="3">
         <v>0.96430000000000005</v>
@@ -3639,10 +3636,10 @@
         <v>0</v>
       </c>
       <c r="AB26" s="3">
-        <v>4.4600000000000001E-2</v>
+        <v>3.5700000000000003E-2</v>
       </c>
       <c r="AC26">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AE26">
         <v>0</v>
@@ -3692,52 +3689,52 @@
         <v>34.5</v>
       </c>
       <c r="F27" s="3">
-        <v>0.96220000000000006</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="G27" s="3">
-        <v>0.89729999999999999</v>
+        <v>0.9022</v>
       </c>
       <c r="H27">
         <v>3</v>
       </c>
       <c r="I27" s="3">
-        <v>0.97840000000000005</v>
+        <v>0.96740000000000004</v>
       </c>
       <c r="J27" s="3">
-        <v>0.97840000000000005</v>
+        <v>0.96740000000000004</v>
       </c>
       <c r="K27">
         <v>3</v>
       </c>
       <c r="L27" s="3">
-        <v>0.89190000000000003</v>
+        <v>0.88590000000000002</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27" s="3">
-        <v>0.91349999999999998</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="O27">
         <v>1.5</v>
       </c>
       <c r="P27" s="3">
-        <v>0.90810000000000002</v>
+        <v>0.9022</v>
       </c>
       <c r="Q27">
         <v>1.5</v>
       </c>
       <c r="R27" s="3">
-        <v>0.95679999999999998</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="S27">
         <v>3</v>
       </c>
       <c r="T27" s="3">
-        <v>0.94589999999999996</v>
+        <v>0.92930000000000001</v>
       </c>
       <c r="U27">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="V27" s="3">
         <v>0.98</v>
@@ -3758,7 +3755,7 @@
         <v>3</v>
       </c>
       <c r="AB27" s="3">
-        <v>0.15140000000000001</v>
+        <v>0.14130000000000001</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -3776,10 +3773,10 @@
         <v>0</v>
       </c>
       <c r="AJ27" s="3">
-        <v>4.3200000000000002E-2</v>
+        <v>3.2599999999999997E-2</v>
       </c>
       <c r="AK27">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AL27" s="3">
         <v>0.94</v>
@@ -3930,19 +3927,19 @@
         <v>40.5</v>
       </c>
       <c r="F29" s="3">
-        <v>0.93720000000000003</v>
+        <v>0.93989999999999996</v>
       </c>
       <c r="G29" s="3">
-        <v>0.66669999999999996</v>
+        <v>0.67079999999999995</v>
       </c>
       <c r="H29">
         <v>3</v>
       </c>
       <c r="I29" s="3">
-        <v>0.99450000000000005</v>
+        <v>0.99590000000000001</v>
       </c>
       <c r="J29" s="3">
-        <v>0.99450000000000005</v>
+        <v>0.99590000000000001</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -3972,7 +3969,7 @@
         <v>3</v>
       </c>
       <c r="T29" s="3">
-        <v>0.9385</v>
+        <v>0.93989999999999996</v>
       </c>
       <c r="U29">
         <v>1.5</v>
@@ -3996,7 +3993,7 @@
         <v>3</v>
       </c>
       <c r="AB29" s="3">
-        <v>0.1134</v>
+        <v>9.9699999999999997E-2</v>
       </c>
       <c r="AC29">
         <v>0</v>
@@ -4037,7 +4034,7 @@
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="G32" s="2">
         <f>AVERAGE(E2:E29)</f>
-        <v>37.928571428571431</v>
+        <v>38.089285714285715</v>
       </c>
     </row>
   </sheetData>

--- a/atuais.xlsx
+++ b/atuais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael Abrantes\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D20FAE2-ADE3-4C05-88DD-0A9A1F7FCDF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC026B28-DFB8-4295-8373-12416F90809A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -595,7 +595,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -786,10 +788,10 @@
         <v>34.5</v>
       </c>
       <c r="F2" s="3">
-        <v>0.95730000000000004</v>
+        <v>0.96150000000000002</v>
       </c>
       <c r="G2" s="3">
-        <v>0.86750000000000005</v>
+        <v>0.87180000000000002</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -816,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="3">
-        <v>0.9274</v>
+        <v>0.93589999999999995</v>
       </c>
       <c r="Q2">
         <v>1.5</v>
@@ -828,7 +830,7 @@
         <v>3</v>
       </c>
       <c r="T2" s="3">
-        <v>0.88890000000000002</v>
+        <v>0.89319999999999999</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -905,7 +907,7 @@
         <v>0.98140000000000005</v>
       </c>
       <c r="G3" s="3">
-        <v>0.90680000000000005</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -968,7 +970,7 @@
         <v>3</v>
       </c>
       <c r="AB3" s="3">
-        <v>0.1056</v>
+        <v>9.3200000000000005E-2</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -1108,7 +1110,7 @@
         <v>3</v>
       </c>
       <c r="AL4" s="3">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AM4">
         <v>3</v>
@@ -1224,7 +1226,7 @@
         <v>3</v>
       </c>
       <c r="AL5" s="3">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AM5">
         <v>3</v>
@@ -1295,7 +1297,7 @@
         <v>3</v>
       </c>
       <c r="T6" s="3">
-        <v>0.94579999999999997</v>
+        <v>0.95779999999999998</v>
       </c>
       <c r="U6">
         <v>3</v>
@@ -1319,7 +1321,7 @@
         <v>3</v>
       </c>
       <c r="AB6" s="3">
-        <v>8.43E-2</v>
+        <v>7.8299999999999995E-2</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1578,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="AL8" s="3">
-        <v>1.21</v>
+        <v>1</v>
       </c>
       <c r="AM8">
         <v>3</v>
@@ -1694,7 +1696,7 @@
         <v>3</v>
       </c>
       <c r="AL9" s="3">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AM9">
         <v>3</v>
@@ -1720,13 +1722,13 @@
         <v>73</v>
       </c>
       <c r="E10">
-        <v>43.5</v>
+        <v>46.5</v>
       </c>
       <c r="F10" s="3">
         <v>0.99780000000000002</v>
       </c>
       <c r="G10" s="3">
-        <v>0.92579999999999996</v>
+        <v>0.93010000000000004</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -1741,13 +1743,13 @@
         <v>3</v>
       </c>
       <c r="L10" s="3">
-        <v>0.93889999999999996</v>
+        <v>0.94540000000000002</v>
       </c>
       <c r="M10">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="N10" s="3">
-        <v>0.95199999999999996</v>
+        <v>0.94979999999999998</v>
       </c>
       <c r="O10">
         <v>3</v>
@@ -1759,7 +1761,7 @@
         <v>3</v>
       </c>
       <c r="R10" s="3">
-        <v>0.98029999999999995</v>
+        <v>0.97819999999999996</v>
       </c>
       <c r="S10">
         <v>3</v>
@@ -1789,10 +1791,10 @@
         <v>3</v>
       </c>
       <c r="AB10" s="3">
-        <v>5.4600000000000003E-2</v>
+        <v>4.5900000000000003E-2</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AD10" s="3">
         <v>0.64629999999999999</v>
@@ -1813,7 +1815,7 @@
         <v>3</v>
       </c>
       <c r="AL10" s="3">
-        <v>1.1599999999999999</v>
+        <v>1</v>
       </c>
       <c r="AM10">
         <v>3</v>
@@ -1842,19 +1844,19 @@
         <v>39</v>
       </c>
       <c r="F11" s="3">
-        <v>0.99399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G11" s="3">
-        <v>0.89880000000000004</v>
+        <v>0.92259999999999998</v>
       </c>
       <c r="H11">
         <v>3</v>
       </c>
       <c r="I11" s="3">
-        <v>0.98209999999999997</v>
+        <v>0.98809999999999998</v>
       </c>
       <c r="J11" s="3">
-        <v>0.98209999999999997</v>
+        <v>0.98809999999999998</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1872,7 +1874,7 @@
         <v>3</v>
       </c>
       <c r="P11" s="3">
-        <v>0.91069999999999995</v>
+        <v>0.91669999999999996</v>
       </c>
       <c r="Q11">
         <v>1.5</v>
@@ -1932,7 +1934,7 @@
         <v>3</v>
       </c>
       <c r="AL11" s="3">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AM11">
         <v>3</v>
@@ -2045,7 +2047,7 @@
         <v>3</v>
       </c>
       <c r="AL12" s="3">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AM12">
         <v>3</v>
@@ -2077,7 +2079,7 @@
         <v>0.97409999999999997</v>
       </c>
       <c r="G13" s="3">
-        <v>0.87050000000000005</v>
+        <v>0.87560000000000004</v>
       </c>
       <c r="H13">
         <v>3</v>
@@ -2140,7 +2142,7 @@
         <v>1.5</v>
       </c>
       <c r="AB13" s="3">
-        <v>0.20730000000000001</v>
+        <v>0.19950000000000001</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -2187,10 +2189,10 @@
         <v>45</v>
       </c>
       <c r="F14" s="3">
-        <v>0.99199999999999999</v>
+        <v>0.99460000000000004</v>
       </c>
       <c r="G14" s="3">
-        <v>0.95169999999999999</v>
+        <v>0.95409999999999995</v>
       </c>
       <c r="H14">
         <v>3</v>
@@ -2205,13 +2207,13 @@
         <v>3</v>
       </c>
       <c r="L14" s="3">
-        <v>0.9839</v>
+        <v>0.98650000000000004</v>
       </c>
       <c r="M14">
         <v>3</v>
       </c>
       <c r="N14" s="3">
-        <v>0.97589999999999999</v>
+        <v>0.97570000000000001</v>
       </c>
       <c r="O14">
         <v>3</v>
@@ -2229,7 +2231,7 @@
         <v>3</v>
       </c>
       <c r="T14" s="3">
-        <v>0.98660000000000003</v>
+        <v>0.98919999999999997</v>
       </c>
       <c r="U14">
         <v>3</v>
@@ -2253,7 +2255,7 @@
         <v>3</v>
       </c>
       <c r="AB14" s="3">
-        <v>1.34E-2</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="AC14">
         <v>3</v>
@@ -2268,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="3">
-        <v>5.4000000000000003E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="AK14">
         <v>3</v>
@@ -2306,7 +2308,7 @@
         <v>0.95730000000000004</v>
       </c>
       <c r="G15" s="3">
-        <v>0.77869999999999995</v>
+        <v>0.78129999999999999</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -2321,13 +2323,13 @@
         <v>3</v>
       </c>
       <c r="L15" s="3">
-        <v>0.81869999999999998</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15" s="3">
-        <v>0.73070000000000002</v>
+        <v>0.74129999999999996</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -2339,7 +2341,7 @@
         <v>1.5</v>
       </c>
       <c r="R15" s="3">
-        <v>0.96799999999999997</v>
+        <v>0.97070000000000001</v>
       </c>
       <c r="S15">
         <v>3</v>
@@ -2369,7 +2371,7 @@
         <v>3</v>
       </c>
       <c r="AB15" s="3">
-        <v>0.2</v>
+        <v>0.18129999999999999</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -2390,7 +2392,7 @@
         <v>3</v>
       </c>
       <c r="AL15" s="3">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="AM15">
         <v>3</v>
@@ -2449,19 +2451,19 @@
         <v>3</v>
       </c>
       <c r="P16" s="3">
+        <v>0.97250000000000003</v>
+      </c>
+      <c r="Q16">
+        <v>3</v>
+      </c>
+      <c r="R16" s="3">
         <v>0.99080000000000001</v>
       </c>
-      <c r="Q16">
-        <v>3</v>
-      </c>
-      <c r="R16" s="3">
-        <v>1</v>
-      </c>
       <c r="S16">
         <v>3</v>
       </c>
       <c r="T16" s="3">
-        <v>0.96330000000000005</v>
+        <v>0.95409999999999995</v>
       </c>
       <c r="U16">
         <v>3</v>
@@ -2500,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="3">
-        <v>9.1999999999999998E-3</v>
+        <v>2.75E-2</v>
       </c>
       <c r="AK16">
         <v>3</v>
@@ -2577,7 +2579,7 @@
         <v>3</v>
       </c>
       <c r="T17" s="3">
-        <v>0.94920000000000004</v>
+        <v>0.95760000000000001</v>
       </c>
       <c r="U17">
         <v>3</v>
@@ -2601,7 +2603,7 @@
         <v>3</v>
       </c>
       <c r="AB17" s="3">
-        <v>3.39E-2</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="AC17">
         <v>3</v>
@@ -2645,7 +2647,7 @@
         <v>65</v>
       </c>
       <c r="E18">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F18" s="3">
         <v>0.98160000000000003</v>
@@ -2672,13 +2674,13 @@
         <v>3</v>
       </c>
       <c r="N18" s="3">
-        <v>0.92020000000000002</v>
+        <v>0.96930000000000005</v>
       </c>
       <c r="O18">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="P18" s="3">
-        <v>0.97550000000000003</v>
+        <v>0.98160000000000003</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -2714,10 +2716,10 @@
         <v>3</v>
       </c>
       <c r="AB18" s="3">
-        <v>4.9099999999999998E-2</v>
+        <v>1.84E-2</v>
       </c>
       <c r="AC18">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AE18">
         <v>0</v>
@@ -2732,7 +2734,7 @@
         <v>3</v>
       </c>
       <c r="AL18" s="3">
-        <v>1.21</v>
+        <v>1</v>
       </c>
       <c r="AM18">
         <v>3</v>
@@ -2832,9 +2834,7 @@
       <c r="AI19">
         <v>0</v>
       </c>
-      <c r="AJ19" s="3">
-        <v>1.41E-2</v>
-      </c>
+      <c r="AJ19" s="3"/>
       <c r="AK19">
         <v>3</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>0.96550000000000002</v>
       </c>
       <c r="G20" s="3">
-        <v>0.86209999999999998</v>
+        <v>0.86780000000000002</v>
       </c>
       <c r="H20">
         <v>3</v>
@@ -2892,13 +2892,13 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>0.71840000000000004</v>
+        <v>0.72409999999999997</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>0.93100000000000005</v>
+        <v>0.93679999999999997</v>
       </c>
       <c r="Q20">
         <v>1.5</v>
@@ -2934,7 +2934,7 @@
         <v>3</v>
       </c>
       <c r="AB20" s="3">
-        <v>0.2011</v>
+        <v>0.18970000000000001</v>
       </c>
       <c r="AC20">
         <v>0</v>
@@ -2987,34 +2987,34 @@
         <v>0.95220000000000005</v>
       </c>
       <c r="G21" s="3">
-        <v>0.76839999999999997</v>
+        <v>0.77939999999999998</v>
       </c>
       <c r="H21">
         <v>3</v>
       </c>
       <c r="I21" s="3">
-        <v>0.99629999999999996</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="J21" s="3">
-        <v>0.99629999999999996</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="K21">
         <v>3</v>
       </c>
       <c r="L21" s="3">
-        <v>0.97430000000000005</v>
+        <v>0.97060000000000002</v>
       </c>
       <c r="M21">
         <v>3</v>
       </c>
       <c r="N21" s="3">
-        <v>0.94489999999999996</v>
+        <v>0.95589999999999997</v>
       </c>
       <c r="O21">
         <v>3</v>
       </c>
       <c r="P21" s="3">
-        <v>0.98529999999999995</v>
+        <v>0.98160000000000003</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -3026,7 +3026,7 @@
         <v>3</v>
       </c>
       <c r="T21" s="3">
-        <v>0.97789999999999999</v>
+        <v>0.97060000000000002</v>
       </c>
       <c r="U21">
         <v>3</v>
@@ -3050,7 +3050,7 @@
         <v>3</v>
       </c>
       <c r="AB21" s="3">
-        <v>0.1176</v>
+        <v>9.5600000000000004E-2</v>
       </c>
       <c r="AC21">
         <v>0</v>
@@ -3100,52 +3100,52 @@
         <v>17</v>
       </c>
       <c r="E22">
-        <v>24</v>
+        <v>22.5</v>
       </c>
       <c r="F22" s="3">
         <v>0.85270000000000001</v>
       </c>
       <c r="G22" s="3">
-        <v>0.63949999999999996</v>
+        <v>0.64729999999999999</v>
       </c>
       <c r="H22">
         <v>1.5</v>
       </c>
       <c r="I22" s="3">
-        <v>0.98450000000000004</v>
+        <v>0.98839999999999995</v>
       </c>
       <c r="J22" s="3">
-        <v>0.98450000000000004</v>
+        <v>0.98839999999999995</v>
       </c>
       <c r="K22">
         <v>3</v>
       </c>
       <c r="L22" s="3">
-        <v>0.90700000000000003</v>
+        <v>0.88759999999999994</v>
       </c>
       <c r="M22">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
-        <v>0.76739999999999997</v>
+        <v>0.7752</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22" s="3">
-        <v>0.84109999999999996</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
       <c r="R22" s="3">
-        <v>0.94189999999999996</v>
+        <v>0.96120000000000005</v>
       </c>
       <c r="S22">
         <v>3</v>
       </c>
       <c r="T22" s="3">
-        <v>0.91090000000000004</v>
+        <v>0.93410000000000004</v>
       </c>
       <c r="U22">
         <v>1.5</v>
@@ -3169,7 +3169,7 @@
         <v>1.5</v>
       </c>
       <c r="AB22" s="3">
-        <v>0.2054</v>
+        <v>0.17050000000000001</v>
       </c>
       <c r="AC22">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="AJ22" s="3">
-        <v>3.1E-2</v>
+        <v>3.49E-2</v>
       </c>
       <c r="AK22">
         <v>3</v>
@@ -3252,7 +3252,7 @@
         <v>3</v>
       </c>
       <c r="P23" s="3">
-        <v>0.98770000000000002</v>
+        <v>0.99390000000000001</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -3288,7 +3288,7 @@
         <v>3</v>
       </c>
       <c r="AB23" s="3">
-        <v>2.4500000000000001E-2</v>
+        <v>1.23E-2</v>
       </c>
       <c r="AC23">
         <v>3</v>
@@ -3335,52 +3335,52 @@
         <v>75</v>
       </c>
       <c r="E24">
-        <v>28.5</v>
+        <v>39</v>
       </c>
       <c r="F24" s="3">
-        <v>0.89549999999999996</v>
+        <v>0.97319999999999995</v>
       </c>
       <c r="G24" s="3">
-        <v>0.75960000000000005</v>
+        <v>0.84289999999999998</v>
       </c>
       <c r="H24">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="I24" s="3">
-        <v>0.99650000000000005</v>
+        <v>1</v>
       </c>
       <c r="J24" s="3">
-        <v>0.99650000000000005</v>
+        <v>1</v>
       </c>
       <c r="K24">
         <v>3</v>
       </c>
       <c r="L24" s="3">
-        <v>0.92679999999999996</v>
+        <v>0.98080000000000001</v>
       </c>
       <c r="M24">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="N24" s="3">
-        <v>0.86409999999999998</v>
+        <v>0.9425</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P24" s="3">
-        <v>0.93030000000000002</v>
+        <v>0.96550000000000002</v>
       </c>
       <c r="Q24">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="R24" s="3">
-        <v>0.94430000000000003</v>
+        <v>1</v>
       </c>
       <c r="S24">
         <v>3</v>
       </c>
       <c r="T24" s="3">
-        <v>0.99299999999999999</v>
+        <v>0.99619999999999997</v>
       </c>
       <c r="U24">
         <v>3</v>
@@ -3404,7 +3404,7 @@
         <v>3</v>
       </c>
       <c r="AB24" s="3">
-        <v>0.17069999999999999</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="AC24">
         <v>0</v>
@@ -3422,10 +3422,10 @@
         <v>0</v>
       </c>
       <c r="AJ24" s="3">
-        <v>0.1115</v>
+        <v>2.3E-2</v>
       </c>
       <c r="AK24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL24" s="3">
         <v>0.71</v>
@@ -3544,7 +3544,7 @@
         <v>3</v>
       </c>
       <c r="AL25" s="3">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AM25">
         <v>3</v>
@@ -3573,52 +3573,52 @@
         <v>39</v>
       </c>
       <c r="F26" s="3">
-        <v>0.96430000000000005</v>
+        <v>0.95540000000000003</v>
       </c>
       <c r="G26" s="3">
-        <v>0.88390000000000002</v>
+        <v>0.875</v>
       </c>
       <c r="H26">
         <v>3</v>
       </c>
       <c r="I26" s="3">
-        <v>1</v>
+        <v>0.99109999999999998</v>
       </c>
       <c r="J26" s="3">
-        <v>1</v>
+        <v>0.99109999999999998</v>
       </c>
       <c r="K26">
         <v>3</v>
       </c>
       <c r="L26" s="3">
+        <v>0.97319999999999995</v>
+      </c>
+      <c r="M26">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0.92859999999999998</v>
+      </c>
+      <c r="O26">
+        <v>1.5</v>
+      </c>
+      <c r="P26" s="3">
         <v>0.98209999999999997</v>
       </c>
-      <c r="M26">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="Q26">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0.98209999999999997</v>
+      </c>
+      <c r="S26">
+        <v>3</v>
+      </c>
+      <c r="T26" s="3">
         <v>0.94640000000000002</v>
       </c>
-      <c r="O26">
-        <v>3</v>
-      </c>
-      <c r="P26" s="3">
-        <v>0.97319999999999995</v>
-      </c>
-      <c r="Q26">
-        <v>3</v>
-      </c>
-      <c r="R26" s="3">
-        <v>0.99109999999999998</v>
-      </c>
-      <c r="S26">
-        <v>3</v>
-      </c>
-      <c r="T26" s="3">
-        <v>0.92859999999999998</v>
-      </c>
       <c r="U26">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="V26" s="3">
         <v>0.90629999999999999</v>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="AB26" s="3">
-        <v>3.5700000000000003E-2</v>
+        <v>2.6800000000000001E-2</v>
       </c>
       <c r="AC26">
         <v>3</v>
@@ -3654,7 +3654,7 @@
         <v>3</v>
       </c>
       <c r="AJ26" s="3">
-        <v>2.6800000000000001E-2</v>
+        <v>1.7899999999999999E-2</v>
       </c>
       <c r="AK26">
         <v>3</v>
@@ -3692,7 +3692,7 @@
         <v>0.96199999999999997</v>
       </c>
       <c r="G27" s="3">
-        <v>0.9022</v>
+        <v>0.90759999999999996</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -3707,7 +3707,7 @@
         <v>3</v>
       </c>
       <c r="L27" s="3">
-        <v>0.88590000000000002</v>
+        <v>0.89670000000000005</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -3719,7 +3719,7 @@
         <v>1.5</v>
       </c>
       <c r="P27" s="3">
-        <v>0.9022</v>
+        <v>0.90759999999999996</v>
       </c>
       <c r="Q27">
         <v>1.5</v>
@@ -3755,7 +3755,7 @@
         <v>3</v>
       </c>
       <c r="AB27" s="3">
-        <v>0.14130000000000001</v>
+        <v>0.13589999999999999</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -3808,10 +3808,10 @@
         <v>37.5</v>
       </c>
       <c r="F28" s="3">
-        <v>0.97299999999999998</v>
+        <v>0.96850000000000003</v>
       </c>
       <c r="G28" s="3">
-        <v>0.9234</v>
+        <v>0.92789999999999995</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -3826,7 +3826,7 @@
         <v>3</v>
       </c>
       <c r="L28" s="3">
-        <v>0.82430000000000003</v>
+        <v>0.83330000000000004</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -3874,7 +3874,7 @@
         <v>3</v>
       </c>
       <c r="AB28" s="3">
-        <v>9.9099999999999994E-2</v>
+        <v>9.4600000000000004E-2</v>
       </c>
       <c r="AC28">
         <v>0</v>
@@ -3898,7 +3898,7 @@
         <v>3</v>
       </c>
       <c r="AL28" s="3">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="AM28">
         <v>3</v>
@@ -3924,13 +3924,13 @@
         <v>74</v>
       </c>
       <c r="E29">
-        <v>40.5</v>
+        <v>42</v>
       </c>
       <c r="F29" s="3">
-        <v>0.93989999999999996</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="G29" s="3">
-        <v>0.67079999999999995</v>
+        <v>0.67759999999999998</v>
       </c>
       <c r="H29">
         <v>3</v>
@@ -3945,10 +3945,10 @@
         <v>3</v>
       </c>
       <c r="L29" s="3">
-        <v>0.9385</v>
+        <v>0.94540000000000002</v>
       </c>
       <c r="M29">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="N29" s="3">
         <v>0.92620000000000002</v>
@@ -3957,7 +3957,7 @@
         <v>1.5</v>
       </c>
       <c r="P29" s="3">
-        <v>0.98629999999999995</v>
+        <v>0.98909999999999998</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -3993,7 +3993,7 @@
         <v>3</v>
       </c>
       <c r="AB29" s="3">
-        <v>9.9699999999999997E-2</v>
+        <v>9.4299999999999995E-2</v>
       </c>
       <c r="AC29">
         <v>0</v>
@@ -4034,7 +4034,7 @@
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="G32" s="2">
         <f>AVERAGE(E2:E29)</f>
-        <v>38.089285714285715</v>
+        <v>38.678571428571431</v>
       </c>
     </row>
   </sheetData>
